--- a/Procurement/EXSIM_Mezquite_Purchasing_CORREGIDO_FIX_with_policies.xlsx
+++ b/Procurement/EXSIM_Mezquite_Purchasing_CORREGIDO_FIX_with_policies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0dc407a335d7300f/Documentos/GitHub/BusinessSim/Procurement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1333" documentId="6_{4F45DE64-BE33-4F18-9BCE-C4F36FED717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{026F19EC-0683-4063-8F7E-E329E0BEE36C}"/>
+  <xr:revisionPtr revIDLastSave="1379" documentId="6_{4F45DE64-BE33-4F18-9BCE-C4F36FED717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8B69995-E92B-4F9D-A2A3-CD7748A99B60}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -707,7 +707,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -800,21 +800,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -822,7 +807,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -922,9 +907,6 @@
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1296,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1310,49 +1292,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -1393,25 +1375,25 @@
       <c r="B6" s="44">
         <v>0</v>
       </c>
-      <c r="C6" s="47">
-        <v>0</v>
-      </c>
-      <c r="D6" s="47">
-        <v>0</v>
-      </c>
-      <c r="E6" s="47">
-        <v>0</v>
-      </c>
-      <c r="F6" s="47">
-        <v>0</v>
-      </c>
-      <c r="G6" s="47">
-        <v>0</v>
-      </c>
-      <c r="H6" s="47">
-        <v>0</v>
-      </c>
-      <c r="I6" s="47">
+      <c r="C6" s="44">
+        <v>0</v>
+      </c>
+      <c r="D6" s="44">
+        <v>0</v>
+      </c>
+      <c r="E6" s="44">
+        <v>0</v>
+      </c>
+      <c r="F6" s="44">
+        <v>0</v>
+      </c>
+      <c r="G6" s="44">
+        <v>0</v>
+      </c>
+      <c r="H6" s="44">
+        <v>0</v>
+      </c>
+      <c r="I6" s="44">
         <v>0</v>
       </c>
       <c r="J6" s="7">
@@ -1426,25 +1408,25 @@
       <c r="B7" s="44">
         <v>0</v>
       </c>
-      <c r="C7" s="47">
-        <v>0</v>
-      </c>
-      <c r="D7" s="47">
-        <v>0</v>
-      </c>
-      <c r="E7" s="47">
-        <v>0</v>
-      </c>
-      <c r="F7" s="47">
-        <v>0</v>
-      </c>
-      <c r="G7" s="47">
-        <v>0</v>
-      </c>
-      <c r="H7" s="47">
-        <v>0</v>
-      </c>
-      <c r="I7" s="47">
+      <c r="C7" s="44">
+        <v>0</v>
+      </c>
+      <c r="D7" s="44">
+        <v>0</v>
+      </c>
+      <c r="E7" s="44">
+        <v>0</v>
+      </c>
+      <c r="F7" s="44">
+        <v>0</v>
+      </c>
+      <c r="G7" s="44">
+        <v>0</v>
+      </c>
+      <c r="H7" s="44">
+        <v>0</v>
+      </c>
+      <c r="I7" s="44">
         <v>0</v>
       </c>
       <c r="J7" s="7">
@@ -1452,32 +1434,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="B8" s="44">
+        <v>0</v>
+      </c>
+      <c r="C8" s="44">
+        <v>0</v>
+      </c>
+      <c r="D8" s="44">
+        <v>0</v>
+      </c>
+      <c r="E8" s="44">
+        <v>0</v>
+      </c>
+      <c r="F8" s="44">
+        <v>0</v>
+      </c>
+      <c r="G8" s="44">
+        <v>0</v>
+      </c>
+      <c r="H8" s="44">
+        <v>0</v>
+      </c>
+      <c r="I8" s="44">
         <v>0</v>
       </c>
       <c r="J8" s="7">
@@ -1605,19 +1587,19 @@
       <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -1658,25 +1640,25 @@
       <c r="B15" s="44">
         <v>0</v>
       </c>
-      <c r="C15" s="47">
-        <v>0</v>
-      </c>
-      <c r="D15" s="47">
-        <v>0</v>
-      </c>
-      <c r="E15" s="47">
-        <v>0</v>
-      </c>
-      <c r="F15" s="47">
-        <v>0</v>
-      </c>
-      <c r="G15" s="47">
-        <v>0</v>
-      </c>
-      <c r="H15" s="47">
-        <v>0</v>
-      </c>
-      <c r="I15" s="47">
+      <c r="C15" s="44">
+        <v>0</v>
+      </c>
+      <c r="D15" s="44">
+        <v>0</v>
+      </c>
+      <c r="E15" s="44">
+        <v>0</v>
+      </c>
+      <c r="F15" s="44">
+        <v>0</v>
+      </c>
+      <c r="G15" s="44">
+        <v>0</v>
+      </c>
+      <c r="H15" s="44">
+        <v>0</v>
+      </c>
+      <c r="I15" s="44">
         <v>0</v>
       </c>
       <c r="J15" s="7">
@@ -1691,25 +1673,25 @@
       <c r="B16" s="44">
         <v>0</v>
       </c>
-      <c r="C16" s="47">
-        <v>0</v>
-      </c>
-      <c r="D16" s="47">
-        <v>0</v>
-      </c>
-      <c r="E16" s="47">
-        <v>0</v>
-      </c>
-      <c r="F16" s="47">
-        <v>0</v>
-      </c>
-      <c r="G16" s="47">
-        <v>0</v>
-      </c>
-      <c r="H16" s="47">
-        <v>0</v>
-      </c>
-      <c r="I16" s="47">
+      <c r="C16" s="44">
+        <v>0</v>
+      </c>
+      <c r="D16" s="44">
+        <v>0</v>
+      </c>
+      <c r="E16" s="44">
+        <v>0</v>
+      </c>
+      <c r="F16" s="44">
+        <v>0</v>
+      </c>
+      <c r="G16" s="44">
+        <v>0</v>
+      </c>
+      <c r="H16" s="44">
+        <v>0</v>
+      </c>
+      <c r="I16" s="44">
         <v>0</v>
       </c>
       <c r="J16" s="7">
@@ -1717,32 +1699,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6">
+      <c r="B17" s="44">
+        <v>0</v>
+      </c>
+      <c r="C17" s="44">
+        <v>0</v>
+      </c>
+      <c r="D17" s="44">
+        <v>0</v>
+      </c>
+      <c r="E17" s="44">
+        <v>0</v>
+      </c>
+      <c r="F17" s="44">
+        <v>0</v>
+      </c>
+      <c r="G17" s="44">
+        <v>0</v>
+      </c>
+      <c r="H17" s="44">
+        <v>0</v>
+      </c>
+      <c r="I17" s="44">
         <v>0</v>
       </c>
       <c r="J17" s="7">
@@ -1750,32 +1732,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6">
+      <c r="B18" s="44">
+        <v>0</v>
+      </c>
+      <c r="C18" s="44">
+        <v>0</v>
+      </c>
+      <c r="D18" s="44">
+        <v>0</v>
+      </c>
+      <c r="E18" s="44">
+        <v>0</v>
+      </c>
+      <c r="F18" s="44">
+        <v>0</v>
+      </c>
+      <c r="G18" s="44">
+        <v>0</v>
+      </c>
+      <c r="H18" s="44">
+        <v>0</v>
+      </c>
+      <c r="I18" s="44">
         <v>0</v>
       </c>
       <c r="J18" s="7">
@@ -1870,19 +1852,19 @@
       <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
@@ -1923,25 +1905,25 @@
       <c r="B24" s="44">
         <v>0</v>
       </c>
-      <c r="C24" s="47">
-        <v>0</v>
-      </c>
-      <c r="D24" s="47">
-        <v>0</v>
-      </c>
-      <c r="E24" s="47">
-        <v>0</v>
-      </c>
-      <c r="F24" s="47">
-        <v>0</v>
-      </c>
-      <c r="G24" s="47">
-        <v>0</v>
-      </c>
-      <c r="H24" s="47">
-        <v>0</v>
-      </c>
-      <c r="I24" s="47">
+      <c r="C24" s="44">
+        <v>0</v>
+      </c>
+      <c r="D24" s="44">
+        <v>0</v>
+      </c>
+      <c r="E24" s="44">
+        <v>0</v>
+      </c>
+      <c r="F24" s="44">
+        <v>0</v>
+      </c>
+      <c r="G24" s="44">
+        <v>0</v>
+      </c>
+      <c r="H24" s="44">
+        <v>0</v>
+      </c>
+      <c r="I24" s="44">
         <v>0</v>
       </c>
       <c r="J24" s="7">
@@ -1956,25 +1938,25 @@
       <c r="B25" s="44">
         <v>0</v>
       </c>
-      <c r="C25" s="47">
-        <v>0</v>
-      </c>
-      <c r="D25" s="47">
-        <v>0</v>
-      </c>
-      <c r="E25" s="47">
-        <v>0</v>
-      </c>
-      <c r="F25" s="47">
-        <v>0</v>
-      </c>
-      <c r="G25" s="47">
-        <v>0</v>
-      </c>
-      <c r="H25" s="47">
-        <v>0</v>
-      </c>
-      <c r="I25" s="47">
+      <c r="C25" s="44">
+        <v>0</v>
+      </c>
+      <c r="D25" s="44">
+        <v>0</v>
+      </c>
+      <c r="E25" s="44">
+        <v>0</v>
+      </c>
+      <c r="F25" s="44">
+        <v>0</v>
+      </c>
+      <c r="G25" s="44">
+        <v>0</v>
+      </c>
+      <c r="H25" s="44">
+        <v>0</v>
+      </c>
+      <c r="I25" s="44">
         <v>0</v>
       </c>
       <c r="J25" s="7">
@@ -1982,32 +1964,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="6">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0</v>
-      </c>
-      <c r="I26" s="6">
+      <c r="B26" s="44">
+        <v>0</v>
+      </c>
+      <c r="C26" s="44">
+        <v>0</v>
+      </c>
+      <c r="D26" s="44">
+        <v>0</v>
+      </c>
+      <c r="E26" s="44">
+        <v>0</v>
+      </c>
+      <c r="F26" s="44">
+        <v>0</v>
+      </c>
+      <c r="G26" s="44">
+        <v>0</v>
+      </c>
+      <c r="H26" s="44">
+        <v>0</v>
+      </c>
+      <c r="I26" s="44">
         <v>0</v>
       </c>
       <c r="J26" s="7">
@@ -2164,10 +2146,10 @@
       <c r="A32" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="64">
+      <c r="B32" s="63">
         <v>1648</v>
       </c>
-      <c r="C32" s="64">
+      <c r="C32" s="63">
         <v>1696</v>
       </c>
       <c r="D32" s="6">
@@ -2190,10 +2172,10 @@
       <c r="A33" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="64">
+      <c r="B33" s="63">
         <v>261</v>
       </c>
-      <c r="C33" s="64">
+      <c r="C33" s="63">
         <v>429</v>
       </c>
       <c r="D33" s="6">
@@ -2216,10 +2198,10 @@
       <c r="A34" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="64">
+      <c r="B34" s="63">
         <v>25</v>
       </c>
-      <c r="C34" s="64">
+      <c r="C34" s="63">
         <v>18</v>
       </c>
       <c r="D34" s="6">
@@ -2242,7 +2224,7 @@
       <c r="A35" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="64">
+      <c r="B35" s="63">
         <v>824</v>
       </c>
       <c r="C35" s="6">
@@ -2268,10 +2250,10 @@
       <c r="A36" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="64">
+      <c r="B36" s="63">
         <v>413</v>
       </c>
-      <c r="C36" s="64">
+      <c r="C36" s="63">
         <v>30</v>
       </c>
       <c r="D36" s="6">
@@ -2294,10 +2276,10 @@
       <c r="A37" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="64">
+      <c r="B37" s="63">
         <v>707</v>
       </c>
-      <c r="C37" s="64">
+      <c r="C37" s="63">
         <v>59</v>
       </c>
       <c r="D37" s="6">
@@ -2320,7 +2302,7 @@
       <c r="A38" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="64">
+      <c r="B38" s="63">
         <v>256</v>
       </c>
       <c r="C38" s="6">
@@ -2346,7 +2328,7 @@
       <c r="A39" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="64">
+      <c r="B39" s="63">
         <v>209</v>
       </c>
       <c r="C39" s="6">
@@ -2473,12 +2455,12 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
@@ -2669,12 +2651,12 @@
       <c r="D61" s="3"/>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="52" t="s">
+      <c r="A64" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
@@ -2694,7 +2676,7 @@
       <c r="A66" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="49">
+      <c r="B66" s="48">
         <v>30</v>
       </c>
       <c r="C66" s="10" t="s">
@@ -2708,7 +2690,7 @@
       <c r="A67" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="49">
+      <c r="B67" s="48">
         <v>12</v>
       </c>
       <c r="C67" s="10" t="s">
@@ -2722,7 +2704,7 @@
       <c r="A68" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="49">
+      <c r="B68" s="48">
         <v>1</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -2736,7 +2718,7 @@
       <c r="A69" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="49">
+      <c r="B69" s="48">
         <v>100</v>
       </c>
       <c r="C69" s="10" t="s">
@@ -2750,7 +2732,7 @@
       <c r="A70" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="49">
+      <c r="B70" s="48">
         <v>30</v>
       </c>
       <c r="C70" s="10" t="s">
@@ -2764,7 +2746,7 @@
       <c r="A71" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B71" s="49">
+      <c r="B71" s="48">
         <v>60</v>
       </c>
       <c r="C71" s="10" t="s">
@@ -2778,7 +2760,7 @@
       <c r="A72" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B72" s="49">
+      <c r="B72" s="48">
         <v>100</v>
       </c>
       <c r="C72" s="10" t="s">
@@ -2792,7 +2774,7 @@
       <c r="A73" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="49">
+      <c r="B73" s="48">
         <v>150</v>
       </c>
       <c r="C73" s="10" t="s">
@@ -2806,7 +2788,7 @@
       <c r="A74" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B74" s="49">
+      <c r="B74" s="48">
         <v>1</v>
       </c>
       <c r="C74" s="10" t="s">
@@ -2820,7 +2802,7 @@
       <c r="A75" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="49">
+      <c r="B75" s="48">
         <v>1</v>
       </c>
       <c r="C75" s="10" t="s">
@@ -2834,7 +2816,7 @@
       <c r="A76" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B76" s="49">
+      <c r="B76" s="48">
         <v>1</v>
       </c>
       <c r="C76" s="10" t="s">
@@ -2848,7 +2830,7 @@
       <c r="A77" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="49">
+      <c r="B77" s="48">
         <v>1</v>
       </c>
       <c r="C77" s="10" t="s">
@@ -2865,18 +2847,18 @@
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="55" t="s">
+      <c r="A81" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B81" s="53"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="53"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="53"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="53"/>
+      <c r="B81" s="52"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="52"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="52"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="52"/>
+      <c r="J81" s="52"/>
     </row>
     <row r="82" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="22" t="s">
@@ -3257,13 +3239,13 @@
       </c>
     </row>
     <row r="93" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="50" t="s">
+      <c r="A93" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B93" s="51"/>
-      <c r="C93" s="51"/>
-      <c r="D93" s="51"/>
-      <c r="E93" s="51"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="50"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
@@ -3385,15 +3367,15 @@
       <c r="D102" s="11"/>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="50" t="s">
+      <c r="A105" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B105" s="51"/>
-      <c r="C105" s="51"/>
-      <c r="D105" s="51"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="51"/>
-      <c r="G105" s="51"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="50"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="50"/>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
@@ -3484,15 +3466,15 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="50" t="s">
+      <c r="A113" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="B113" s="51"/>
-      <c r="C113" s="51"/>
-      <c r="D113" s="51"/>
-      <c r="E113" s="51"/>
-      <c r="F113" s="51"/>
-      <c r="G113" s="51"/>
+      <c r="B113" s="50"/>
+      <c r="C113" s="50"/>
+      <c r="D113" s="50"/>
+      <c r="E113" s="50"/>
+      <c r="F113" s="50"/>
+      <c r="G113" s="50"/>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
@@ -3606,8 +3588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
@@ -6212,7 +6194,7 @@
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6225,52 +6207,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -6384,12 +6366,12 @@
         <v>-25</v>
       </c>
       <c r="O6" s="39">
-        <f>IF(ROUNDUP(N6/Inputs!$B$68,0)&lt;0,0,ROUNDUP(N6/Inputs!$B$68,0))*1.1+1</f>
-        <v>1</v>
+        <f>IF(ROUNDUP(N6/Inputs!$B$68,0)&lt;0,0,ROUNDUP(N6/Inputs!$B$68,0))*1.1+0</f>
+        <v>0</v>
       </c>
       <c r="P6" s="28">
         <f>O6*Inputs!$B$85</f>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6761,7 +6743,7 @@
       <c r="N12" s="24"/>
       <c r="P12" s="28">
         <f>SUM(P6:P11)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6871,17 +6853,17 @@
         <f>Inputs!C34</f>
         <v>18</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="47">
         <f>K16+L16-M16</f>
         <v>-18</v>
       </c>
       <c r="O16" s="39">
-        <f>IF(ROUNDUP(N16/Inputs!$B$68,0)&lt;0,0,ROUNDUP(N16/Inputs!$B$68,0))*1.1+1</f>
-        <v>1</v>
+        <f>IF(ROUNDUP(N16/Inputs!$B$68,0)&lt;0,0,ROUNDUP(N16/Inputs!$B$68,0))+0</f>
+        <v>0</v>
       </c>
       <c r="P16" s="28">
         <f>O16*Inputs!$B$85</f>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -7247,7 +7229,7 @@
       </c>
       <c r="P22" s="28">
         <f>SUM(P16:P21)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R22" s="28"/>
     </row>
@@ -7362,12 +7344,12 @@
         <v>0</v>
       </c>
       <c r="O26" s="39">
-        <f>IF(ROUNDUP(N26/Inputs!$B$68,0)&lt;0,0,ROUNDUP(N26/Inputs!$B$68,0))*1.1+1</f>
-        <v>1</v>
+        <f>IF(ROUNDUP(N26/Inputs!$B$68,0)&lt;0,0,ROUNDUP(N26/Inputs!$B$68,0))*1.1+0</f>
+        <v>0</v>
       </c>
       <c r="P26" s="28">
         <f>O26*Inputs!$B$85</f>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
@@ -7733,7 +7715,7 @@
       </c>
       <c r="P32" s="28">
         <f>SUM(P26:P31)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -7847,12 +7829,12 @@
         <v>0</v>
       </c>
       <c r="O36" s="39">
-        <f>IF(ROUNDUP(N36/Inputs!$B$68,0)&lt;0,0,ROUNDUP(N36/Inputs!$B$68,0))*1.1+1</f>
-        <v>1</v>
+        <f>IF(ROUNDUP(N36/Inputs!$B$68,0)&lt;0,0,ROUNDUP(N36/Inputs!$B$68,0))*1.1+0</f>
+        <v>0</v>
       </c>
       <c r="P36" s="28">
         <f>O36*Inputs!$B$85</f>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -8219,7 +8201,7 @@
       <c r="L42" s="39"/>
       <c r="P42" s="28">
         <f>SUM(P36:P41)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -8333,11 +8315,11 @@
         <v>0</v>
       </c>
       <c r="O46" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="28">
         <f>O46*Inputs!$B$85</f>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -8703,13 +8685,13 @@
       </c>
       <c r="P52" s="28">
         <f>SUM(P46:P51)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P54" s="28">
         <f>SUM(P12,P22,P32,P42)</f>
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -8730,8 +8712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="G3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8756,23 +8738,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8798,17 +8780,17 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
       <c r="J4" s="40" t="s">
         <v>145</v>
       </c>
@@ -8821,17 +8803,17 @@
       <c r="M4" t="s">
         <v>152</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
       <c r="X4" s="40" t="s">
         <v>145</v>
       </c>
@@ -8846,28 +8828,28 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="O5" s="55" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="O5" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -9230,28 +9212,28 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="O11" s="59" t="s">
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="O11" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="60"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -9319,31 +9301,31 @@
       </c>
       <c r="C13" s="16">
         <f t="shared" ref="C13:I13" si="4">B16</f>
-        <v>6196</v>
+        <v>1696</v>
       </c>
       <c r="D13" s="16">
         <f t="shared" si="4"/>
-        <v>6196</v>
+        <v>1696</v>
       </c>
       <c r="E13" s="16">
         <f t="shared" si="4"/>
-        <v>6196</v>
+        <v>1696</v>
       </c>
       <c r="F13" s="16">
         <f t="shared" si="4"/>
-        <v>6196</v>
+        <v>1696</v>
       </c>
       <c r="G13" s="16">
         <f t="shared" si="4"/>
-        <v>6196</v>
+        <v>1696</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" si="4"/>
-        <v>6196</v>
+        <v>1696</v>
       </c>
       <c r="I13" s="16">
         <f t="shared" si="4"/>
-        <v>6196</v>
+        <v>1696</v>
       </c>
       <c r="J13" s="39">
         <f>Politica_Inventarios!N23</f>
@@ -9365,31 +9347,31 @@
       </c>
       <c r="Q13" s="16">
         <f t="shared" ref="Q13:W13" si="5">P16</f>
-        <v>1389</v>
+        <v>429</v>
       </c>
       <c r="R13" s="16">
         <f t="shared" si="5"/>
-        <v>1389</v>
+        <v>429</v>
       </c>
       <c r="S13" s="16">
         <f t="shared" si="5"/>
-        <v>1389</v>
+        <v>429</v>
       </c>
       <c r="T13" s="16">
         <f t="shared" si="5"/>
-        <v>1389</v>
+        <v>429</v>
       </c>
       <c r="U13" s="16">
         <f t="shared" si="5"/>
-        <v>1389</v>
+        <v>429</v>
       </c>
       <c r="V13" s="16">
         <f t="shared" si="5"/>
-        <v>1389</v>
+        <v>429</v>
       </c>
       <c r="W13" s="16">
         <f t="shared" si="5"/>
-        <v>1389</v>
+        <v>429</v>
       </c>
       <c r="X13" s="39">
         <f>Politica_Inventarios!N24</f>
@@ -9408,7 +9390,7 @@
         <v>136</v>
       </c>
       <c r="B14" s="6">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
@@ -9433,13 +9415,13 @@
       </c>
       <c r="M14" s="28">
         <f>SUM(B14:I14)*VLOOKUP(Inputs!B110,Inputs!A107:B109,2,FALSE)</f>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="O14" s="9" t="s">
         <v>136</v>
       </c>
       <c r="P14" s="6">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="6">
         <v>0</v>
@@ -9464,7 +9446,7 @@
       </c>
       <c r="AA14" s="1">
         <f>SUM(P14:W14)*VLOOKUP(Inputs!B118,Inputs!A114:B117,2,FALSE)</f>
-        <v>21120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9545,95 +9527,95 @@
       </c>
       <c r="B16" s="19">
         <f>B13+(B14*$L$13)-B15</f>
-        <v>6196</v>
+        <v>1696</v>
       </c>
       <c r="C16" s="19">
         <f t="shared" ref="C16:I16" si="6">C13+(C14*$L$7)-C15</f>
-        <v>6196</v>
+        <v>1696</v>
       </c>
       <c r="D16" s="19">
         <f t="shared" si="6"/>
-        <v>6196</v>
+        <v>1696</v>
       </c>
       <c r="E16" s="19">
         <f t="shared" si="6"/>
-        <v>6196</v>
+        <v>1696</v>
       </c>
       <c r="F16" s="19">
         <f t="shared" si="6"/>
-        <v>6196</v>
+        <v>1696</v>
       </c>
       <c r="G16" s="19">
         <f t="shared" si="6"/>
-        <v>6196</v>
+        <v>1696</v>
       </c>
       <c r="H16" s="19">
         <f t="shared" si="6"/>
-        <v>6196</v>
+        <v>1696</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" si="6"/>
-        <v>6196</v>
+        <v>1696</v>
       </c>
       <c r="O16" s="5" t="s">
         <v>138</v>
       </c>
       <c r="P16" s="19">
         <f>P13+(P14*$Z$7)-P15</f>
-        <v>1389</v>
+        <v>429</v>
       </c>
       <c r="Q16" s="19">
         <f t="shared" ref="Q16:W16" si="7">Q13+(Q14*$Z$7)-Q15</f>
-        <v>1389</v>
+        <v>429</v>
       </c>
       <c r="R16" s="19">
         <f t="shared" si="7"/>
-        <v>1389</v>
+        <v>429</v>
       </c>
       <c r="S16" s="19">
         <f t="shared" si="7"/>
-        <v>1389</v>
+        <v>429</v>
       </c>
       <c r="T16" s="19">
         <f t="shared" si="7"/>
-        <v>1389</v>
+        <v>429</v>
       </c>
       <c r="U16" s="19">
         <f t="shared" si="7"/>
-        <v>1389</v>
+        <v>429</v>
       </c>
       <c r="V16" s="19">
         <f t="shared" si="7"/>
-        <v>1389</v>
+        <v>429</v>
       </c>
       <c r="W16" s="19">
         <f t="shared" si="7"/>
-        <v>1389</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="O17" s="59" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="O17" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -9964,28 +9946,28 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="O23" s="59" t="s">
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="O23" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60"/>
-      <c r="W23" s="60"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -10338,28 +10320,28 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="O29" s="59" t="s">
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="O29" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
     </row>
     <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -10695,7 +10677,7 @@
       </c>
       <c r="M35" s="28">
         <f>SUM(M14,M8)</f>
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
@@ -10712,74 +10694,74 @@
       </c>
       <c r="B37" s="28">
         <f>SUM(B10+B16+B22+B28+B34)*Inputs!$C$95</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="C37" s="28">
         <f>SUM(C10+C16+C22+C28+C34)*Inputs!$C$95</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="D37" s="28">
         <f>SUM(D10+D16+D22+D28+D34)*Inputs!$C$95</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="E37" s="28">
         <f>SUM(E10+E16+E22+E28+E34)*Inputs!$C$95</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="F37" s="28">
         <f>SUM(F10+F16+F22+F28+F34)*Inputs!$C$95</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="G37" s="28">
         <f>SUM(G10+G16+G22+G28+G34)*Inputs!$C$95</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="H37" s="28">
         <f>SUM(H10+H16+H22+H28+H34)*Inputs!$C$95</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="I37" s="28">
         <f>SUM(I10+I16+I22+I28+I34)*Inputs!$C$95</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="J37" s="28">
         <f>SUM(B37:I37)</f>
-        <v>29625.600000000002</v>
+        <v>18825.600000000002</v>
       </c>
       <c r="O37" t="s">
         <v>149</v>
       </c>
       <c r="P37" s="28">
         <f>SUM(P10+P16+P22+P28+P34)*Inputs!$C$95</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="Q37" s="28">
         <f>SUM(Q10+Q16+Q22+Q28+Q34)*Inputs!$C$95</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="R37" s="28">
         <f>SUM(R10+R16+R22+R28+R34)*Inputs!$C$95</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="S37" s="28">
         <f>SUM(S10+S16+S22+S28+S34)*Inputs!$C$95</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="T37" s="28">
         <f>SUM(T10+T16+T22+T28+T34)*Inputs!$C$95</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="U37" s="28">
         <f>SUM(U10+U16+U22+U28+U34)*Inputs!$C$95</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="V37" s="28">
         <f>SUM(V10+V16+V22+V28+V34)*Inputs!$C$95</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="W37" s="28">
         <f>SUM(W10+W16+W22+W28+W34)*Inputs!$C$95</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="X37" s="28"/>
       <c r="Z37" s="28"/>
@@ -10790,7 +10772,7 @@
       </c>
       <c r="B38" s="28">
         <f>B39*Inputs!$B$95</f>
-        <v>4600</v>
+        <v>2300</v>
       </c>
       <c r="C38" s="28">
         <f>C39*Inputs!$B$95</f>
@@ -10822,14 +10804,14 @@
       </c>
       <c r="J38" s="28">
         <f>SUM(B38:I38)</f>
-        <v>4600</v>
+        <v>2300</v>
       </c>
       <c r="O38" t="s">
         <v>150</v>
       </c>
       <c r="P38" s="28">
         <f>P39*Inputs!$B$96</f>
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q38" s="28">
         <f>Q39*Inputs!$B$96</f>
@@ -10868,7 +10850,7 @@
       </c>
       <c r="B39">
         <f>+COUNTIF(B42:B46,"&gt;0")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <f t="shared" ref="C39:I39" si="20">+COUNTIF(C42:C46,"&gt;0")</f>
@@ -10903,7 +10885,7 @@
       </c>
       <c r="P39">
         <f>+COUNTIF(P42:P46,"&gt;0")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q39">
         <f t="shared" ref="Q39:W39" si="21">+COUNTIF(Q42:Q46,"&gt;0")</f>
@@ -10937,7 +10919,7 @@
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="J40" s="28">
         <f>+SUM(J37:J38)</f>
-        <v>34225.600000000006</v>
+        <v>21125.600000000002</v>
       </c>
       <c r="X40" s="28"/>
     </row>
@@ -11018,7 +11000,7 @@
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B43" s="24">
         <f>B14</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C43" s="24">
         <f t="shared" ref="C43:I43" si="24">C14</f>
@@ -11054,7 +11036,7 @@
       </c>
       <c r="P43" s="24">
         <f>P14</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="24">
         <f t="shared" ref="Q43:W43" si="25">Q14</f>
@@ -11286,7 +11268,7 @@
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B48">
         <f>SUM(B42:B46)*$K$43</f>
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C48">
         <f t="shared" ref="C48:I48" si="32">SUM(C42:C46)*$K$43</f>
@@ -11392,8 +11374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CCB233-5C68-4FDC-B7E2-591CBA53034B}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11405,18 +11387,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
@@ -11472,7 +11454,7 @@
       </c>
       <c r="C4" s="28">
         <f>Inventario_Dinamico!B38</f>
-        <v>4600</v>
+        <v>2300</v>
       </c>
       <c r="D4" s="28">
         <f>Inventario_Dinamico!C38</f>
@@ -11509,7 +11491,7 @@
       </c>
       <c r="C5" s="43">
         <f>Inventario_Dinamico!P38</f>
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="D5" s="43">
         <f>Inventario_Dinamico!Q38</f>
@@ -11544,7 +11526,7 @@
       <c r="A6" s="42"/>
       <c r="C6" s="28">
         <f>SUM(C4:C5)</f>
-        <v>16600</v>
+        <v>8300</v>
       </c>
       <c r="D6" s="28">
         <f>SUM(D4:D5)</f>
@@ -11593,35 +11575,35 @@
       </c>
       <c r="C8" s="28">
         <f>Inventario_Dinamico!B37</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="D8" s="28">
         <f>Inventario_Dinamico!C37</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="E8" s="28">
         <f>Inventario_Dinamico!D37</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="F8" s="28">
         <f>Inventario_Dinamico!E37</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="G8" s="28">
         <f>Inventario_Dinamico!F37</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="H8" s="28">
         <f>Inventario_Dinamico!G37</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="I8" s="28">
         <f>Inventario_Dinamico!H37</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="J8" s="28">
         <f>Inventario_Dinamico!I37</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="K8" t="str">
         <f>+VLOOKUP(Inputs!B110,Inputs!A107:C109,3,FALSE)</f>
@@ -11634,35 +11616,35 @@
       </c>
       <c r="C9" s="43">
         <f>Inventario_Dinamico!P37</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="D9" s="43">
         <f>Inventario_Dinamico!Q37</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="E9" s="43">
         <f>Inventario_Dinamico!R37</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="F9" s="43">
         <f>Inventario_Dinamico!S37</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="G9" s="43">
         <f>Inventario_Dinamico!T37</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="H9" s="43">
         <f>Inventario_Dinamico!U37</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="I9" s="43">
         <f>Inventario_Dinamico!V37</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="J9" s="43">
         <f>Inventario_Dinamico!W37</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="K9" t="str">
         <f>VLOOKUP(Inputs!B118,Inputs!A114:C117,3,FALSE)</f>
@@ -11672,35 +11654,35 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C10" s="28">
         <f>+SUM(C8:C9)</f>
-        <v>4486.2</v>
+        <v>2848.2</v>
       </c>
       <c r="D10" s="28">
         <f>+SUM(D8:D9)</f>
-        <v>4486.2</v>
+        <v>2848.2</v>
       </c>
       <c r="E10" s="28">
         <f>+SUM(E8:E9)</f>
-        <v>4486.2</v>
+        <v>2848.2</v>
       </c>
       <c r="F10" s="28">
         <f>+SUM(F8:F9)</f>
-        <v>4486.2</v>
+        <v>2848.2</v>
       </c>
       <c r="G10" s="28">
         <f>+SUM(G8:G9)</f>
-        <v>4486.2</v>
+        <v>2848.2</v>
       </c>
       <c r="H10" s="28">
         <f>+SUM(H8:H9)</f>
-        <v>4486.2</v>
+        <v>2848.2</v>
       </c>
       <c r="I10" s="28">
         <f>+SUM(I8:I9)</f>
-        <v>4486.2</v>
+        <v>2848.2</v>
       </c>
       <c r="J10" s="28">
         <f>+SUM(J8:J9)</f>
-        <v>4486.2</v>
+        <v>2848.2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -11717,7 +11699,7 @@
       </c>
       <c r="C12" s="1">
         <f>(Inventario_Dinamico!B8+Inventario_Dinamico!B14+Inventario_Dinamico!B20+Inventario_Dinamico!B26+Inventario_Dinamico!B32)*$L$12</f>
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D12" s="1">
         <f>(Inventario_Dinamico!C8+Inventario_Dinamico!C14+Inventario_Dinamico!C20+Inventario_Dinamico!C26+Inventario_Dinamico!C32)*$L$12</f>
@@ -11758,7 +11740,7 @@
       </c>
       <c r="C13" s="1">
         <f>(Inventario_Dinamico!P8+Inventario_Dinamico!P14+Inventario_Dinamico!P20+Inventario_Dinamico!P26+Inventario_Dinamico!P32)*$L$13</f>
-        <v>42240</v>
+        <v>21120</v>
       </c>
       <c r="D13" s="1">
         <f>(Inventario_Dinamico!Q8+Inventario_Dinamico!Q14+Inventario_Dinamico!Q20+Inventario_Dinamico!Q26+Inventario_Dinamico!Q32)*$L$13</f>
@@ -11799,7 +11781,7 @@
       </c>
       <c r="B14" s="28">
         <f>BOM_Consumo_Piezas!P6+BOM_Consumo_Piezas!P16+BOM_Consumo_Piezas!P26+BOM_Consumo_Piezas!P36+BOM_Consumo_Piezas!P46</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -11898,11 +11880,11 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <f>SUM(B12:B19)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ref="C20:J20" si="0">SUM(C12:C19)</f>
-        <v>72240</v>
+        <v>36120</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
@@ -11948,24 +11930,24 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
@@ -12021,7 +12003,7 @@
       </c>
       <c r="C4" s="28">
         <f>Inventario_Dinamico!B38</f>
-        <v>4600</v>
+        <v>2300</v>
       </c>
       <c r="D4" s="28">
         <f>Inventario_Dinamico!C38</f>
@@ -12058,7 +12040,7 @@
       </c>
       <c r="C5" s="43">
         <f>Inventario_Dinamico!P38</f>
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="D5" s="43">
         <f>Inventario_Dinamico!Q38</f>
@@ -12093,7 +12075,7 @@
       <c r="A6" s="42"/>
       <c r="C6" s="28">
         <f>SUM(C4:C5)</f>
-        <v>16600</v>
+        <v>8300</v>
       </c>
       <c r="D6" s="28">
         <f>SUM(D4:D5)</f>
@@ -12142,35 +12124,35 @@
       </c>
       <c r="C8" s="28">
         <f>Inventario_Dinamico!B37</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="D8" s="28">
         <f>Inventario_Dinamico!C37</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="E8" s="28">
         <f>Inventario_Dinamico!D37</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="F8" s="28">
         <f>Inventario_Dinamico!E37</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="G8" s="28">
         <f>Inventario_Dinamico!F37</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="H8" s="28">
         <f>Inventario_Dinamico!G37</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="I8" s="28">
         <f>Inventario_Dinamico!H37</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="J8" s="28">
         <f>Inventario_Dinamico!I37</f>
-        <v>3703.2</v>
+        <v>2353.1999999999998</v>
       </c>
       <c r="K8" t="str">
         <f>+VLOOKUP(Inputs!B110,Inputs!A107:C109,3,FALSE)</f>
@@ -12183,35 +12165,35 @@
       </c>
       <c r="C9" s="43">
         <f>Inventario_Dinamico!P37</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="D9" s="43">
         <f>Inventario_Dinamico!Q37</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="E9" s="43">
         <f>Inventario_Dinamico!R37</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="F9" s="43">
         <f>Inventario_Dinamico!S37</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="G9" s="43">
         <f>Inventario_Dinamico!T37</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="H9" s="43">
         <f>Inventario_Dinamico!U37</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="I9" s="43">
         <f>Inventario_Dinamico!V37</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="J9" s="43">
         <f>Inventario_Dinamico!W37</f>
-        <v>783</v>
+        <v>495</v>
       </c>
       <c r="K9" t="str">
         <f>VLOOKUP(Inputs!B118,Inputs!A114:C117,3,FALSE)</f>
@@ -12221,35 +12203,35 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="28">
         <f>+SUM(C8:C9)</f>
-        <v>4486.2</v>
+        <v>2848.2</v>
       </c>
       <c r="D10" s="28">
         <f>+SUM(D8:D9)</f>
-        <v>4486.2</v>
+        <v>2848.2</v>
       </c>
       <c r="E10" s="28">
         <f>+SUM(E8:E9)</f>
-        <v>4486.2</v>
+        <v>2848.2</v>
       </c>
       <c r="F10" s="28">
         <f>+SUM(F8:F9)</f>
-        <v>4486.2</v>
+        <v>2848.2</v>
       </c>
       <c r="G10" s="28">
         <f>+SUM(G8:G9)</f>
-        <v>4486.2</v>
+        <v>2848.2</v>
       </c>
       <c r="H10" s="28">
         <f>+SUM(H8:H9)</f>
-        <v>4486.2</v>
+        <v>2848.2</v>
       </c>
       <c r="I10" s="28">
         <f>+SUM(I8:I9)</f>
-        <v>4486.2</v>
+        <v>2848.2</v>
       </c>
       <c r="J10" s="28">
         <f>+SUM(J8:J9)</f>
-        <v>4486.2</v>
+        <v>2848.2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -12263,7 +12245,7 @@
       </c>
       <c r="C12" s="1">
         <f>(Inventario_Dinamico!B8+Inventario_Dinamico!B14+Inventario_Dinamico!B20+Inventario_Dinamico!B26+Inventario_Dinamico!B32)*$L$12</f>
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D12" s="1">
         <f>(Inventario_Dinamico!C8+Inventario_Dinamico!C14+Inventario_Dinamico!C20+Inventario_Dinamico!C26+Inventario_Dinamico!C32)*$L$12</f>
@@ -12304,7 +12286,7 @@
       </c>
       <c r="C13" s="1">
         <f>(Inventario_Dinamico!P8+Inventario_Dinamico!P14+Inventario_Dinamico!P20+Inventario_Dinamico!P26+Inventario_Dinamico!P32)*$L$13</f>
-        <v>42240</v>
+        <v>21120</v>
       </c>
       <c r="D13" s="1">
         <f>(Inventario_Dinamico!Q8+Inventario_Dinamico!Q14+Inventario_Dinamico!Q20+Inventario_Dinamico!Q26+Inventario_Dinamico!Q32)*$L$13</f>
@@ -12345,7 +12327,7 @@
       </c>
       <c r="B14" s="28">
         <f>BOM_Consumo_Piezas!P6+BOM_Consumo_Piezas!P16+BOM_Consumo_Piezas!P26+BOM_Consumo_Piezas!P36+BOM_Consumo_Piezas!P46</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -12444,11 +12426,11 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <f>SUM(B12:B19)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ref="C20:J20" si="0">SUM(C12:C19)</f>
-        <v>72240</v>
+        <v>36120</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>

--- a/Procurement/EXSIM_Mezquite_Purchasing_CORREGIDO_FIX_with_policies.xlsx
+++ b/Procurement/EXSIM_Mezquite_Purchasing_CORREGIDO_FIX_with_policies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0dc407a335d7300f/Documentos/GitHub/BusinessSim/Procurement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1379" documentId="6_{4F45DE64-BE33-4F18-9BCE-C4F36FED717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8B69995-E92B-4F9D-A2A3-CD7748A99B60}"/>
+  <xr:revisionPtr revIDLastSave="1411" documentId="6_{4F45DE64-BE33-4F18-9BCE-C4F36FED717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6E0BADB-1474-4907-B571-65C1053B3437}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -707,7 +707,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -800,6 +800,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -807,7 +822,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -907,6 +922,9 @@
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1278,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1292,49 +1310,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -1373,32 +1391,32 @@
         <v>13</v>
       </c>
       <c r="B6" s="44">
-        <v>0</v>
-      </c>
-      <c r="C6" s="44">
-        <v>0</v>
-      </c>
-      <c r="D6" s="44">
-        <v>0</v>
-      </c>
-      <c r="E6" s="44">
-        <v>0</v>
-      </c>
-      <c r="F6" s="44">
-        <v>0</v>
-      </c>
-      <c r="G6" s="44">
-        <v>0</v>
-      </c>
-      <c r="H6" s="44">
-        <v>0</v>
-      </c>
-      <c r="I6" s="44">
-        <v>0</v>
+        <v>925</v>
+      </c>
+      <c r="C6" s="47">
+        <v>925</v>
+      </c>
+      <c r="D6" s="47">
+        <v>925</v>
+      </c>
+      <c r="E6" s="47">
+        <v>925</v>
+      </c>
+      <c r="F6" s="47">
+        <v>925</v>
+      </c>
+      <c r="G6" s="47">
+        <v>925</v>
+      </c>
+      <c r="H6" s="47">
+        <v>925</v>
+      </c>
+      <c r="I6" s="47">
+        <v>925</v>
       </c>
       <c r="J6" s="7">
         <f>SUM(B6:I6)</f>
-        <v>0</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1539,39 +1557,39 @@
       </c>
       <c r="B11" s="24">
         <f t="shared" ref="B11:I11" si="0">+SUM(B6:B10)</f>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="C11" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="D11" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="E11" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="F11" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="G11" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="H11" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="I11" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="J11" s="24">
         <f>+SUM(J6:J10)</f>
-        <v>0</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1587,19 +1605,19 @@
       <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -1638,32 +1656,32 @@
         <v>13</v>
       </c>
       <c r="B15" s="44">
-        <v>0</v>
-      </c>
-      <c r="C15" s="44">
-        <v>0</v>
-      </c>
-      <c r="D15" s="44">
-        <v>0</v>
-      </c>
-      <c r="E15" s="44">
-        <v>0</v>
-      </c>
-      <c r="F15" s="44">
-        <v>0</v>
-      </c>
-      <c r="G15" s="44">
-        <v>0</v>
-      </c>
-      <c r="H15" s="44">
-        <v>0</v>
-      </c>
-      <c r="I15" s="44">
-        <v>0</v>
+        <v>936</v>
+      </c>
+      <c r="C15" s="47">
+        <v>936</v>
+      </c>
+      <c r="D15" s="47">
+        <v>936</v>
+      </c>
+      <c r="E15" s="47">
+        <v>936</v>
+      </c>
+      <c r="F15" s="47">
+        <v>936</v>
+      </c>
+      <c r="G15" s="47">
+        <v>936</v>
+      </c>
+      <c r="H15" s="47">
+        <v>936</v>
+      </c>
+      <c r="I15" s="47">
+        <v>936</v>
       </c>
       <c r="J15" s="7">
         <f>SUM(B15:I15)</f>
-        <v>0</v>
+        <v>7488</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1673,25 +1691,25 @@
       <c r="B16" s="44">
         <v>0</v>
       </c>
-      <c r="C16" s="44">
-        <v>0</v>
-      </c>
-      <c r="D16" s="44">
-        <v>0</v>
-      </c>
-      <c r="E16" s="44">
-        <v>0</v>
-      </c>
-      <c r="F16" s="44">
-        <v>0</v>
-      </c>
-      <c r="G16" s="44">
-        <v>0</v>
-      </c>
-      <c r="H16" s="44">
-        <v>0</v>
-      </c>
-      <c r="I16" s="44">
+      <c r="C16" s="47">
+        <v>0</v>
+      </c>
+      <c r="D16" s="47">
+        <v>0</v>
+      </c>
+      <c r="E16" s="47">
+        <v>0</v>
+      </c>
+      <c r="F16" s="47">
+        <v>0</v>
+      </c>
+      <c r="G16" s="47">
+        <v>0</v>
+      </c>
+      <c r="H16" s="47">
+        <v>0</v>
+      </c>
+      <c r="I16" s="47">
         <v>0</v>
       </c>
       <c r="J16" s="7">
@@ -1804,39 +1822,39 @@
       </c>
       <c r="B20" s="24">
         <f t="shared" ref="B20:J20" si="1">+SUM(B15:B19)</f>
-        <v>0</v>
+        <v>936</v>
       </c>
       <c r="C20" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>936</v>
       </c>
       <c r="D20" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>936</v>
       </c>
       <c r="E20" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>936</v>
       </c>
       <c r="F20" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>936</v>
       </c>
       <c r="G20" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>936</v>
       </c>
       <c r="H20" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>936</v>
       </c>
       <c r="I20" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>936</v>
       </c>
       <c r="J20" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7488</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1852,19 +1870,19 @@
       <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
@@ -1903,32 +1921,32 @@
         <v>13</v>
       </c>
       <c r="B24" s="44">
-        <v>0</v>
-      </c>
-      <c r="C24" s="44">
-        <v>0</v>
-      </c>
-      <c r="D24" s="44">
-        <v>0</v>
-      </c>
-      <c r="E24" s="44">
-        <v>0</v>
-      </c>
-      <c r="F24" s="44">
-        <v>0</v>
-      </c>
-      <c r="G24" s="44">
-        <v>0</v>
-      </c>
-      <c r="H24" s="44">
-        <v>0</v>
-      </c>
-      <c r="I24" s="44">
-        <v>0</v>
+        <v>1228</v>
+      </c>
+      <c r="C24" s="47">
+        <v>1228</v>
+      </c>
+      <c r="D24" s="47">
+        <v>1228</v>
+      </c>
+      <c r="E24" s="47">
+        <v>1228</v>
+      </c>
+      <c r="F24" s="47">
+        <v>1228</v>
+      </c>
+      <c r="G24" s="47">
+        <v>1228</v>
+      </c>
+      <c r="H24" s="47">
+        <v>1228</v>
+      </c>
+      <c r="I24" s="47">
+        <v>1228</v>
       </c>
       <c r="J24" s="7">
         <f>SUM(B24:I24)</f>
-        <v>0</v>
+        <v>9824</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2069,39 +2087,39 @@
       </c>
       <c r="B29" s="24">
         <f t="shared" ref="B29:J29" si="2">+SUM(B24:B28)</f>
-        <v>0</v>
+        <v>1228</v>
       </c>
       <c r="C29" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1228</v>
       </c>
       <c r="D29" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1228</v>
       </c>
       <c r="E29" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1228</v>
       </c>
       <c r="F29" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1228</v>
       </c>
       <c r="G29" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1228</v>
       </c>
       <c r="H29" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1228</v>
       </c>
       <c r="I29" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1228</v>
       </c>
       <c r="J29" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9824</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2146,10 +2164,10 @@
       <c r="A32" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="63">
+      <c r="B32" s="64">
         <v>1648</v>
       </c>
-      <c r="C32" s="63">
+      <c r="C32" s="64">
         <v>1696</v>
       </c>
       <c r="D32" s="6">
@@ -2172,10 +2190,10 @@
       <c r="A33" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="63">
+      <c r="B33" s="64">
         <v>261</v>
       </c>
-      <c r="C33" s="63">
+      <c r="C33" s="64">
         <v>429</v>
       </c>
       <c r="D33" s="6">
@@ -2198,10 +2216,10 @@
       <c r="A34" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="63">
+      <c r="B34" s="64">
         <v>25</v>
       </c>
-      <c r="C34" s="63">
+      <c r="C34" s="64">
         <v>18</v>
       </c>
       <c r="D34" s="6">
@@ -2224,7 +2242,7 @@
       <c r="A35" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="63">
+      <c r="B35" s="64">
         <v>824</v>
       </c>
       <c r="C35" s="6">
@@ -2250,10 +2268,10 @@
       <c r="A36" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="63">
+      <c r="B36" s="64">
         <v>413</v>
       </c>
-      <c r="C36" s="63">
+      <c r="C36" s="64">
         <v>30</v>
       </c>
       <c r="D36" s="6">
@@ -2276,10 +2294,10 @@
       <c r="A37" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="63">
+      <c r="B37" s="64">
         <v>707</v>
       </c>
-      <c r="C37" s="63">
+      <c r="C37" s="64">
         <v>59</v>
       </c>
       <c r="D37" s="6">
@@ -2302,7 +2320,7 @@
       <c r="A38" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="63">
+      <c r="B38" s="64">
         <v>256</v>
       </c>
       <c r="C38" s="6">
@@ -2328,7 +2346,7 @@
       <c r="A39" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="63">
+      <c r="B39" s="64">
         <v>209</v>
       </c>
       <c r="C39" s="6">
@@ -2455,12 +2473,12 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
@@ -2651,12 +2669,12 @@
       <c r="D61" s="3"/>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="51" t="s">
+      <c r="A64" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="52"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
@@ -2676,7 +2694,7 @@
       <c r="A66" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="48">
+      <c r="B66" s="49">
         <v>30</v>
       </c>
       <c r="C66" s="10" t="s">
@@ -2690,7 +2708,7 @@
       <c r="A67" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="48">
+      <c r="B67" s="49">
         <v>12</v>
       </c>
       <c r="C67" s="10" t="s">
@@ -2704,7 +2722,7 @@
       <c r="A68" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="48">
+      <c r="B68" s="49">
         <v>1</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -2718,7 +2736,7 @@
       <c r="A69" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="48">
+      <c r="B69" s="49">
         <v>100</v>
       </c>
       <c r="C69" s="10" t="s">
@@ -2732,7 +2750,7 @@
       <c r="A70" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="48">
+      <c r="B70" s="49">
         <v>30</v>
       </c>
       <c r="C70" s="10" t="s">
@@ -2746,7 +2764,7 @@
       <c r="A71" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B71" s="48">
+      <c r="B71" s="49">
         <v>60</v>
       </c>
       <c r="C71" s="10" t="s">
@@ -2760,7 +2778,7 @@
       <c r="A72" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B72" s="48">
+      <c r="B72" s="49">
         <v>100</v>
       </c>
       <c r="C72" s="10" t="s">
@@ -2774,7 +2792,7 @@
       <c r="A73" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="48">
+      <c r="B73" s="49">
         <v>150</v>
       </c>
       <c r="C73" s="10" t="s">
@@ -2788,7 +2806,7 @@
       <c r="A74" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B74" s="48">
+      <c r="B74" s="49">
         <v>1</v>
       </c>
       <c r="C74" s="10" t="s">
@@ -2802,7 +2820,7 @@
       <c r="A75" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="48">
+      <c r="B75" s="49">
         <v>1</v>
       </c>
       <c r="C75" s="10" t="s">
@@ -2816,7 +2834,7 @@
       <c r="A76" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B76" s="48">
+      <c r="B76" s="49">
         <v>1</v>
       </c>
       <c r="C76" s="10" t="s">
@@ -2830,7 +2848,7 @@
       <c r="A77" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="48">
+      <c r="B77" s="49">
         <v>1</v>
       </c>
       <c r="C77" s="10" t="s">
@@ -2847,18 +2865,18 @@
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="54" t="s">
+      <c r="A81" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B81" s="52"/>
-      <c r="C81" s="52"/>
-      <c r="D81" s="52"/>
-      <c r="E81" s="52"/>
-      <c r="F81" s="52"/>
-      <c r="G81" s="52"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="52"/>
-      <c r="J81" s="52"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="53"/>
+      <c r="H81" s="53"/>
+      <c r="I81" s="53"/>
+      <c r="J81" s="53"/>
     </row>
     <row r="82" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="22" t="s">
@@ -3239,13 +3257,13 @@
       </c>
     </row>
     <row r="93" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="49" t="s">
+      <c r="A93" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B93" s="50"/>
-      <c r="C93" s="50"/>
-      <c r="D93" s="50"/>
-      <c r="E93" s="50"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="51"/>
+      <c r="E93" s="51"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
@@ -3367,15 +3385,15 @@
       <c r="D102" s="11"/>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="49" t="s">
+      <c r="A105" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B105" s="50"/>
-      <c r="C105" s="50"/>
-      <c r="D105" s="50"/>
-      <c r="E105" s="50"/>
-      <c r="F105" s="50"/>
-      <c r="G105" s="50"/>
+      <c r="B105" s="51"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="51"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="51"/>
+      <c r="G105" s="51"/>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
@@ -3462,19 +3480,19 @@
         <v>101</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="49" t="s">
+      <c r="A113" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="B113" s="50"/>
-      <c r="C113" s="50"/>
-      <c r="D113" s="50"/>
-      <c r="E113" s="50"/>
-      <c r="F113" s="50"/>
-      <c r="G113" s="50"/>
+      <c r="B113" s="51"/>
+      <c r="C113" s="51"/>
+      <c r="D113" s="51"/>
+      <c r="E113" s="51"/>
+      <c r="F113" s="51"/>
+      <c r="G113" s="51"/>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
@@ -3561,7 +3579,7 @@
         <v>101</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3660,7 +3678,7 @@
       </c>
       <c r="B8" s="24">
         <f>Inputs!J11</f>
-        <v>0</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -3722,7 +3740,7 @@
       </c>
       <c r="C12" s="36">
         <f>B12*Inputs!$J$6</f>
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="D12" s="36">
         <f>Inputs!B66</f>
@@ -3742,7 +3760,7 @@
       </c>
       <c r="H12" s="36">
         <f>B12*(C12/8)</f>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="I12" s="36">
         <f>IF($B$6="",0,$B$5*H12*$B$6)</f>
@@ -3750,7 +3768,7 @@
       </c>
       <c r="J12" s="36">
         <f>IF(LEFT(A12,5)="Parte",H12+I12,"")</f>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="K12" s="1">
         <f>Inputs!$B$95</f>
@@ -3762,11 +3780,11 @@
       </c>
       <c r="M12" s="36">
         <f>IF(AND(K12&gt;0,L12&gt;0),SQRT(2*H12*K12/L12),"")</f>
-        <v>0</v>
+        <v>3766.0766499546094</v>
       </c>
       <c r="N12" s="36">
         <f t="shared" ref="N12:N19" si="3">IF(M12="","",ROUNDUP(M12/D12,0))</f>
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -3779,7 +3797,7 @@
       </c>
       <c r="C13" s="36">
         <f>B13*Inputs!J15</f>
-        <v>0</v>
+        <v>1497.6000000000001</v>
       </c>
       <c r="D13" s="36">
         <f>Inputs!B67</f>
@@ -3799,7 +3817,7 @@
       </c>
       <c r="H13" s="36">
         <f t="shared" ref="H13:H19" si="4">B13*(C13/8)</f>
-        <v>0</v>
+        <v>37.440000000000005</v>
       </c>
       <c r="I13" s="36">
         <f t="shared" ref="I13:I19" si="5">IF($B$6="",0,$B$5*H13*$B$6)</f>
@@ -3807,7 +3825,7 @@
       </c>
       <c r="J13" s="36">
         <f>IF(LEFT(A13,5)="Parte",H13+I13,"")</f>
-        <v>0</v>
+        <v>37.440000000000005</v>
       </c>
       <c r="K13" s="1">
         <f>Inputs!$B$96</f>
@@ -3819,11 +3837,11 @@
       </c>
       <c r="M13" s="36">
         <f>IF(AND(K13&gt;0,L13&gt;0),SQRT(2*H13*K13/L13),"")</f>
-        <v>0</v>
+        <v>315.97468253010402</v>
       </c>
       <c r="N13" s="36">
         <f>IF(M13="","",ROUNDUP(M13/D13,0))</f>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -3836,7 +3854,7 @@
       </c>
       <c r="C14" s="36">
         <f>B14*Inputs!$J$15</f>
-        <v>0</v>
+        <v>74.88</v>
       </c>
       <c r="D14" s="36">
         <f>Inputs!B68</f>
@@ -3852,11 +3870,11 @@
       </c>
       <c r="G14" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>74.88</v>
       </c>
       <c r="H14" s="36">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9.3600000000000003E-2</v>
       </c>
       <c r="I14" s="36">
         <f t="shared" si="5"/>
@@ -3893,7 +3911,7 @@
       </c>
       <c r="C15" s="36">
         <f>B15*Inputs!$J$15</f>
-        <v>0</v>
+        <v>59904</v>
       </c>
       <c r="D15" s="36">
         <f>Inputs!B69</f>
@@ -3909,11 +3927,11 @@
       </c>
       <c r="G15" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>59904</v>
       </c>
       <c r="H15" s="36">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>59904</v>
       </c>
       <c r="I15" s="36">
         <f t="shared" si="5"/>
@@ -3950,7 +3968,7 @@
       </c>
       <c r="C16" s="36">
         <f>B16*Inputs!$J$24</f>
-        <v>0</v>
+        <v>2947.2</v>
       </c>
       <c r="D16" s="36">
         <f>Inputs!B70</f>
@@ -3966,11 +3984,11 @@
       </c>
       <c r="G16" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2947.2</v>
       </c>
       <c r="H16" s="36">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>110.52</v>
       </c>
       <c r="I16" s="36">
         <f t="shared" si="5"/>
@@ -4007,7 +4025,7 @@
       </c>
       <c r="C17" s="36">
         <f>B17*Inputs!$J$24</f>
-        <v>0</v>
+        <v>5894.4</v>
       </c>
       <c r="D17" s="36">
         <f>Inputs!B71</f>
@@ -4023,11 +4041,11 @@
       </c>
       <c r="G17" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5894.4</v>
       </c>
       <c r="H17" s="36">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>442.08</v>
       </c>
       <c r="I17" s="36">
         <f t="shared" si="5"/>
@@ -4064,7 +4082,7 @@
       </c>
       <c r="C18" s="36">
         <f>B18*Inputs!$J$24</f>
-        <v>0</v>
+        <v>19648</v>
       </c>
       <c r="D18" s="36">
         <f>Inputs!B72</f>
@@ -4080,11 +4098,11 @@
       </c>
       <c r="G18" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19648</v>
       </c>
       <c r="H18" s="36">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4912</v>
       </c>
       <c r="I18" s="36">
         <f t="shared" si="5"/>
@@ -4121,7 +4139,7 @@
       </c>
       <c r="C19" s="36">
         <f>B19*Inputs!$J$24</f>
-        <v>0</v>
+        <v>7368</v>
       </c>
       <c r="D19" s="36">
         <f>Inputs!B73</f>
@@ -4137,11 +4155,11 @@
       </c>
       <c r="G19" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7368</v>
       </c>
       <c r="H19" s="36">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>690.75</v>
       </c>
       <c r="I19" s="36">
         <f t="shared" si="5"/>
@@ -6207,52 +6225,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -6319,39 +6337,39 @@
       </c>
       <c r="C6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>0</v>
+        <v>9.36</v>
       </c>
       <c r="D6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>0</v>
+        <v>9.36</v>
       </c>
       <c r="E6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>0</v>
+        <v>9.36</v>
       </c>
       <c r="F6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>0</v>
+        <v>9.36</v>
       </c>
       <c r="G6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>0</v>
+        <v>9.36</v>
       </c>
       <c r="H6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>0</v>
+        <v>9.36</v>
       </c>
       <c r="I6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>0</v>
+        <v>9.36</v>
       </c>
       <c r="J6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>0</v>
+        <v>9.36</v>
       </c>
       <c r="K6" s="19">
         <f>Inputs!J6*B6</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="L6" s="39">
         <f>Politica_Inventarios!F14</f>
@@ -6363,15 +6381,15 @@
       </c>
       <c r="N6" s="24">
         <f>K6+L6-M6</f>
-        <v>-25</v>
+        <v>49</v>
       </c>
       <c r="O6" s="39">
         <f>IF(ROUNDUP(N6/Inputs!$B$68,0)&lt;0,0,ROUNDUP(N6/Inputs!$B$68,0))*1.1+0</f>
-        <v>0</v>
+        <v>53.900000000000006</v>
       </c>
       <c r="P6" s="28">
         <f>O6*Inputs!$B$85</f>
-        <v>0</v>
+        <v>3234.0000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6384,39 +6402,39 @@
       </c>
       <c r="C7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>0</v>
+        <v>9824</v>
       </c>
       <c r="D7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>0</v>
+        <v>9824</v>
       </c>
       <c r="E7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>0</v>
+        <v>9824</v>
       </c>
       <c r="F7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>0</v>
+        <v>9824</v>
       </c>
       <c r="G7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>0</v>
+        <v>9824</v>
       </c>
       <c r="H7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>0</v>
+        <v>9824</v>
       </c>
       <c r="I7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>0</v>
+        <v>9824</v>
       </c>
       <c r="J7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>0</v>
+        <v>9824</v>
       </c>
       <c r="K7" s="19">
         <f>SUM(C7:J7)</f>
-        <v>0</v>
+        <v>78592</v>
       </c>
       <c r="L7" s="39">
         <f>Politica_Inventarios!F15</f>
@@ -6428,15 +6446,15 @@
       </c>
       <c r="N7" s="24">
         <f>K7+L7-M7</f>
-        <v>-824</v>
+        <v>77768</v>
       </c>
       <c r="O7" s="39">
         <f>IF(ROUNDUP(N7/Inputs!$B$69,0)&lt;0,0,ROUNDUP(N7/Inputs!$B$69,0))</f>
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="P7" s="28">
         <f>O7*Inputs!$B$86</f>
-        <v>0</v>
+        <v>5446</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6449,39 +6467,39 @@
       </c>
       <c r="C8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>0</v>
+        <v>368.4</v>
       </c>
       <c r="D8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>0</v>
+        <v>368.4</v>
       </c>
       <c r="E8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>0</v>
+        <v>368.4</v>
       </c>
       <c r="F8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>0</v>
+        <v>368.4</v>
       </c>
       <c r="G8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>0</v>
+        <v>368.4</v>
       </c>
       <c r="H8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>0</v>
+        <v>368.4</v>
       </c>
       <c r="I8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>0</v>
+        <v>368.4</v>
       </c>
       <c r="J8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>0</v>
+        <v>368.4</v>
       </c>
       <c r="K8" s="19">
         <f>Inputs!$J$24*B8</f>
-        <v>0</v>
+        <v>2947.2</v>
       </c>
       <c r="L8" s="39">
         <f>Politica_Inventarios!F16</f>
@@ -6493,15 +6511,15 @@
       </c>
       <c r="N8" s="24">
         <f t="shared" ref="N8:N11" si="0">K8+L8-M8</f>
-        <v>-413</v>
+        <v>2534.1999999999998</v>
       </c>
       <c r="O8" s="39">
         <f>IF(ROUNDUP(N8/Inputs!$B$70,0)&lt;0,0,ROUNDUP(N8/Inputs!$B$70,0))</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="P8" s="28">
         <f>O8*Inputs!$B$87</f>
-        <v>0</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6514,39 +6532,39 @@
       </c>
       <c r="C9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>0</v>
+        <v>736.8</v>
       </c>
       <c r="D9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>0</v>
+        <v>736.8</v>
       </c>
       <c r="E9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>0</v>
+        <v>736.8</v>
       </c>
       <c r="F9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>0</v>
+        <v>736.8</v>
       </c>
       <c r="G9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>0</v>
+        <v>736.8</v>
       </c>
       <c r="H9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>0</v>
+        <v>736.8</v>
       </c>
       <c r="I9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>0</v>
+        <v>736.8</v>
       </c>
       <c r="J9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>0</v>
+        <v>736.8</v>
       </c>
       <c r="K9" s="19">
         <f>Inputs!$J$24*B9</f>
-        <v>0</v>
+        <v>5894.4</v>
       </c>
       <c r="L9" s="39">
         <f>Politica_Inventarios!F17</f>
@@ -6558,15 +6576,15 @@
       </c>
       <c r="N9" s="24">
         <f t="shared" si="0"/>
-        <v>-707</v>
+        <v>5187.3999999999996</v>
       </c>
       <c r="O9" s="39">
         <f>IF(ROUNDUP(N9/Inputs!$B$71,0)&lt;0,0,ROUNDUP(N9/Inputs!$B$71,0))</f>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="P9" s="28">
         <f>O9*Inputs!$B$88</f>
-        <v>0</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6579,39 +6597,39 @@
       </c>
       <c r="C10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>0</v>
+        <v>2456</v>
       </c>
       <c r="D10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>0</v>
+        <v>2456</v>
       </c>
       <c r="E10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>0</v>
+        <v>2456</v>
       </c>
       <c r="F10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>0</v>
+        <v>2456</v>
       </c>
       <c r="G10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>0</v>
+        <v>2456</v>
       </c>
       <c r="H10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>0</v>
+        <v>2456</v>
       </c>
       <c r="I10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>0</v>
+        <v>2456</v>
       </c>
       <c r="J10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>0</v>
+        <v>2456</v>
       </c>
       <c r="K10" s="19">
         <f>Inputs!$J$24*B10</f>
-        <v>0</v>
+        <v>19648</v>
       </c>
       <c r="L10" s="39">
         <f>Politica_Inventarios!F18</f>
@@ -6623,15 +6641,15 @@
       </c>
       <c r="N10" s="24">
         <f t="shared" si="0"/>
-        <v>-256</v>
+        <v>19392</v>
       </c>
       <c r="O10" s="39">
         <f>IF(ROUNDUP(N10/Inputs!$B$72,0)&lt;0,0,ROUNDUP(N10/Inputs!$B$72,0))</f>
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="P10" s="28">
         <f>O10*Inputs!$B$89</f>
-        <v>0</v>
+        <v>5820</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6644,39 +6662,39 @@
       </c>
       <c r="C11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>0</v>
+        <v>921</v>
       </c>
       <c r="D11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>0</v>
+        <v>921</v>
       </c>
       <c r="E11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>0</v>
+        <v>921</v>
       </c>
       <c r="F11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>0</v>
+        <v>921</v>
       </c>
       <c r="G11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>0</v>
+        <v>921</v>
       </c>
       <c r="H11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>0</v>
+        <v>921</v>
       </c>
       <c r="I11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>0</v>
+        <v>921</v>
       </c>
       <c r="J11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>0</v>
+        <v>921</v>
       </c>
       <c r="K11" s="19">
         <f>Inputs!$J$24*B11</f>
-        <v>0</v>
+        <v>7368</v>
       </c>
       <c r="L11" s="39">
         <f>Politica_Inventarios!F19</f>
@@ -6688,15 +6706,15 @@
       </c>
       <c r="N11" s="24">
         <f t="shared" si="0"/>
-        <v>-209</v>
+        <v>7159</v>
       </c>
       <c r="O11" s="39">
         <f>IF(ROUNDUP(N11/Inputs!$B$73,0)&lt;0,0,ROUNDUP(N11/Inputs!$B$73,0))</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="P11" s="28">
         <f>O11*Inputs!$B$90</f>
-        <v>0</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -6706,44 +6724,44 @@
       <c r="B12" s="2"/>
       <c r="C12" s="20">
         <f>Inputs!B6</f>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="D12" s="20">
         <f>Inputs!C6</f>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="E12" s="20">
         <f>Inputs!D6</f>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="F12" s="20">
         <f>Inputs!E6</f>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="G12" s="20">
         <f>Inputs!F6</f>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="H12" s="20">
         <f>Inputs!G6</f>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="I12" s="20">
         <f>Inputs!H6</f>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="J12" s="20">
         <f>Inputs!I6</f>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="K12" s="20">
         <f>Inputs!J6</f>
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="N12" s="24"/>
       <c r="P12" s="28">
         <f>SUM(P6:P11)</f>
-        <v>0</v>
+        <v>20992</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6853,7 +6871,7 @@
         <f>Inputs!C34</f>
         <v>18</v>
       </c>
-      <c r="N16" s="47">
+      <c r="N16" s="48">
         <f>K16+L16-M16</f>
         <v>-18</v>
       </c>
@@ -8691,7 +8709,7 @@
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P54" s="28">
         <f>SUM(P12,P22,P32,P42)</f>
-        <v>0</v>
+        <v>20992</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -8712,8 +8730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8738,23 +8756,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8780,17 +8798,17 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
       <c r="J4" s="40" t="s">
         <v>145</v>
       </c>
@@ -8803,17 +8821,17 @@
       <c r="M4" t="s">
         <v>152</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
       <c r="X4" s="40" t="s">
         <v>145</v>
       </c>
@@ -8828,28 +8846,28 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="O5" s="54" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="O5" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -8917,39 +8935,39 @@
       </c>
       <c r="C7" s="16">
         <f t="shared" ref="C7:I7" si="0">B10</f>
-        <v>6148</v>
+        <v>4503</v>
       </c>
       <c r="D7" s="16">
         <f t="shared" si="0"/>
-        <v>6148</v>
+        <v>3578</v>
       </c>
       <c r="E7" s="16">
         <f t="shared" si="0"/>
-        <v>6148</v>
+        <v>2653</v>
       </c>
       <c r="F7" s="16">
         <f t="shared" si="0"/>
-        <v>6148</v>
+        <v>1728</v>
       </c>
       <c r="G7" s="16">
         <f t="shared" si="0"/>
-        <v>6148</v>
+        <v>4583</v>
       </c>
       <c r="H7" s="16">
         <f t="shared" si="0"/>
-        <v>6148</v>
+        <v>3658</v>
       </c>
       <c r="I7" s="16">
         <f t="shared" si="0"/>
-        <v>6148</v>
+        <v>2733</v>
       </c>
       <c r="J7" s="39">
         <f>Politica_Inventarios!N12</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="K7" s="39">
         <f>Politica_Inventarios!J12</f>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="L7" s="39">
         <f>Inputs!B66</f>
@@ -8964,39 +8982,39 @@
       </c>
       <c r="Q7" s="16">
         <f t="shared" ref="Q7:W7" si="1">P10</f>
-        <v>1221</v>
+        <v>397.79999999999995</v>
       </c>
       <c r="R7" s="16">
         <f t="shared" si="1"/>
-        <v>1221</v>
+        <v>210.59999999999994</v>
       </c>
       <c r="S7" s="16">
         <f t="shared" si="1"/>
-        <v>1221</v>
+        <v>23.39999999999992</v>
       </c>
       <c r="T7" s="16">
         <f t="shared" si="1"/>
-        <v>1221</v>
+        <v>160.1999999999999</v>
       </c>
       <c r="U7" s="16">
         <f t="shared" si="1"/>
-        <v>1221</v>
+        <v>296.99999999999989</v>
       </c>
       <c r="V7" s="16">
         <f t="shared" si="1"/>
-        <v>1221</v>
+        <v>433.79999999999984</v>
       </c>
       <c r="W7" s="16">
         <f t="shared" si="1"/>
-        <v>1221</v>
+        <v>246.59999999999982</v>
       </c>
       <c r="X7" s="39">
         <f>Politica_Inventarios!N13</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y7" s="39">
         <f>Politica_Inventarios!J13</f>
-        <v>0</v>
+        <v>37.440000000000005</v>
       </c>
       <c r="Z7" s="24">
         <f>Inputs!B67</f>
@@ -9008,7 +9026,7 @@
         <v>136</v>
       </c>
       <c r="B8" s="6">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -9020,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="6">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -9033,13 +9051,13 @@
       </c>
       <c r="M8" s="28">
         <f>SUM(B8:I8)*VLOOKUP(Inputs!B110,Inputs!A107:B109,2,FALSE)</f>
-        <v>15000</v>
+        <v>31500</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>136</v>
       </c>
       <c r="P8" s="6">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="Q8" s="6">
         <v>0</v>
@@ -9048,13 +9066,13 @@
         <v>0</v>
       </c>
       <c r="S8" s="6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="T8" s="6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U8" s="6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="V8" s="6">
         <v>0</v>
@@ -9064,7 +9082,7 @@
       </c>
       <c r="AA8" s="1">
         <f>SUM(P8:W8)*VLOOKUP(Inputs!B118,Inputs!A114:B117,2,FALSE)</f>
-        <v>21120</v>
+        <v>35640</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9073,70 +9091,70 @@
       </c>
       <c r="B9" s="21">
         <f>Inputs!B6*Inputs!$B$48</f>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="C9" s="21">
         <f>Inputs!C6*Inputs!$B$48</f>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="D9" s="21">
         <f>Inputs!D6*Inputs!$B$48</f>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="E9" s="21">
         <f>Inputs!E6*Inputs!$B$48</f>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="F9" s="21">
         <f>Inputs!F6*Inputs!$B$48</f>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="G9" s="21">
         <f>Inputs!G6*Inputs!$B$48</f>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="H9" s="21">
         <f>Inputs!H6*Inputs!$B$48</f>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="I9" s="21">
         <f>Inputs!I6*Inputs!$B$48</f>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>137</v>
       </c>
       <c r="P9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>0</v>
+        <v>187.20000000000002</v>
       </c>
       <c r="Q9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>0</v>
+        <v>187.20000000000002</v>
       </c>
       <c r="R9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>0</v>
+        <v>187.20000000000002</v>
       </c>
       <c r="S9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>0</v>
+        <v>187.20000000000002</v>
       </c>
       <c r="T9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>0</v>
+        <v>187.20000000000002</v>
       </c>
       <c r="U9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>0</v>
+        <v>187.20000000000002</v>
       </c>
       <c r="V9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>0</v>
+        <v>187.20000000000002</v>
       </c>
       <c r="W9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>0</v>
+        <v>187.20000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9145,95 +9163,95 @@
       </c>
       <c r="B10" s="19">
         <f>B7+(B8*$L$7)-B9</f>
-        <v>6148</v>
+        <v>4503</v>
       </c>
       <c r="C10" s="19">
         <f t="shared" ref="C10:I10" si="2">C7+(C8*$L$7)-C9</f>
-        <v>6148</v>
+        <v>3578</v>
       </c>
       <c r="D10" s="19">
         <f t="shared" si="2"/>
-        <v>6148</v>
+        <v>2653</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" si="2"/>
-        <v>6148</v>
+        <v>1728</v>
       </c>
       <c r="F10" s="19">
         <f t="shared" si="2"/>
-        <v>6148</v>
+        <v>4583</v>
       </c>
       <c r="G10" s="19">
         <f t="shared" si="2"/>
-        <v>6148</v>
+        <v>3658</v>
       </c>
       <c r="H10" s="19">
         <f t="shared" si="2"/>
-        <v>6148</v>
+        <v>2733</v>
       </c>
       <c r="I10" s="19">
         <f t="shared" si="2"/>
-        <v>6148</v>
+        <v>1808</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>138</v>
       </c>
       <c r="P10" s="19">
         <f>P7+(P8*$Z$7)-P9</f>
-        <v>1221</v>
+        <v>397.79999999999995</v>
       </c>
       <c r="Q10" s="19">
         <f t="shared" ref="Q10:W10" si="3">Q7+(Q8*$Z$7)-Q9</f>
-        <v>1221</v>
+        <v>210.59999999999994</v>
       </c>
       <c r="R10" s="19">
         <f t="shared" si="3"/>
-        <v>1221</v>
+        <v>23.39999999999992</v>
       </c>
       <c r="S10" s="19">
         <f>S7+(S8*$Z$7)-S9</f>
-        <v>1221</v>
+        <v>160.1999999999999</v>
       </c>
       <c r="T10" s="19">
         <f t="shared" si="3"/>
-        <v>1221</v>
+        <v>296.99999999999989</v>
       </c>
       <c r="U10" s="19">
         <f t="shared" si="3"/>
-        <v>1221</v>
+        <v>433.79999999999984</v>
       </c>
       <c r="V10" s="19">
         <f t="shared" si="3"/>
-        <v>1221</v>
+        <v>246.59999999999982</v>
       </c>
       <c r="W10" s="19">
         <f t="shared" si="3"/>
-        <v>1221</v>
+        <v>59.399999999999807</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="O11" s="58" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="O11" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="60"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -9594,28 +9612,28 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="O17" s="58" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="O17" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -9946,28 +9964,28 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="O23" s="58" t="s">
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="O23" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="60"/>
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -10320,28 +10338,28 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="58" t="s">
+      <c r="A29" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="O29" s="58" t="s">
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="O29" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
     </row>
     <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -10677,7 +10695,7 @@
       </c>
       <c r="M35" s="28">
         <f>SUM(M14,M8)</f>
-        <v>15000</v>
+        <v>31500</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
@@ -10694,74 +10712,74 @@
       </c>
       <c r="B37" s="28">
         <f>SUM(B10+B16+B22+B28+B34)*Inputs!$C$95</f>
-        <v>2353.1999999999998</v>
+        <v>1859.6999999999998</v>
       </c>
       <c r="C37" s="28">
         <f>SUM(C10+C16+C22+C28+C34)*Inputs!$C$95</f>
-        <v>2353.1999999999998</v>
+        <v>1582.2</v>
       </c>
       <c r="D37" s="28">
         <f>SUM(D10+D16+D22+D28+D34)*Inputs!$C$95</f>
-        <v>2353.1999999999998</v>
+        <v>1304.7</v>
       </c>
       <c r="E37" s="28">
         <f>SUM(E10+E16+E22+E28+E34)*Inputs!$C$95</f>
-        <v>2353.1999999999998</v>
+        <v>1027.2</v>
       </c>
       <c r="F37" s="28">
         <f>SUM(F10+F16+F22+F28+F34)*Inputs!$C$95</f>
-        <v>2353.1999999999998</v>
+        <v>1883.6999999999998</v>
       </c>
       <c r="G37" s="28">
         <f>SUM(G10+G16+G22+G28+G34)*Inputs!$C$95</f>
-        <v>2353.1999999999998</v>
+        <v>1606.2</v>
       </c>
       <c r="H37" s="28">
         <f>SUM(H10+H16+H22+H28+H34)*Inputs!$C$95</f>
-        <v>2353.1999999999998</v>
+        <v>1328.7</v>
       </c>
       <c r="I37" s="28">
         <f>SUM(I10+I16+I22+I28+I34)*Inputs!$C$95</f>
-        <v>2353.1999999999998</v>
+        <v>1051.2</v>
       </c>
       <c r="J37" s="28">
         <f>SUM(B37:I37)</f>
-        <v>18825.600000000002</v>
+        <v>11643.6</v>
       </c>
       <c r="O37" t="s">
         <v>149</v>
       </c>
       <c r="P37" s="28">
         <f>SUM(P10+P16+P22+P28+P34)*Inputs!$C$95</f>
-        <v>495</v>
+        <v>248.03999999999996</v>
       </c>
       <c r="Q37" s="28">
         <f>SUM(Q10+Q16+Q22+Q28+Q34)*Inputs!$C$95</f>
-        <v>495</v>
+        <v>191.87999999999997</v>
       </c>
       <c r="R37" s="28">
         <f>SUM(R10+R16+R22+R28+R34)*Inputs!$C$95</f>
-        <v>495</v>
+        <v>135.71999999999997</v>
       </c>
       <c r="S37" s="28">
         <f>SUM(S10+S16+S22+S28+S34)*Inputs!$C$95</f>
-        <v>495</v>
+        <v>176.75999999999996</v>
       </c>
       <c r="T37" s="28">
         <f>SUM(T10+T16+T22+T28+T34)*Inputs!$C$95</f>
-        <v>495</v>
+        <v>217.79999999999995</v>
       </c>
       <c r="U37" s="28">
         <f>SUM(U10+U16+U22+U28+U34)*Inputs!$C$95</f>
-        <v>495</v>
+        <v>258.83999999999992</v>
       </c>
       <c r="V37" s="28">
         <f>SUM(V10+V16+V22+V28+V34)*Inputs!$C$95</f>
-        <v>495</v>
+        <v>202.67999999999992</v>
       </c>
       <c r="W37" s="28">
         <f>SUM(W10+W16+W22+W28+W34)*Inputs!$C$95</f>
-        <v>495</v>
+        <v>146.51999999999992</v>
       </c>
       <c r="X37" s="28"/>
       <c r="Z37" s="28"/>
@@ -10788,7 +10806,7 @@
       </c>
       <c r="F38" s="28">
         <f>F39*Inputs!$B$95</f>
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G38" s="28">
         <f>G39*Inputs!$B$95</f>
@@ -10804,7 +10822,7 @@
       </c>
       <c r="J38" s="28">
         <f>SUM(B38:I38)</f>
-        <v>2300</v>
+        <v>4600</v>
       </c>
       <c r="O38" t="s">
         <v>150</v>
@@ -10823,15 +10841,15 @@
       </c>
       <c r="S38" s="28">
         <f>S39*Inputs!$B$96</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="T38" s="28">
         <f>T39*Inputs!$B$96</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="U38" s="28">
         <f>U39*Inputs!$B$96</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="V38" s="28">
         <f>V39*Inputs!$B$96</f>
@@ -10866,7 +10884,7 @@
       </c>
       <c r="F39">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <f t="shared" si="20"/>
@@ -10897,15 +10915,15 @@
       </c>
       <c r="S39">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39">
         <f t="shared" si="21"/>
@@ -10919,7 +10937,7 @@
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="J40" s="28">
         <f>+SUM(J37:J38)</f>
-        <v>21125.600000000002</v>
+        <v>16243.6</v>
       </c>
       <c r="X40" s="28"/>
     </row>
@@ -10934,7 +10952,7 @@
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B42" s="24">
         <f>B8</f>
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C42" s="24">
         <f t="shared" ref="C42:I42" si="22">C8</f>
@@ -10950,7 +10968,7 @@
       </c>
       <c r="F42" s="24">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="G42" s="24">
         <f t="shared" si="22"/>
@@ -10966,7 +10984,7 @@
       </c>
       <c r="P42" s="24">
         <f>P8</f>
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="Q42" s="24">
         <f t="shared" ref="Q42:W42" si="23">Q8</f>
@@ -10978,15 +10996,15 @@
       </c>
       <c r="S42" s="24">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="T42" s="24">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U42" s="24">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="V42" s="24">
         <f t="shared" si="23"/>
@@ -11032,7 +11050,7 @@
       </c>
       <c r="K43">
         <f>+VLOOKUP(Inputs!B110,Inputs!A107:B109,2,FALSE)</f>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="P43" s="24">
         <f>P14</f>
@@ -11268,7 +11286,7 @@
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B48">
         <f>SUM(B42:B46)*$K$43</f>
-        <v>15000</v>
+        <v>15750</v>
       </c>
       <c r="C48">
         <f t="shared" ref="C48:I48" si="32">SUM(C42:C46)*$K$43</f>
@@ -11284,7 +11302,7 @@
       </c>
       <c r="F48">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>15750</v>
       </c>
       <c r="G48">
         <f t="shared" si="32"/>
@@ -11374,7 +11392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CCB233-5C68-4FDC-B7E2-591CBA53034B}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J20"/>
     </sheetView>
   </sheetViews>
@@ -11387,18 +11405,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
@@ -11470,7 +11488,7 @@
       </c>
       <c r="G4" s="28">
         <f>Inventario_Dinamico!F38</f>
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="H4" s="28">
         <f>Inventario_Dinamico!G38</f>
@@ -11503,15 +11521,15 @@
       </c>
       <c r="F5" s="43">
         <f>Inventario_Dinamico!S38</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G5" s="43">
         <f>Inventario_Dinamico!T38</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="H5" s="43">
         <f>Inventario_Dinamico!U38</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I5" s="43">
         <f>Inventario_Dinamico!V38</f>
@@ -11538,15 +11556,15 @@
       </c>
       <c r="F6" s="28">
         <f>SUM(F4:F5)</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G6" s="28">
         <f>SUM(G4:G5)</f>
-        <v>0</v>
+        <v>8300</v>
       </c>
       <c r="H6" s="28">
         <f>SUM(H4:H5)</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I6" s="28">
         <f>SUM(I4:I5)</f>
@@ -11575,39 +11593,39 @@
       </c>
       <c r="C8" s="28">
         <f>Inventario_Dinamico!B37</f>
-        <v>2353.1999999999998</v>
+        <v>1859.6999999999998</v>
       </c>
       <c r="D8" s="28">
         <f>Inventario_Dinamico!C37</f>
-        <v>2353.1999999999998</v>
+        <v>1582.2</v>
       </c>
       <c r="E8" s="28">
         <f>Inventario_Dinamico!D37</f>
-        <v>2353.1999999999998</v>
+        <v>1304.7</v>
       </c>
       <c r="F8" s="28">
         <f>Inventario_Dinamico!E37</f>
-        <v>2353.1999999999998</v>
+        <v>1027.2</v>
       </c>
       <c r="G8" s="28">
         <f>Inventario_Dinamico!F37</f>
-        <v>2353.1999999999998</v>
+        <v>1883.6999999999998</v>
       </c>
       <c r="H8" s="28">
         <f>Inventario_Dinamico!G37</f>
-        <v>2353.1999999999998</v>
+        <v>1606.2</v>
       </c>
       <c r="I8" s="28">
         <f>Inventario_Dinamico!H37</f>
-        <v>2353.1999999999998</v>
+        <v>1328.7</v>
       </c>
       <c r="J8" s="28">
         <f>Inventario_Dinamico!I37</f>
-        <v>2353.1999999999998</v>
+        <v>1051.2</v>
       </c>
       <c r="K8" t="str">
         <f>+VLOOKUP(Inputs!B110,Inputs!A107:C109,3,FALSE)</f>
-        <v>+2 Quincenas</v>
+        <v>Inmediato (0Q)</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -11616,73 +11634,73 @@
       </c>
       <c r="C9" s="43">
         <f>Inventario_Dinamico!P37</f>
-        <v>495</v>
+        <v>248.03999999999996</v>
       </c>
       <c r="D9" s="43">
         <f>Inventario_Dinamico!Q37</f>
-        <v>495</v>
+        <v>191.87999999999997</v>
       </c>
       <c r="E9" s="43">
         <f>Inventario_Dinamico!R37</f>
-        <v>495</v>
+        <v>135.71999999999997</v>
       </c>
       <c r="F9" s="43">
         <f>Inventario_Dinamico!S37</f>
-        <v>495</v>
+        <v>176.75999999999996</v>
       </c>
       <c r="G9" s="43">
         <f>Inventario_Dinamico!T37</f>
-        <v>495</v>
+        <v>217.79999999999995</v>
       </c>
       <c r="H9" s="43">
         <f>Inventario_Dinamico!U37</f>
-        <v>495</v>
+        <v>258.83999999999992</v>
       </c>
       <c r="I9" s="43">
         <f>Inventario_Dinamico!V37</f>
-        <v>495</v>
+        <v>202.67999999999992</v>
       </c>
       <c r="J9" s="43">
         <f>Inventario_Dinamico!W37</f>
-        <v>495</v>
+        <v>146.51999999999992</v>
       </c>
       <c r="K9" t="str">
         <f>VLOOKUP(Inputs!B118,Inputs!A114:C117,3,FALSE)</f>
-        <v>+2 Quincenas</v>
+        <v>Inmediato (0Q)</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C10" s="28">
         <f>+SUM(C8:C9)</f>
-        <v>2848.2</v>
+        <v>2107.7399999999998</v>
       </c>
       <c r="D10" s="28">
         <f>+SUM(D8:D9)</f>
-        <v>2848.2</v>
+        <v>1774.08</v>
       </c>
       <c r="E10" s="28">
         <f>+SUM(E8:E9)</f>
-        <v>2848.2</v>
+        <v>1440.42</v>
       </c>
       <c r="F10" s="28">
         <f>+SUM(F8:F9)</f>
-        <v>2848.2</v>
+        <v>1203.96</v>
       </c>
       <c r="G10" s="28">
         <f>+SUM(G8:G9)</f>
-        <v>2848.2</v>
+        <v>2101.5</v>
       </c>
       <c r="H10" s="28">
         <f>+SUM(H8:H9)</f>
-        <v>2848.2</v>
+        <v>1865.04</v>
       </c>
       <c r="I10" s="28">
         <f>+SUM(I8:I9)</f>
-        <v>2848.2</v>
+        <v>1531.3799999999999</v>
       </c>
       <c r="J10" s="28">
         <f>+SUM(J8:J9)</f>
-        <v>2848.2</v>
+        <v>1197.72</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -11699,7 +11717,7 @@
       </c>
       <c r="C12" s="1">
         <f>(Inventario_Dinamico!B8+Inventario_Dinamico!B14+Inventario_Dinamico!B20+Inventario_Dinamico!B26+Inventario_Dinamico!B32)*$L$12</f>
-        <v>15000</v>
+        <v>15750</v>
       </c>
       <c r="D12" s="1">
         <f>(Inventario_Dinamico!C8+Inventario_Dinamico!C14+Inventario_Dinamico!C20+Inventario_Dinamico!C26+Inventario_Dinamico!C32)*$L$12</f>
@@ -11715,7 +11733,7 @@
       </c>
       <c r="G12" s="1">
         <f>(Inventario_Dinamico!F8+Inventario_Dinamico!F14+Inventario_Dinamico!F20+Inventario_Dinamico!F26+Inventario_Dinamico!F32)*$L$12</f>
-        <v>0</v>
+        <v>15750</v>
       </c>
       <c r="H12" s="1">
         <f>(Inventario_Dinamico!G8+Inventario_Dinamico!G14+Inventario_Dinamico!G20+Inventario_Dinamico!G26+Inventario_Dinamico!G32)*$L$12</f>
@@ -11731,7 +11749,7 @@
       </c>
       <c r="L12">
         <f>+VLOOKUP(Inputs!B110,Inputs!A107:B109,2,FALSE)</f>
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -11740,7 +11758,7 @@
       </c>
       <c r="C13" s="1">
         <f>(Inventario_Dinamico!P8+Inventario_Dinamico!P14+Inventario_Dinamico!P20+Inventario_Dinamico!P26+Inventario_Dinamico!P32)*$L$13</f>
-        <v>21120</v>
+        <v>8910</v>
       </c>
       <c r="D13" s="1">
         <f>(Inventario_Dinamico!Q8+Inventario_Dinamico!Q14+Inventario_Dinamico!Q20+Inventario_Dinamico!Q26+Inventario_Dinamico!Q32)*$L$13</f>
@@ -11752,15 +11770,15 @@
       </c>
       <c r="F13" s="1">
         <f>(Inventario_Dinamico!S8+Inventario_Dinamico!S14+Inventario_Dinamico!S20+Inventario_Dinamico!S26+Inventario_Dinamico!S32)*$L$13</f>
-        <v>0</v>
+        <v>8910</v>
       </c>
       <c r="G13" s="1">
         <f>(Inventario_Dinamico!T8+Inventario_Dinamico!T14+Inventario_Dinamico!T20+Inventario_Dinamico!T26+Inventario_Dinamico!T32)*$L$13</f>
-        <v>0</v>
+        <v>8910</v>
       </c>
       <c r="H13" s="1">
         <f>(Inventario_Dinamico!U8+Inventario_Dinamico!U14+Inventario_Dinamico!U20+Inventario_Dinamico!U26+Inventario_Dinamico!U32)*$L$13</f>
-        <v>0</v>
+        <v>8910</v>
       </c>
       <c r="I13" s="1">
         <f>(Inventario_Dinamico!V8+Inventario_Dinamico!V14+Inventario_Dinamico!V20+Inventario_Dinamico!V26+Inventario_Dinamico!V32)*$L$13</f>
@@ -11772,7 +11790,7 @@
       </c>
       <c r="L13">
         <f>+VLOOKUP(Inputs!B118,Inputs!A114:B117,2,FALSE)</f>
-        <v>264</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -11781,7 +11799,7 @@
       </c>
       <c r="B14" s="28">
         <f>BOM_Consumo_Piezas!P6+BOM_Consumo_Piezas!P16+BOM_Consumo_Piezas!P26+BOM_Consumo_Piezas!P36+BOM_Consumo_Piezas!P46</f>
-        <v>0</v>
+        <v>3234.0000000000005</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -11798,7 +11816,7 @@
       </c>
       <c r="B15" s="28">
         <f>BOM_Consumo_Piezas!P7+BOM_Consumo_Piezas!P17+BOM_Consumo_Piezas!P27+BOM_Consumo_Piezas!P37+BOM_Consumo_Piezas!P47</f>
-        <v>0</v>
+        <v>5446</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -11815,7 +11833,7 @@
       </c>
       <c r="B16" s="28">
         <f>BOM_Consumo_Piezas!P8+BOM_Consumo_Piezas!P18+BOM_Consumo_Piezas!P28+BOM_Consumo_Piezas!P38+BOM_Consumo_Piezas!P48</f>
-        <v>0</v>
+        <v>3060</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -11832,7 +11850,7 @@
       </c>
       <c r="B17" s="28">
         <f>BOM_Consumo_Piezas!P9+BOM_Consumo_Piezas!P19+BOM_Consumo_Piezas!P29+BOM_Consumo_Piezas!P39+BOM_Consumo_Piezas!P49</f>
-        <v>0</v>
+        <v>2088</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -11849,7 +11867,7 @@
       </c>
       <c r="B18" s="28">
         <f>BOM_Consumo_Piezas!P10+BOM_Consumo_Piezas!P20+BOM_Consumo_Piezas!P30+BOM_Consumo_Piezas!P40+BOM_Consumo_Piezas!P50</f>
-        <v>0</v>
+        <v>5820</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -11866,7 +11884,7 @@
       </c>
       <c r="B19" s="43">
         <f>BOM_Consumo_Piezas!P11+BOM_Consumo_Piezas!P21+BOM_Consumo_Piezas!P31+BOM_Consumo_Piezas!P41+BOM_Consumo_Piezas!P51</f>
-        <v>0</v>
+        <v>1344</v>
       </c>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
@@ -11880,11 +11898,11 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <f>SUM(B12:B19)</f>
-        <v>0</v>
+        <v>20992</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ref="C20:J20" si="0">SUM(C12:C19)</f>
-        <v>36120</v>
+        <v>24660</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
@@ -11896,15 +11914,15 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8910</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24660</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8910</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="0"/>
@@ -11936,18 +11954,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
@@ -12019,7 +12037,7 @@
       </c>
       <c r="G4" s="28">
         <f>Inventario_Dinamico!F38</f>
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="H4" s="28">
         <f>Inventario_Dinamico!G38</f>
@@ -12052,15 +12070,15 @@
       </c>
       <c r="F5" s="43">
         <f>Inventario_Dinamico!S38</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G5" s="43">
         <f>Inventario_Dinamico!T38</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="H5" s="43">
         <f>Inventario_Dinamico!U38</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I5" s="43">
         <f>Inventario_Dinamico!V38</f>
@@ -12087,15 +12105,15 @@
       </c>
       <c r="F6" s="28">
         <f>SUM(F4:F5)</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G6" s="28">
         <f>SUM(G4:G5)</f>
-        <v>0</v>
+        <v>8300</v>
       </c>
       <c r="H6" s="28">
         <f>SUM(H4:H5)</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I6" s="28">
         <f>SUM(I4:I5)</f>
@@ -12124,39 +12142,39 @@
       </c>
       <c r="C8" s="28">
         <f>Inventario_Dinamico!B37</f>
-        <v>2353.1999999999998</v>
+        <v>1859.6999999999998</v>
       </c>
       <c r="D8" s="28">
         <f>Inventario_Dinamico!C37</f>
-        <v>2353.1999999999998</v>
+        <v>1582.2</v>
       </c>
       <c r="E8" s="28">
         <f>Inventario_Dinamico!D37</f>
-        <v>2353.1999999999998</v>
+        <v>1304.7</v>
       </c>
       <c r="F8" s="28">
         <f>Inventario_Dinamico!E37</f>
-        <v>2353.1999999999998</v>
+        <v>1027.2</v>
       </c>
       <c r="G8" s="28">
         <f>Inventario_Dinamico!F37</f>
-        <v>2353.1999999999998</v>
+        <v>1883.6999999999998</v>
       </c>
       <c r="H8" s="28">
         <f>Inventario_Dinamico!G37</f>
-        <v>2353.1999999999998</v>
+        <v>1606.2</v>
       </c>
       <c r="I8" s="28">
         <f>Inventario_Dinamico!H37</f>
-        <v>2353.1999999999998</v>
+        <v>1328.7</v>
       </c>
       <c r="J8" s="28">
         <f>Inventario_Dinamico!I37</f>
-        <v>2353.1999999999998</v>
+        <v>1051.2</v>
       </c>
       <c r="K8" t="str">
         <f>+VLOOKUP(Inputs!B110,Inputs!A107:C109,3,FALSE)</f>
-        <v>+2 Quincenas</v>
+        <v>Inmediato (0Q)</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -12165,73 +12183,73 @@
       </c>
       <c r="C9" s="43">
         <f>Inventario_Dinamico!P37</f>
-        <v>495</v>
+        <v>248.03999999999996</v>
       </c>
       <c r="D9" s="43">
         <f>Inventario_Dinamico!Q37</f>
-        <v>495</v>
+        <v>191.87999999999997</v>
       </c>
       <c r="E9" s="43">
         <f>Inventario_Dinamico!R37</f>
-        <v>495</v>
+        <v>135.71999999999997</v>
       </c>
       <c r="F9" s="43">
         <f>Inventario_Dinamico!S37</f>
-        <v>495</v>
+        <v>176.75999999999996</v>
       </c>
       <c r="G9" s="43">
         <f>Inventario_Dinamico!T37</f>
-        <v>495</v>
+        <v>217.79999999999995</v>
       </c>
       <c r="H9" s="43">
         <f>Inventario_Dinamico!U37</f>
-        <v>495</v>
+        <v>258.83999999999992</v>
       </c>
       <c r="I9" s="43">
         <f>Inventario_Dinamico!V37</f>
-        <v>495</v>
+        <v>202.67999999999992</v>
       </c>
       <c r="J9" s="43">
         <f>Inventario_Dinamico!W37</f>
-        <v>495</v>
+        <v>146.51999999999992</v>
       </c>
       <c r="K9" t="str">
         <f>VLOOKUP(Inputs!B118,Inputs!A114:C117,3,FALSE)</f>
-        <v>+2 Quincenas</v>
+        <v>Inmediato (0Q)</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="28">
         <f>+SUM(C8:C9)</f>
-        <v>2848.2</v>
+        <v>2107.7399999999998</v>
       </c>
       <c r="D10" s="28">
         <f>+SUM(D8:D9)</f>
-        <v>2848.2</v>
+        <v>1774.08</v>
       </c>
       <c r="E10" s="28">
         <f>+SUM(E8:E9)</f>
-        <v>2848.2</v>
+        <v>1440.42</v>
       </c>
       <c r="F10" s="28">
         <f>+SUM(F8:F9)</f>
-        <v>2848.2</v>
+        <v>1203.96</v>
       </c>
       <c r="G10" s="28">
         <f>+SUM(G8:G9)</f>
-        <v>2848.2</v>
+        <v>2101.5</v>
       </c>
       <c r="H10" s="28">
         <f>+SUM(H8:H9)</f>
-        <v>2848.2</v>
+        <v>1865.04</v>
       </c>
       <c r="I10" s="28">
         <f>+SUM(I8:I9)</f>
-        <v>2848.2</v>
+        <v>1531.3799999999999</v>
       </c>
       <c r="J10" s="28">
         <f>+SUM(J8:J9)</f>
-        <v>2848.2</v>
+        <v>1197.72</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -12245,7 +12263,7 @@
       </c>
       <c r="C12" s="1">
         <f>(Inventario_Dinamico!B8+Inventario_Dinamico!B14+Inventario_Dinamico!B20+Inventario_Dinamico!B26+Inventario_Dinamico!B32)*$L$12</f>
-        <v>15000</v>
+        <v>15750</v>
       </c>
       <c r="D12" s="1">
         <f>(Inventario_Dinamico!C8+Inventario_Dinamico!C14+Inventario_Dinamico!C20+Inventario_Dinamico!C26+Inventario_Dinamico!C32)*$L$12</f>
@@ -12261,7 +12279,7 @@
       </c>
       <c r="G12" s="1">
         <f>(Inventario_Dinamico!F8+Inventario_Dinamico!F14+Inventario_Dinamico!F20+Inventario_Dinamico!F26+Inventario_Dinamico!F32)*$L$12</f>
-        <v>0</v>
+        <v>15750</v>
       </c>
       <c r="H12" s="1">
         <f>(Inventario_Dinamico!G8+Inventario_Dinamico!G14+Inventario_Dinamico!G20+Inventario_Dinamico!G26+Inventario_Dinamico!G32)*$L$12</f>
@@ -12277,7 +12295,7 @@
       </c>
       <c r="L12">
         <f>+VLOOKUP(Inputs!B110,Inputs!A107:B109,2,FALSE)</f>
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -12286,7 +12304,7 @@
       </c>
       <c r="C13" s="1">
         <f>(Inventario_Dinamico!P8+Inventario_Dinamico!P14+Inventario_Dinamico!P20+Inventario_Dinamico!P26+Inventario_Dinamico!P32)*$L$13</f>
-        <v>21120</v>
+        <v>8910</v>
       </c>
       <c r="D13" s="1">
         <f>(Inventario_Dinamico!Q8+Inventario_Dinamico!Q14+Inventario_Dinamico!Q20+Inventario_Dinamico!Q26+Inventario_Dinamico!Q32)*$L$13</f>
@@ -12298,15 +12316,15 @@
       </c>
       <c r="F13" s="1">
         <f>(Inventario_Dinamico!S8+Inventario_Dinamico!S14+Inventario_Dinamico!S20+Inventario_Dinamico!S26+Inventario_Dinamico!S32)*$L$13</f>
-        <v>0</v>
+        <v>8910</v>
       </c>
       <c r="G13" s="1">
         <f>(Inventario_Dinamico!T8+Inventario_Dinamico!T14+Inventario_Dinamico!T20+Inventario_Dinamico!T26+Inventario_Dinamico!T32)*$L$13</f>
-        <v>0</v>
+        <v>8910</v>
       </c>
       <c r="H13" s="1">
         <f>(Inventario_Dinamico!U8+Inventario_Dinamico!U14+Inventario_Dinamico!U20+Inventario_Dinamico!U26+Inventario_Dinamico!U32)*$L$13</f>
-        <v>0</v>
+        <v>8910</v>
       </c>
       <c r="I13" s="1">
         <f>(Inventario_Dinamico!V8+Inventario_Dinamico!V14+Inventario_Dinamico!V20+Inventario_Dinamico!V26+Inventario_Dinamico!V32)*$L$13</f>
@@ -12318,7 +12336,7 @@
       </c>
       <c r="L13">
         <f>+VLOOKUP(Inputs!B118,Inputs!A114:B117,2,FALSE)</f>
-        <v>264</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -12327,7 +12345,7 @@
       </c>
       <c r="B14" s="28">
         <f>BOM_Consumo_Piezas!P6+BOM_Consumo_Piezas!P16+BOM_Consumo_Piezas!P26+BOM_Consumo_Piezas!P36+BOM_Consumo_Piezas!P46</f>
-        <v>0</v>
+        <v>3234.0000000000005</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -12344,7 +12362,7 @@
       </c>
       <c r="B15" s="28">
         <f>BOM_Consumo_Piezas!P7+BOM_Consumo_Piezas!P17+BOM_Consumo_Piezas!P27+BOM_Consumo_Piezas!P37+BOM_Consumo_Piezas!P47</f>
-        <v>0</v>
+        <v>5446</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -12361,7 +12379,7 @@
       </c>
       <c r="B16" s="28">
         <f>BOM_Consumo_Piezas!P8+BOM_Consumo_Piezas!P18+BOM_Consumo_Piezas!P28+BOM_Consumo_Piezas!P38+BOM_Consumo_Piezas!P48</f>
-        <v>0</v>
+        <v>3060</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -12378,7 +12396,7 @@
       </c>
       <c r="B17" s="28">
         <f>BOM_Consumo_Piezas!P9+BOM_Consumo_Piezas!P19+BOM_Consumo_Piezas!P29+BOM_Consumo_Piezas!P39+BOM_Consumo_Piezas!P49</f>
-        <v>0</v>
+        <v>2088</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -12395,7 +12413,7 @@
       </c>
       <c r="B18" s="28">
         <f>BOM_Consumo_Piezas!P10+BOM_Consumo_Piezas!P20+BOM_Consumo_Piezas!P30+BOM_Consumo_Piezas!P40+BOM_Consumo_Piezas!P50</f>
-        <v>0</v>
+        <v>5820</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -12412,7 +12430,7 @@
       </c>
       <c r="B19" s="43">
         <f>BOM_Consumo_Piezas!P11+BOM_Consumo_Piezas!P21+BOM_Consumo_Piezas!P31+BOM_Consumo_Piezas!P41+BOM_Consumo_Piezas!P51</f>
-        <v>0</v>
+        <v>1344</v>
       </c>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
@@ -12426,11 +12444,11 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <f>SUM(B12:B19)</f>
-        <v>0</v>
+        <v>20992</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ref="C20:J20" si="0">SUM(C12:C19)</f>
-        <v>36120</v>
+        <v>24660</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
@@ -12442,15 +12460,15 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8910</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24660</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8910</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="0"/>

--- a/Procurement/EXSIM_Mezquite_Purchasing_CORREGIDO_FIX_with_policies.xlsx
+++ b/Procurement/EXSIM_Mezquite_Purchasing_CORREGIDO_FIX_with_policies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0dc407a335d7300f/Documentos/GitHub/BusinessSim/Procurement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1411" documentId="6_{4F45DE64-BE33-4F18-9BCE-C4F36FED717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6E0BADB-1474-4907-B571-65C1053B3437}"/>
+  <xr:revisionPtr revIDLastSave="1487" documentId="6_{4F45DE64-BE33-4F18-9BCE-C4F36FED717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E53DD138-251E-4AF6-B521-3F4900C67BF2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="BOM_Consumo_Piezas" sheetId="3" r:id="rId3"/>
     <sheet name="Inventario_Dinamico" sheetId="4" r:id="rId4"/>
     <sheet name="Costos" sheetId="19" r:id="rId5"/>
-    <sheet name="CashFlow Legacy" sheetId="20" r:id="rId6"/>
+    <sheet name="Proveedor B" sheetId="20" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -534,7 +534,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="\$#,##0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -657,20 +657,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="7"/>
       <color rgb="FF0F0F0F"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,14 +693,8 @@
         <fgColor rgb="FF1F4E79"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -785,36 +772,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -822,7 +779,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -917,27 +874,22 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -951,7 +903,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Encabezado 1" xfId="2" builtinId="16"/>
@@ -1296,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:I24"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B24:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1310,51 +1261,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1386,65 +1337,65 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="44">
-        <v>925</v>
-      </c>
-      <c r="C6" s="47">
-        <v>925</v>
-      </c>
-      <c r="D6" s="47">
-        <v>925</v>
-      </c>
-      <c r="E6" s="47">
-        <v>925</v>
-      </c>
-      <c r="F6" s="47">
-        <v>925</v>
-      </c>
-      <c r="G6" s="47">
-        <v>925</v>
-      </c>
-      <c r="H6" s="47">
-        <v>925</v>
-      </c>
-      <c r="I6" s="47">
-        <v>925</v>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <f>SUM(B6:I6)</f>
-        <v>7400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="44">
-        <v>0</v>
-      </c>
-      <c r="C7" s="44">
-        <v>0</v>
-      </c>
-      <c r="D7" s="44">
-        <v>0</v>
-      </c>
-      <c r="E7" s="44">
-        <v>0</v>
-      </c>
-      <c r="F7" s="44">
-        <v>0</v>
-      </c>
-      <c r="G7" s="44">
-        <v>0</v>
-      </c>
-      <c r="H7" s="44">
-        <v>0</v>
-      </c>
-      <c r="I7" s="44">
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
         <v>0</v>
       </c>
       <c r="J7" s="7">
@@ -1452,32 +1403,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="44">
-        <v>0</v>
-      </c>
-      <c r="C8" s="44">
-        <v>0</v>
-      </c>
-      <c r="D8" s="44">
-        <v>0</v>
-      </c>
-      <c r="E8" s="44">
-        <v>0</v>
-      </c>
-      <c r="F8" s="44">
-        <v>0</v>
-      </c>
-      <c r="G8" s="44">
-        <v>0</v>
-      </c>
-      <c r="H8" s="44">
-        <v>0</v>
-      </c>
-      <c r="I8" s="44">
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
         <v>0</v>
       </c>
       <c r="J8" s="7">
@@ -1557,39 +1508,39 @@
       </c>
       <c r="B11" s="24">
         <f t="shared" ref="B11:I11" si="0">+SUM(B6:B10)</f>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="C11" s="24">
         <f t="shared" si="0"/>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="D11" s="24">
         <f t="shared" si="0"/>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="E11" s="24">
         <f t="shared" si="0"/>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="F11" s="24">
         <f t="shared" si="0"/>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="G11" s="24">
         <f t="shared" si="0"/>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="H11" s="24">
         <f t="shared" si="0"/>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="I11" s="24">
         <f t="shared" si="0"/>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="J11" s="24">
         <f>+SUM(J6:J10)</f>
-        <v>7400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1605,21 +1556,21 @@
       <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
@@ -1651,65 +1602,65 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="44">
-        <v>936</v>
-      </c>
-      <c r="C15" s="47">
-        <v>936</v>
-      </c>
-      <c r="D15" s="47">
-        <v>936</v>
-      </c>
-      <c r="E15" s="47">
-        <v>936</v>
-      </c>
-      <c r="F15" s="47">
-        <v>936</v>
-      </c>
-      <c r="G15" s="47">
-        <v>936</v>
-      </c>
-      <c r="H15" s="47">
-        <v>936</v>
-      </c>
-      <c r="I15" s="47">
-        <v>936</v>
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
       </c>
       <c r="J15" s="7">
         <f>SUM(B15:I15)</f>
-        <v>7488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="44">
-        <v>0</v>
-      </c>
-      <c r="C16" s="47">
-        <v>0</v>
-      </c>
-      <c r="D16" s="47">
-        <v>0</v>
-      </c>
-      <c r="E16" s="47">
-        <v>0</v>
-      </c>
-      <c r="F16" s="47">
-        <v>0</v>
-      </c>
-      <c r="G16" s="47">
-        <v>0</v>
-      </c>
-      <c r="H16" s="47">
-        <v>0</v>
-      </c>
-      <c r="I16" s="47">
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
         <v>0</v>
       </c>
       <c r="J16" s="7">
@@ -1717,32 +1668,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="44">
-        <v>0</v>
-      </c>
-      <c r="C17" s="44">
-        <v>0</v>
-      </c>
-      <c r="D17" s="44">
-        <v>0</v>
-      </c>
-      <c r="E17" s="44">
-        <v>0</v>
-      </c>
-      <c r="F17" s="44">
-        <v>0</v>
-      </c>
-      <c r="G17" s="44">
-        <v>0</v>
-      </c>
-      <c r="H17" s="44">
-        <v>0</v>
-      </c>
-      <c r="I17" s="44">
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
         <v>0</v>
       </c>
       <c r="J17" s="7">
@@ -1750,32 +1701,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="44">
-        <v>0</v>
-      </c>
-      <c r="C18" s="44">
-        <v>0</v>
-      </c>
-      <c r="D18" s="44">
-        <v>0</v>
-      </c>
-      <c r="E18" s="44">
-        <v>0</v>
-      </c>
-      <c r="F18" s="44">
-        <v>0</v>
-      </c>
-      <c r="G18" s="44">
-        <v>0</v>
-      </c>
-      <c r="H18" s="44">
-        <v>0</v>
-      </c>
-      <c r="I18" s="44">
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
         <v>0</v>
       </c>
       <c r="J18" s="7">
@@ -1822,39 +1773,39 @@
       </c>
       <c r="B20" s="24">
         <f t="shared" ref="B20:J20" si="1">+SUM(B15:B19)</f>
-        <v>936</v>
+        <v>0</v>
       </c>
       <c r="C20" s="24">
         <f t="shared" si="1"/>
-        <v>936</v>
+        <v>0</v>
       </c>
       <c r="D20" s="24">
         <f t="shared" si="1"/>
-        <v>936</v>
+        <v>0</v>
       </c>
       <c r="E20" s="24">
         <f t="shared" si="1"/>
-        <v>936</v>
+        <v>0</v>
       </c>
       <c r="F20" s="24">
         <f t="shared" si="1"/>
-        <v>936</v>
+        <v>0</v>
       </c>
       <c r="G20" s="24">
         <f t="shared" si="1"/>
-        <v>936</v>
+        <v>0</v>
       </c>
       <c r="H20" s="24">
         <f t="shared" si="1"/>
-        <v>936</v>
+        <v>0</v>
       </c>
       <c r="I20" s="24">
         <f t="shared" si="1"/>
-        <v>936</v>
+        <v>0</v>
       </c>
       <c r="J20" s="24">
         <f t="shared" si="1"/>
-        <v>7488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1870,21 +1821,21 @@
       <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -1916,65 +1867,65 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="44">
-        <v>1228</v>
-      </c>
-      <c r="C24" s="47">
-        <v>1228</v>
-      </c>
-      <c r="D24" s="47">
-        <v>1228</v>
-      </c>
-      <c r="E24" s="47">
-        <v>1228</v>
-      </c>
-      <c r="F24" s="47">
-        <v>1228</v>
-      </c>
-      <c r="G24" s="47">
-        <v>1228</v>
-      </c>
-      <c r="H24" s="47">
-        <v>1228</v>
-      </c>
-      <c r="I24" s="47">
-        <v>1228</v>
+      <c r="B24" s="6">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
       </c>
       <c r="J24" s="7">
         <f>SUM(B24:I24)</f>
-        <v>9824</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="44">
-        <v>0</v>
-      </c>
-      <c r="C25" s="44">
-        <v>0</v>
-      </c>
-      <c r="D25" s="44">
-        <v>0</v>
-      </c>
-      <c r="E25" s="44">
-        <v>0</v>
-      </c>
-      <c r="F25" s="44">
-        <v>0</v>
-      </c>
-      <c r="G25" s="44">
-        <v>0</v>
-      </c>
-      <c r="H25" s="44">
-        <v>0</v>
-      </c>
-      <c r="I25" s="44">
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
         <v>0</v>
       </c>
       <c r="J25" s="7">
@@ -1982,32 +1933,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="44">
-        <v>0</v>
-      </c>
-      <c r="C26" s="44">
-        <v>0</v>
-      </c>
-      <c r="D26" s="44">
-        <v>0</v>
-      </c>
-      <c r="E26" s="44">
-        <v>0</v>
-      </c>
-      <c r="F26" s="44">
-        <v>0</v>
-      </c>
-      <c r="G26" s="44">
-        <v>0</v>
-      </c>
-      <c r="H26" s="44">
-        <v>0</v>
-      </c>
-      <c r="I26" s="44">
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
         <v>0</v>
       </c>
       <c r="J26" s="7">
@@ -2087,39 +2038,39 @@
       </c>
       <c r="B29" s="24">
         <f t="shared" ref="B29:J29" si="2">+SUM(B24:B28)</f>
-        <v>1228</v>
+        <v>0</v>
       </c>
       <c r="C29" s="24">
         <f t="shared" si="2"/>
-        <v>1228</v>
+        <v>0</v>
       </c>
       <c r="D29" s="24">
         <f t="shared" si="2"/>
-        <v>1228</v>
+        <v>0</v>
       </c>
       <c r="E29" s="24">
         <f t="shared" si="2"/>
-        <v>1228</v>
+        <v>0</v>
       </c>
       <c r="F29" s="24">
         <f t="shared" si="2"/>
-        <v>1228</v>
+        <v>0</v>
       </c>
       <c r="G29" s="24">
         <f t="shared" si="2"/>
-        <v>1228</v>
+        <v>0</v>
       </c>
       <c r="H29" s="24">
         <f t="shared" si="2"/>
-        <v>1228</v>
+        <v>0</v>
       </c>
       <c r="I29" s="24">
         <f t="shared" si="2"/>
-        <v>1228</v>
+        <v>0</v>
       </c>
       <c r="J29" s="24">
         <f t="shared" si="2"/>
-        <v>9824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2164,10 +2115,10 @@
       <c r="A32" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="64">
+      <c r="B32" s="48">
         <v>1648</v>
       </c>
-      <c r="C32" s="64">
+      <c r="C32" s="48">
         <v>1696</v>
       </c>
       <c r="D32" s="6">
@@ -2190,10 +2141,10 @@
       <c r="A33" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="64">
+      <c r="B33" s="48">
         <v>261</v>
       </c>
-      <c r="C33" s="64">
+      <c r="C33" s="48">
         <v>429</v>
       </c>
       <c r="D33" s="6">
@@ -2216,10 +2167,10 @@
       <c r="A34" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="64">
+      <c r="B34" s="48">
         <v>25</v>
       </c>
-      <c r="C34" s="64">
+      <c r="C34" s="48">
         <v>18</v>
       </c>
       <c r="D34" s="6">
@@ -2242,7 +2193,7 @@
       <c r="A35" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="64">
+      <c r="B35" s="48">
         <v>824</v>
       </c>
       <c r="C35" s="6">
@@ -2268,10 +2219,10 @@
       <c r="A36" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="64">
+      <c r="B36" s="48">
         <v>413</v>
       </c>
-      <c r="C36" s="64">
+      <c r="C36" s="48">
         <v>30</v>
       </c>
       <c r="D36" s="6">
@@ -2294,10 +2245,10 @@
       <c r="A37" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="64">
+      <c r="B37" s="48">
         <v>707</v>
       </c>
-      <c r="C37" s="64">
+      <c r="C37" s="48">
         <v>59</v>
       </c>
       <c r="D37" s="6">
@@ -2320,7 +2271,7 @@
       <c r="A38" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="64">
+      <c r="B38" s="48">
         <v>256</v>
       </c>
       <c r="C38" s="6">
@@ -2346,7 +2297,7 @@
       <c r="A39" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="64">
+      <c r="B39" s="48">
         <v>209</v>
       </c>
       <c r="C39" s="6">
@@ -2473,12 +2424,12 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
@@ -2669,7 +2620,7 @@
       <c r="D61" s="3"/>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="52" t="s">
+      <c r="A64" s="55" t="s">
         <v>55</v>
       </c>
       <c r="B64" s="53"/>
@@ -2694,7 +2645,7 @@
       <c r="A66" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="49">
+      <c r="B66" s="47">
         <v>30</v>
       </c>
       <c r="C66" s="10" t="s">
@@ -2708,7 +2659,7 @@
       <c r="A67" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="49">
+      <c r="B67" s="47">
         <v>12</v>
       </c>
       <c r="C67" s="10" t="s">
@@ -2722,7 +2673,7 @@
       <c r="A68" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="49">
+      <c r="B68" s="47">
         <v>1</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -2736,7 +2687,7 @@
       <c r="A69" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="49">
+      <c r="B69" s="47">
         <v>100</v>
       </c>
       <c r="C69" s="10" t="s">
@@ -2750,7 +2701,7 @@
       <c r="A70" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="49">
+      <c r="B70" s="47">
         <v>30</v>
       </c>
       <c r="C70" s="10" t="s">
@@ -2764,7 +2715,7 @@
       <c r="A71" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B71" s="49">
+      <c r="B71" s="47">
         <v>60</v>
       </c>
       <c r="C71" s="10" t="s">
@@ -2778,7 +2729,7 @@
       <c r="A72" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B72" s="49">
+      <c r="B72" s="47">
         <v>100</v>
       </c>
       <c r="C72" s="10" t="s">
@@ -2792,7 +2743,7 @@
       <c r="A73" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="49">
+      <c r="B73" s="47">
         <v>150</v>
       </c>
       <c r="C73" s="10" t="s">
@@ -2806,7 +2757,7 @@
       <c r="A74" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B74" s="49">
+      <c r="B74" s="47">
         <v>1</v>
       </c>
       <c r="C74" s="10" t="s">
@@ -2820,7 +2771,7 @@
       <c r="A75" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="49">
+      <c r="B75" s="47">
         <v>1</v>
       </c>
       <c r="C75" s="10" t="s">
@@ -2834,7 +2785,7 @@
       <c r="A76" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B76" s="49">
+      <c r="B76" s="47">
         <v>1</v>
       </c>
       <c r="C76" s="10" t="s">
@@ -2848,7 +2799,7 @@
       <c r="A77" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="49">
+      <c r="B77" s="47">
         <v>1</v>
       </c>
       <c r="C77" s="10" t="s">
@@ -2865,7 +2816,7 @@
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="55" t="s">
+      <c r="A81" s="52" t="s">
         <v>66</v>
       </c>
       <c r="B81" s="53"/>
@@ -3257,13 +3208,13 @@
       </c>
     </row>
     <row r="93" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="50" t="s">
+      <c r="A93" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="B93" s="51"/>
-      <c r="C93" s="51"/>
-      <c r="D93" s="51"/>
-      <c r="E93" s="51"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="50"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
@@ -3385,15 +3336,15 @@
       <c r="D102" s="11"/>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="50" t="s">
+      <c r="A105" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B105" s="51"/>
-      <c r="C105" s="51"/>
-      <c r="D105" s="51"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="51"/>
-      <c r="G105" s="51"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="50"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="50"/>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
@@ -3480,19 +3431,19 @@
         <v>101</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="50" t="s">
+      <c r="A113" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="B113" s="51"/>
-      <c r="C113" s="51"/>
-      <c r="D113" s="51"/>
-      <c r="E113" s="51"/>
-      <c r="F113" s="51"/>
-      <c r="G113" s="51"/>
+      <c r="B113" s="50"/>
+      <c r="C113" s="50"/>
+      <c r="D113" s="50"/>
+      <c r="E113" s="50"/>
+      <c r="F113" s="50"/>
+      <c r="G113" s="50"/>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
@@ -3579,23 +3530,23 @@
         <v>101</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A105:G105"/>
+    <mergeCell ref="A64:D64"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A81:J81"/>
     <mergeCell ref="A93:E93"/>
     <mergeCell ref="A13:K13"/>
     <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A105:G105"/>
-    <mergeCell ref="A64:D64"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3607,7 +3558,7 @@
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
@@ -3651,7 +3602,7 @@
       <c r="A5" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <f>_xlfn.NORM.S.INV(B4)</f>
         <v>1.6448536269514715</v>
       </c>
@@ -3678,7 +3629,7 @@
       </c>
       <c r="B8" s="24">
         <f>Inputs!J11</f>
-        <v>7400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -3740,7 +3691,7 @@
       </c>
       <c r="C12" s="36">
         <f>B12*Inputs!$J$6</f>
-        <v>7400</v>
+        <v>0</v>
       </c>
       <c r="D12" s="36">
         <f>Inputs!B66</f>
@@ -3760,7 +3711,7 @@
       </c>
       <c r="H12" s="36">
         <f>B12*(C12/8)</f>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="I12" s="36">
         <f>IF($B$6="",0,$B$5*H12*$B$6)</f>
@@ -3768,7 +3719,7 @@
       </c>
       <c r="J12" s="36">
         <f>IF(LEFT(A12,5)="Parte",H12+I12,"")</f>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <f>Inputs!$B$95</f>
@@ -3780,11 +3731,11 @@
       </c>
       <c r="M12" s="36">
         <f>IF(AND(K12&gt;0,L12&gt;0),SQRT(2*H12*K12/L12),"")</f>
-        <v>3766.0766499546094</v>
+        <v>0</v>
       </c>
       <c r="N12" s="36">
         <f t="shared" ref="N12:N19" si="3">IF(M12="","",ROUNDUP(M12/D12,0))</f>
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -3797,7 +3748,7 @@
       </c>
       <c r="C13" s="36">
         <f>B13*Inputs!J15</f>
-        <v>1497.6000000000001</v>
+        <v>0</v>
       </c>
       <c r="D13" s="36">
         <f>Inputs!B67</f>
@@ -3817,7 +3768,7 @@
       </c>
       <c r="H13" s="36">
         <f t="shared" ref="H13:H19" si="4">B13*(C13/8)</f>
-        <v>37.440000000000005</v>
+        <v>0</v>
       </c>
       <c r="I13" s="36">
         <f t="shared" ref="I13:I19" si="5">IF($B$6="",0,$B$5*H13*$B$6)</f>
@@ -3825,7 +3776,7 @@
       </c>
       <c r="J13" s="36">
         <f>IF(LEFT(A13,5)="Parte",H13+I13,"")</f>
-        <v>37.440000000000005</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <f>Inputs!$B$96</f>
@@ -3837,11 +3788,11 @@
       </c>
       <c r="M13" s="36">
         <f>IF(AND(K13&gt;0,L13&gt;0),SQRT(2*H13*K13/L13),"")</f>
-        <v>315.97468253010402</v>
+        <v>0</v>
       </c>
       <c r="N13" s="36">
         <f>IF(M13="","",ROUNDUP(M13/D13,0))</f>
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -3854,7 +3805,7 @@
       </c>
       <c r="C14" s="36">
         <f>B14*Inputs!$J$15</f>
-        <v>74.88</v>
+        <v>0</v>
       </c>
       <c r="D14" s="36">
         <f>Inputs!B68</f>
@@ -3870,11 +3821,11 @@
       </c>
       <c r="G14" s="36">
         <f t="shared" si="2"/>
-        <v>74.88</v>
+        <v>0</v>
       </c>
       <c r="H14" s="36">
         <f t="shared" si="4"/>
-        <v>9.3600000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="36">
         <f t="shared" si="5"/>
@@ -3911,7 +3862,7 @@
       </c>
       <c r="C15" s="36">
         <f>B15*Inputs!$J$15</f>
-        <v>59904</v>
+        <v>0</v>
       </c>
       <c r="D15" s="36">
         <f>Inputs!B69</f>
@@ -3927,11 +3878,11 @@
       </c>
       <c r="G15" s="36">
         <f t="shared" si="2"/>
-        <v>59904</v>
+        <v>0</v>
       </c>
       <c r="H15" s="36">
         <f t="shared" si="4"/>
-        <v>59904</v>
+        <v>0</v>
       </c>
       <c r="I15" s="36">
         <f t="shared" si="5"/>
@@ -3968,7 +3919,7 @@
       </c>
       <c r="C16" s="36">
         <f>B16*Inputs!$J$24</f>
-        <v>2947.2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="36">
         <f>Inputs!B70</f>
@@ -3984,11 +3935,11 @@
       </c>
       <c r="G16" s="36">
         <f t="shared" si="2"/>
-        <v>2947.2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="36">
         <f t="shared" si="4"/>
-        <v>110.52</v>
+        <v>0</v>
       </c>
       <c r="I16" s="36">
         <f t="shared" si="5"/>
@@ -4025,7 +3976,7 @@
       </c>
       <c r="C17" s="36">
         <f>B17*Inputs!$J$24</f>
-        <v>5894.4</v>
+        <v>0</v>
       </c>
       <c r="D17" s="36">
         <f>Inputs!B71</f>
@@ -4041,11 +3992,11 @@
       </c>
       <c r="G17" s="36">
         <f t="shared" si="2"/>
-        <v>5894.4</v>
+        <v>0</v>
       </c>
       <c r="H17" s="36">
         <f t="shared" si="4"/>
-        <v>442.08</v>
+        <v>0</v>
       </c>
       <c r="I17" s="36">
         <f t="shared" si="5"/>
@@ -4082,7 +4033,7 @@
       </c>
       <c r="C18" s="36">
         <f>B18*Inputs!$J$24</f>
-        <v>19648</v>
+        <v>0</v>
       </c>
       <c r="D18" s="36">
         <f>Inputs!B72</f>
@@ -4098,11 +4049,11 @@
       </c>
       <c r="G18" s="36">
         <f t="shared" si="2"/>
-        <v>19648</v>
+        <v>0</v>
       </c>
       <c r="H18" s="36">
         <f t="shared" si="4"/>
-        <v>4912</v>
+        <v>0</v>
       </c>
       <c r="I18" s="36">
         <f t="shared" si="5"/>
@@ -4139,7 +4090,7 @@
       </c>
       <c r="C19" s="36">
         <f>B19*Inputs!$J$24</f>
-        <v>7368</v>
+        <v>0</v>
       </c>
       <c r="D19" s="36">
         <f>Inputs!B73</f>
@@ -4155,11 +4106,11 @@
       </c>
       <c r="G19" s="36">
         <f t="shared" si="2"/>
-        <v>7368</v>
+        <v>0</v>
       </c>
       <c r="H19" s="36">
         <f t="shared" si="4"/>
-        <v>690.75</v>
+        <v>0</v>
       </c>
       <c r="I19" s="36">
         <f t="shared" si="5"/>
@@ -6212,7 +6163,7 @@
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6225,52 +6176,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -6337,39 +6288,39 @@
       </c>
       <c r="C6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>9.36</v>
+        <v>0</v>
       </c>
       <c r="D6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>9.36</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>9.36</v>
+        <v>0</v>
       </c>
       <c r="F6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>9.36</v>
+        <v>0</v>
       </c>
       <c r="G6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>9.36</v>
+        <v>0</v>
       </c>
       <c r="H6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>9.36</v>
+        <v>0</v>
       </c>
       <c r="I6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>9.36</v>
+        <v>0</v>
       </c>
       <c r="J6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>9.36</v>
+        <v>0</v>
       </c>
       <c r="K6" s="19">
         <f>Inputs!J6*B6</f>
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="L6" s="39">
         <f>Politica_Inventarios!F14</f>
@@ -6381,15 +6332,15 @@
       </c>
       <c r="N6" s="24">
         <f>K6+L6-M6</f>
-        <v>49</v>
+        <v>-25</v>
       </c>
       <c r="O6" s="39">
         <f>IF(ROUNDUP(N6/Inputs!$B$68,0)&lt;0,0,ROUNDUP(N6/Inputs!$B$68,0))*1.1+0</f>
-        <v>53.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="P6" s="28">
         <f>O6*Inputs!$B$85</f>
-        <v>3234.0000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6402,39 +6353,39 @@
       </c>
       <c r="C7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>9824</v>
+        <v>0</v>
       </c>
       <c r="D7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>9824</v>
+        <v>0</v>
       </c>
       <c r="E7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>9824</v>
+        <v>0</v>
       </c>
       <c r="F7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>9824</v>
+        <v>0</v>
       </c>
       <c r="G7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>9824</v>
+        <v>0</v>
       </c>
       <c r="H7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>9824</v>
+        <v>0</v>
       </c>
       <c r="I7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>9824</v>
+        <v>0</v>
       </c>
       <c r="J7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>9824</v>
+        <v>0</v>
       </c>
       <c r="K7" s="19">
         <f>SUM(C7:J7)</f>
-        <v>78592</v>
+        <v>0</v>
       </c>
       <c r="L7" s="39">
         <f>Politica_Inventarios!F15</f>
@@ -6446,15 +6397,15 @@
       </c>
       <c r="N7" s="24">
         <f>K7+L7-M7</f>
-        <v>77768</v>
+        <v>-824</v>
       </c>
       <c r="O7" s="39">
         <f>IF(ROUNDUP(N7/Inputs!$B$69,0)&lt;0,0,ROUNDUP(N7/Inputs!$B$69,0))</f>
-        <v>778</v>
+        <v>0</v>
       </c>
       <c r="P7" s="28">
         <f>O7*Inputs!$B$86</f>
-        <v>5446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6467,39 +6418,39 @@
       </c>
       <c r="C8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>368.4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>368.4</v>
+        <v>0</v>
       </c>
       <c r="E8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>368.4</v>
+        <v>0</v>
       </c>
       <c r="F8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>368.4</v>
+        <v>0</v>
       </c>
       <c r="G8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>368.4</v>
+        <v>0</v>
       </c>
       <c r="H8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>368.4</v>
+        <v>0</v>
       </c>
       <c r="I8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>368.4</v>
+        <v>0</v>
       </c>
       <c r="J8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>368.4</v>
+        <v>0</v>
       </c>
       <c r="K8" s="19">
         <f>Inputs!$J$24*B8</f>
-        <v>2947.2</v>
+        <v>0</v>
       </c>
       <c r="L8" s="39">
         <f>Politica_Inventarios!F16</f>
@@ -6511,15 +6462,15 @@
       </c>
       <c r="N8" s="24">
         <f t="shared" ref="N8:N11" si="0">K8+L8-M8</f>
-        <v>2534.1999999999998</v>
+        <v>-413</v>
       </c>
       <c r="O8" s="39">
         <f>IF(ROUNDUP(N8/Inputs!$B$70,0)&lt;0,0,ROUNDUP(N8/Inputs!$B$70,0))</f>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="P8" s="28">
         <f>O8*Inputs!$B$87</f>
-        <v>3060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6532,39 +6483,39 @@
       </c>
       <c r="C9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>736.8</v>
+        <v>0</v>
       </c>
       <c r="D9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>736.8</v>
+        <v>0</v>
       </c>
       <c r="E9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>736.8</v>
+        <v>0</v>
       </c>
       <c r="F9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>736.8</v>
+        <v>0</v>
       </c>
       <c r="G9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>736.8</v>
+        <v>0</v>
       </c>
       <c r="H9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>736.8</v>
+        <v>0</v>
       </c>
       <c r="I9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>736.8</v>
+        <v>0</v>
       </c>
       <c r="J9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>736.8</v>
+        <v>0</v>
       </c>
       <c r="K9" s="19">
         <f>Inputs!$J$24*B9</f>
-        <v>5894.4</v>
+        <v>0</v>
       </c>
       <c r="L9" s="39">
         <f>Politica_Inventarios!F17</f>
@@ -6576,15 +6527,15 @@
       </c>
       <c r="N9" s="24">
         <f t="shared" si="0"/>
-        <v>5187.3999999999996</v>
+        <v>-707</v>
       </c>
       <c r="O9" s="39">
         <f>IF(ROUNDUP(N9/Inputs!$B$71,0)&lt;0,0,ROUNDUP(N9/Inputs!$B$71,0))</f>
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="P9" s="28">
         <f>O9*Inputs!$B$88</f>
-        <v>2088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6597,39 +6548,39 @@
       </c>
       <c r="C10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>2456</v>
+        <v>0</v>
       </c>
       <c r="D10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>2456</v>
+        <v>0</v>
       </c>
       <c r="E10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>2456</v>
+        <v>0</v>
       </c>
       <c r="F10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>2456</v>
+        <v>0</v>
       </c>
       <c r="G10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>2456</v>
+        <v>0</v>
       </c>
       <c r="H10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>2456</v>
+        <v>0</v>
       </c>
       <c r="I10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>2456</v>
+        <v>0</v>
       </c>
       <c r="J10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>2456</v>
+        <v>0</v>
       </c>
       <c r="K10" s="19">
         <f>Inputs!$J$24*B10</f>
-        <v>19648</v>
+        <v>0</v>
       </c>
       <c r="L10" s="39">
         <f>Politica_Inventarios!F18</f>
@@ -6641,15 +6592,15 @@
       </c>
       <c r="N10" s="24">
         <f t="shared" si="0"/>
-        <v>19392</v>
+        <v>-256</v>
       </c>
       <c r="O10" s="39">
         <f>IF(ROUNDUP(N10/Inputs!$B$72,0)&lt;0,0,ROUNDUP(N10/Inputs!$B$72,0))</f>
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="P10" s="28">
         <f>O10*Inputs!$B$89</f>
-        <v>5820</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6662,39 +6613,39 @@
       </c>
       <c r="C11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>921</v>
+        <v>0</v>
       </c>
       <c r="D11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>921</v>
+        <v>0</v>
       </c>
       <c r="E11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>921</v>
+        <v>0</v>
       </c>
       <c r="F11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>921</v>
+        <v>0</v>
       </c>
       <c r="G11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>921</v>
+        <v>0</v>
       </c>
       <c r="H11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>921</v>
+        <v>0</v>
       </c>
       <c r="I11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>921</v>
+        <v>0</v>
       </c>
       <c r="J11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>921</v>
+        <v>0</v>
       </c>
       <c r="K11" s="19">
         <f>Inputs!$J$24*B11</f>
-        <v>7368</v>
+        <v>0</v>
       </c>
       <c r="L11" s="39">
         <f>Politica_Inventarios!F19</f>
@@ -6706,15 +6657,15 @@
       </c>
       <c r="N11" s="24">
         <f t="shared" si="0"/>
-        <v>7159</v>
+        <v>-209</v>
       </c>
       <c r="O11" s="39">
         <f>IF(ROUNDUP(N11/Inputs!$B$73,0)&lt;0,0,ROUNDUP(N11/Inputs!$B$73,0))</f>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="P11" s="28">
         <f>O11*Inputs!$B$90</f>
-        <v>1344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -6724,44 +6675,44 @@
       <c r="B12" s="2"/>
       <c r="C12" s="20">
         <f>Inputs!B6</f>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="D12" s="20">
         <f>Inputs!C6</f>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="E12" s="20">
         <f>Inputs!D6</f>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="F12" s="20">
         <f>Inputs!E6</f>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="G12" s="20">
         <f>Inputs!F6</f>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="H12" s="20">
         <f>Inputs!G6</f>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="I12" s="20">
         <f>Inputs!H6</f>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="J12" s="20">
         <f>Inputs!I6</f>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="K12" s="20">
         <f>Inputs!J6</f>
-        <v>7400</v>
+        <v>0</v>
       </c>
       <c r="N12" s="24"/>
       <c r="P12" s="28">
         <f>SUM(P6:P11)</f>
-        <v>20992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6871,7 +6822,7 @@
         <f>Inputs!C34</f>
         <v>18</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="46">
         <f>K16+L16-M16</f>
         <v>-18</v>
       </c>
@@ -8709,7 +8660,7 @@
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P54" s="28">
         <f>SUM(P12,P22,P32,P42)</f>
-        <v>20992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -8730,8 +8681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="G3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8756,23 +8707,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8798,17 +8749,17 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
       <c r="J4" s="40" t="s">
         <v>145</v>
       </c>
@@ -8821,17 +8772,17 @@
       <c r="M4" t="s">
         <v>152</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
       <c r="X4" s="40" t="s">
         <v>145</v>
       </c>
@@ -8846,7 +8797,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="52" t="s">
         <v>133</v>
       </c>
       <c r="B5" s="53"/>
@@ -8857,7 +8808,7 @@
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
-      <c r="O5" s="55" t="s">
+      <c r="O5" s="52" t="s">
         <v>133</v>
       </c>
       <c r="P5" s="53"/>
@@ -8935,39 +8886,39 @@
       </c>
       <c r="C7" s="16">
         <f t="shared" ref="C7:I7" si="0">B10</f>
-        <v>4503</v>
+        <v>1648</v>
       </c>
       <c r="D7" s="16">
         <f t="shared" si="0"/>
-        <v>3578</v>
+        <v>1648</v>
       </c>
       <c r="E7" s="16">
         <f t="shared" si="0"/>
-        <v>2653</v>
+        <v>1648</v>
       </c>
       <c r="F7" s="16">
         <f t="shared" si="0"/>
-        <v>1728</v>
+        <v>1648</v>
       </c>
       <c r="G7" s="16">
         <f t="shared" si="0"/>
-        <v>4583</v>
+        <v>1648</v>
       </c>
       <c r="H7" s="16">
         <f t="shared" si="0"/>
-        <v>3658</v>
+        <v>1648</v>
       </c>
       <c r="I7" s="16">
         <f t="shared" si="0"/>
-        <v>2733</v>
+        <v>1648</v>
       </c>
       <c r="J7" s="39">
         <f>Politica_Inventarios!N12</f>
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="K7" s="39">
         <f>Politica_Inventarios!J12</f>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="L7" s="39">
         <f>Inputs!B66</f>
@@ -8982,39 +8933,39 @@
       </c>
       <c r="Q7" s="16">
         <f t="shared" ref="Q7:W7" si="1">P10</f>
-        <v>397.79999999999995</v>
+        <v>261</v>
       </c>
       <c r="R7" s="16">
         <f t="shared" si="1"/>
-        <v>210.59999999999994</v>
+        <v>261</v>
       </c>
       <c r="S7" s="16">
         <f t="shared" si="1"/>
-        <v>23.39999999999992</v>
+        <v>261</v>
       </c>
       <c r="T7" s="16">
         <f t="shared" si="1"/>
-        <v>160.1999999999999</v>
+        <v>261</v>
       </c>
       <c r="U7" s="16">
         <f t="shared" si="1"/>
-        <v>296.99999999999989</v>
+        <v>261</v>
       </c>
       <c r="V7" s="16">
         <f t="shared" si="1"/>
-        <v>433.79999999999984</v>
+        <v>261</v>
       </c>
       <c r="W7" s="16">
         <f t="shared" si="1"/>
-        <v>246.59999999999982</v>
+        <v>261</v>
       </c>
       <c r="X7" s="39">
         <f>Politica_Inventarios!N13</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="39">
         <f>Politica_Inventarios!J13</f>
-        <v>37.440000000000005</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="24">
         <f>Inputs!B67</f>
@@ -9026,7 +8977,7 @@
         <v>136</v>
       </c>
       <c r="B8" s="6">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -9038,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="6">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -9047,17 +8998,17 @@
         <v>0</v>
       </c>
       <c r="I8" s="6">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="M8" s="28">
         <f>SUM(B8:I8)*VLOOKUP(Inputs!B110,Inputs!A107:B109,2,FALSE)</f>
-        <v>31500</v>
+        <v>15000</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>136</v>
       </c>
       <c r="P8" s="6">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="6">
         <v>0</v>
@@ -9066,23 +9017,23 @@
         <v>0</v>
       </c>
       <c r="S8" s="6">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="T8" s="6">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="U8" s="6">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="V8" s="6">
         <v>0</v>
       </c>
       <c r="W8" s="6">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AA8" s="1">
         <f>SUM(P8:W8)*VLOOKUP(Inputs!B118,Inputs!A114:B117,2,FALSE)</f>
-        <v>35640</v>
+        <v>21120</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9091,70 +9042,70 @@
       </c>
       <c r="B9" s="21">
         <f>Inputs!B6*Inputs!$B$48</f>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="C9" s="21">
         <f>Inputs!C6*Inputs!$B$48</f>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="D9" s="21">
         <f>Inputs!D6*Inputs!$B$48</f>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="E9" s="21">
         <f>Inputs!E6*Inputs!$B$48</f>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="F9" s="21">
         <f>Inputs!F6*Inputs!$B$48</f>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="G9" s="21">
         <f>Inputs!G6*Inputs!$B$48</f>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="H9" s="21">
         <f>Inputs!H6*Inputs!$B$48</f>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="I9" s="21">
         <f>Inputs!I6*Inputs!$B$48</f>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>137</v>
       </c>
       <c r="P9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>187.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>187.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="R9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>187.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="S9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>187.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="T9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>187.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="U9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>187.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="V9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>187.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="W9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>187.20000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9163,95 +9114,95 @@
       </c>
       <c r="B10" s="19">
         <f>B7+(B8*$L$7)-B9</f>
-        <v>4503</v>
+        <v>1648</v>
       </c>
       <c r="C10" s="19">
         <f t="shared" ref="C10:I10" si="2">C7+(C8*$L$7)-C9</f>
-        <v>3578</v>
+        <v>1648</v>
       </c>
       <c r="D10" s="19">
         <f t="shared" si="2"/>
-        <v>2653</v>
+        <v>1648</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" si="2"/>
-        <v>1728</v>
+        <v>1648</v>
       </c>
       <c r="F10" s="19">
         <f t="shared" si="2"/>
-        <v>4583</v>
+        <v>1648</v>
       </c>
       <c r="G10" s="19">
         <f t="shared" si="2"/>
-        <v>3658</v>
+        <v>1648</v>
       </c>
       <c r="H10" s="19">
         <f t="shared" si="2"/>
-        <v>2733</v>
+        <v>1648</v>
       </c>
       <c r="I10" s="19">
         <f t="shared" si="2"/>
-        <v>1808</v>
+        <v>6148</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>138</v>
       </c>
       <c r="P10" s="19">
         <f>P7+(P8*$Z$7)-P9</f>
-        <v>397.79999999999995</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="19">
         <f t="shared" ref="Q10:W10" si="3">Q7+(Q8*$Z$7)-Q9</f>
-        <v>210.59999999999994</v>
+        <v>261</v>
       </c>
       <c r="R10" s="19">
         <f t="shared" si="3"/>
-        <v>23.39999999999992</v>
+        <v>261</v>
       </c>
       <c r="S10" s="19">
         <f>S7+(S8*$Z$7)-S9</f>
-        <v>160.1999999999999</v>
+        <v>261</v>
       </c>
       <c r="T10" s="19">
         <f t="shared" si="3"/>
-        <v>296.99999999999989</v>
+        <v>261</v>
       </c>
       <c r="U10" s="19">
         <f t="shared" si="3"/>
-        <v>433.79999999999984</v>
+        <v>261</v>
       </c>
       <c r="V10" s="19">
         <f t="shared" si="3"/>
-        <v>246.59999999999982</v>
+        <v>261</v>
       </c>
       <c r="W10" s="19">
         <f t="shared" si="3"/>
-        <v>59.399999999999807</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="O11" s="59" t="s">
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="O11" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="60"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -9429,11 +9380,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="6">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="M14" s="28">
         <f>SUM(B14:I14)*VLOOKUP(Inputs!B110,Inputs!A107:B109,2,FALSE)</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="O14" s="9" t="s">
         <v>136</v>
@@ -9460,11 +9411,11 @@
         <v>0</v>
       </c>
       <c r="W14" s="6">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AA14" s="1">
         <f>SUM(P14:W14)*VLOOKUP(Inputs!B118,Inputs!A114:B117,2,FALSE)</f>
-        <v>0</v>
+        <v>21120</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9573,7 +9524,7 @@
       </c>
       <c r="I16" s="19">
         <f t="shared" si="6"/>
-        <v>1696</v>
+        <v>6196</v>
       </c>
       <c r="O16" s="5" t="s">
         <v>138</v>
@@ -9608,32 +9559,32 @@
       </c>
       <c r="W16" s="19">
         <f t="shared" si="7"/>
-        <v>429</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="O17" s="59" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="O17" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -9964,28 +9915,28 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="O23" s="59" t="s">
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="O23" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60"/>
-      <c r="W23" s="60"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -10338,28 +10289,28 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="O29" s="59" t="s">
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="O29" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
     </row>
     <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -10695,7 +10646,7 @@
       </c>
       <c r="M35" s="28">
         <f>SUM(M14,M8)</f>
-        <v>31500</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
@@ -10712,74 +10663,74 @@
       </c>
       <c r="B37" s="28">
         <f>SUM(B10+B16+B22+B28+B34)*Inputs!$C$95</f>
-        <v>1859.6999999999998</v>
+        <v>1003.1999999999999</v>
       </c>
       <c r="C37" s="28">
         <f>SUM(C10+C16+C22+C28+C34)*Inputs!$C$95</f>
-        <v>1582.2</v>
+        <v>1003.1999999999999</v>
       </c>
       <c r="D37" s="28">
         <f>SUM(D10+D16+D22+D28+D34)*Inputs!$C$95</f>
-        <v>1304.7</v>
+        <v>1003.1999999999999</v>
       </c>
       <c r="E37" s="28">
         <f>SUM(E10+E16+E22+E28+E34)*Inputs!$C$95</f>
-        <v>1027.2</v>
+        <v>1003.1999999999999</v>
       </c>
       <c r="F37" s="28">
         <f>SUM(F10+F16+F22+F28+F34)*Inputs!$C$95</f>
-        <v>1883.6999999999998</v>
+        <v>1003.1999999999999</v>
       </c>
       <c r="G37" s="28">
         <f>SUM(G10+G16+G22+G28+G34)*Inputs!$C$95</f>
-        <v>1606.2</v>
+        <v>1003.1999999999999</v>
       </c>
       <c r="H37" s="28">
         <f>SUM(H10+H16+H22+H28+H34)*Inputs!$C$95</f>
-        <v>1328.7</v>
+        <v>1003.1999999999999</v>
       </c>
       <c r="I37" s="28">
         <f>SUM(I10+I16+I22+I28+I34)*Inputs!$C$95</f>
-        <v>1051.2</v>
+        <v>3703.2</v>
       </c>
       <c r="J37" s="28">
         <f>SUM(B37:I37)</f>
-        <v>11643.6</v>
+        <v>10725.599999999999</v>
       </c>
       <c r="O37" t="s">
         <v>149</v>
       </c>
       <c r="P37" s="28">
         <f>SUM(P10+P16+P22+P28+P34)*Inputs!$C$95</f>
-        <v>248.03999999999996</v>
+        <v>207</v>
       </c>
       <c r="Q37" s="28">
         <f>SUM(Q10+Q16+Q22+Q28+Q34)*Inputs!$C$95</f>
-        <v>191.87999999999997</v>
+        <v>207</v>
       </c>
       <c r="R37" s="28">
         <f>SUM(R10+R16+R22+R28+R34)*Inputs!$C$95</f>
-        <v>135.71999999999997</v>
+        <v>207</v>
       </c>
       <c r="S37" s="28">
         <f>SUM(S10+S16+S22+S28+S34)*Inputs!$C$95</f>
-        <v>176.75999999999996</v>
+        <v>207</v>
       </c>
       <c r="T37" s="28">
         <f>SUM(T10+T16+T22+T28+T34)*Inputs!$C$95</f>
-        <v>217.79999999999995</v>
+        <v>207</v>
       </c>
       <c r="U37" s="28">
         <f>SUM(U10+U16+U22+U28+U34)*Inputs!$C$95</f>
-        <v>258.83999999999992</v>
+        <v>207</v>
       </c>
       <c r="V37" s="28">
         <f>SUM(V10+V16+V22+V28+V34)*Inputs!$C$95</f>
-        <v>202.67999999999992</v>
+        <v>207</v>
       </c>
       <c r="W37" s="28">
         <f>SUM(W10+W16+W22+W28+W34)*Inputs!$C$95</f>
-        <v>146.51999999999992</v>
+        <v>783</v>
       </c>
       <c r="X37" s="28"/>
       <c r="Z37" s="28"/>
@@ -10790,7 +10741,7 @@
       </c>
       <c r="B38" s="28">
         <f>B39*Inputs!$B$95</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="C38" s="28">
         <f>C39*Inputs!$B$95</f>
@@ -10806,7 +10757,7 @@
       </c>
       <c r="F38" s="28">
         <f>F39*Inputs!$B$95</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G38" s="28">
         <f>G39*Inputs!$B$95</f>
@@ -10818,7 +10769,7 @@
       </c>
       <c r="I38" s="28">
         <f>I39*Inputs!$B$95</f>
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="J38" s="28">
         <f>SUM(B38:I38)</f>
@@ -10829,7 +10780,7 @@
       </c>
       <c r="P38" s="28">
         <f>P39*Inputs!$B$96</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="28">
         <f>Q39*Inputs!$B$96</f>
@@ -10841,15 +10792,15 @@
       </c>
       <c r="S38" s="28">
         <f>S39*Inputs!$B$96</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="T38" s="28">
         <f>T39*Inputs!$B$96</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="U38" s="28">
         <f>U39*Inputs!$B$96</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="V38" s="28">
         <f>V39*Inputs!$B$96</f>
@@ -10857,7 +10808,7 @@
       </c>
       <c r="W38" s="28">
         <f>W39*Inputs!$B$96</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="X38" s="28"/>
       <c r="Z38" s="28"/>
@@ -10868,7 +10819,7 @@
       </c>
       <c r="B39">
         <f>+COUNTIF(B42:B46,"&gt;0")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <f t="shared" ref="C39:I39" si="20">+COUNTIF(C42:C46,"&gt;0")</f>
@@ -10884,7 +10835,7 @@
       </c>
       <c r="F39">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <f t="shared" si="20"/>
@@ -10896,14 +10847,14 @@
       </c>
       <c r="I39">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O39" t="s">
         <v>151</v>
       </c>
       <c r="P39">
         <f>+COUNTIF(P42:P46,"&gt;0")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
         <f t="shared" ref="Q39:W39" si="21">+COUNTIF(Q42:Q46,"&gt;0")</f>
@@ -10915,15 +10866,15 @@
       </c>
       <c r="S39">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39">
         <f t="shared" si="21"/>
@@ -10931,13 +10882,13 @@
       </c>
       <c r="W39">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="J40" s="28">
         <f>+SUM(J37:J38)</f>
-        <v>16243.6</v>
+        <v>15325.599999999999</v>
       </c>
       <c r="X40" s="28"/>
     </row>
@@ -10952,7 +10903,7 @@
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B42" s="24">
         <f>B8</f>
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="C42" s="24">
         <f t="shared" ref="C42:I42" si="22">C8</f>
@@ -10968,7 +10919,7 @@
       </c>
       <c r="F42" s="24">
         <f t="shared" si="22"/>
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="G42" s="24">
         <f t="shared" si="22"/>
@@ -10980,11 +10931,11 @@
       </c>
       <c r="I42" s="24">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="P42" s="24">
         <f>P8</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="24">
         <f t="shared" ref="Q42:W42" si="23">Q8</f>
@@ -10996,15 +10947,15 @@
       </c>
       <c r="S42" s="24">
         <f t="shared" si="23"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="T42" s="24">
         <f t="shared" si="23"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="U42" s="24">
         <f t="shared" si="23"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="V42" s="24">
         <f t="shared" si="23"/>
@@ -11012,7 +10963,7 @@
       </c>
       <c r="W42" s="24">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
@@ -11046,11 +10997,11 @@
       </c>
       <c r="I43" s="24">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K43">
         <f>+VLOOKUP(Inputs!B110,Inputs!A107:B109,2,FALSE)</f>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="P43" s="24">
         <f>P14</f>
@@ -11082,7 +11033,7 @@
       </c>
       <c r="W43" s="24">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
@@ -11286,7 +11237,7 @@
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B48">
         <f>SUM(B42:B46)*$K$43</f>
-        <v>15750</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <f t="shared" ref="C48:I48" si="32">SUM(C42:C46)*$K$43</f>
@@ -11302,7 +11253,7 @@
       </c>
       <c r="F48">
         <f t="shared" si="32"/>
-        <v>15750</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <f t="shared" si="32"/>
@@ -11314,7 +11265,7 @@
       </c>
       <c r="I48">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
   </sheetData>
@@ -11393,7 +11344,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J20"/>
+      <selection activeCell="J4" sqref="J4:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11405,18 +11356,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
@@ -11472,7 +11423,7 @@
       </c>
       <c r="C4" s="28">
         <f>Inventario_Dinamico!B38</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="D4" s="28">
         <f>Inventario_Dinamico!C38</f>
@@ -11488,7 +11439,7 @@
       </c>
       <c r="G4" s="28">
         <f>Inventario_Dinamico!F38</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="H4" s="28">
         <f>Inventario_Dinamico!G38</f>
@@ -11500,7 +11451,7 @@
       </c>
       <c r="J4" s="28">
         <f>Inventario_Dinamico!I38</f>
-        <v>0</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -11509,7 +11460,7 @@
       </c>
       <c r="C5" s="43">
         <f>Inventario_Dinamico!P38</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="D5" s="43">
         <f>Inventario_Dinamico!Q38</f>
@@ -11521,15 +11472,15 @@
       </c>
       <c r="F5" s="43">
         <f>Inventario_Dinamico!S38</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="43">
         <f>Inventario_Dinamico!T38</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="H5" s="43">
         <f>Inventario_Dinamico!U38</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="43">
         <f>Inventario_Dinamico!V38</f>
@@ -11537,42 +11488,42 @@
       </c>
       <c r="J5" s="43">
         <f>Inventario_Dinamico!W38</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="42"/>
       <c r="C6" s="28">
-        <f>SUM(C4:C5)</f>
-        <v>8300</v>
+        <f t="shared" ref="C6:J6" si="0">SUM(C4:C5)</f>
+        <v>0</v>
       </c>
       <c r="D6" s="28">
-        <f>SUM(D4:D5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="28">
-        <f>SUM(E4:E5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" s="28">
-        <f>SUM(F4:F5)</f>
-        <v>6000</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G6" s="28">
-        <f>SUM(G4:G5)</f>
-        <v>8300</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H6" s="28">
-        <f>SUM(H4:H5)</f>
-        <v>6000</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I6" s="28">
-        <f>SUM(I4:I5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6" s="28">
-        <f>SUM(J4:J5)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>16600</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -11593,39 +11544,39 @@
       </c>
       <c r="C8" s="28">
         <f>Inventario_Dinamico!B37</f>
-        <v>1859.6999999999998</v>
+        <v>1003.1999999999999</v>
       </c>
       <c r="D8" s="28">
         <f>Inventario_Dinamico!C37</f>
-        <v>1582.2</v>
+        <v>1003.1999999999999</v>
       </c>
       <c r="E8" s="28">
         <f>Inventario_Dinamico!D37</f>
-        <v>1304.7</v>
+        <v>1003.1999999999999</v>
       </c>
       <c r="F8" s="28">
         <f>Inventario_Dinamico!E37</f>
-        <v>1027.2</v>
+        <v>1003.1999999999999</v>
       </c>
       <c r="G8" s="28">
         <f>Inventario_Dinamico!F37</f>
-        <v>1883.6999999999998</v>
+        <v>1003.1999999999999</v>
       </c>
       <c r="H8" s="28">
         <f>Inventario_Dinamico!G37</f>
-        <v>1606.2</v>
+        <v>1003.1999999999999</v>
       </c>
       <c r="I8" s="28">
         <f>Inventario_Dinamico!H37</f>
-        <v>1328.7</v>
+        <v>1003.1999999999999</v>
       </c>
       <c r="J8" s="28">
         <f>Inventario_Dinamico!I37</f>
-        <v>1051.2</v>
+        <v>3703.2</v>
       </c>
       <c r="K8" t="str">
         <f>+VLOOKUP(Inputs!B110,Inputs!A107:C109,3,FALSE)</f>
-        <v>Inmediato (0Q)</v>
+        <v>+2 Quincenas</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -11634,73 +11585,73 @@
       </c>
       <c r="C9" s="43">
         <f>Inventario_Dinamico!P37</f>
-        <v>248.03999999999996</v>
+        <v>207</v>
       </c>
       <c r="D9" s="43">
         <f>Inventario_Dinamico!Q37</f>
-        <v>191.87999999999997</v>
+        <v>207</v>
       </c>
       <c r="E9" s="43">
         <f>Inventario_Dinamico!R37</f>
-        <v>135.71999999999997</v>
+        <v>207</v>
       </c>
       <c r="F9" s="43">
         <f>Inventario_Dinamico!S37</f>
-        <v>176.75999999999996</v>
+        <v>207</v>
       </c>
       <c r="G9" s="43">
         <f>Inventario_Dinamico!T37</f>
-        <v>217.79999999999995</v>
+        <v>207</v>
       </c>
       <c r="H9" s="43">
         <f>Inventario_Dinamico!U37</f>
-        <v>258.83999999999992</v>
+        <v>207</v>
       </c>
       <c r="I9" s="43">
         <f>Inventario_Dinamico!V37</f>
-        <v>202.67999999999992</v>
+        <v>207</v>
       </c>
       <c r="J9" s="43">
         <f>Inventario_Dinamico!W37</f>
-        <v>146.51999999999992</v>
+        <v>783</v>
       </c>
       <c r="K9" t="str">
         <f>VLOOKUP(Inputs!B118,Inputs!A114:C117,3,FALSE)</f>
-        <v>Inmediato (0Q)</v>
+        <v>+2 Quincenas</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C10" s="28">
-        <f>+SUM(C8:C9)</f>
-        <v>2107.7399999999998</v>
+        <f t="shared" ref="C10:J10" si="1">+SUM(C8:C9)</f>
+        <v>1210.1999999999998</v>
       </c>
       <c r="D10" s="28">
-        <f>+SUM(D8:D9)</f>
-        <v>1774.08</v>
+        <f t="shared" si="1"/>
+        <v>1210.1999999999998</v>
       </c>
       <c r="E10" s="28">
-        <f>+SUM(E8:E9)</f>
-        <v>1440.42</v>
+        <f t="shared" si="1"/>
+        <v>1210.1999999999998</v>
       </c>
       <c r="F10" s="28">
-        <f>+SUM(F8:F9)</f>
-        <v>1203.96</v>
+        <f t="shared" si="1"/>
+        <v>1210.1999999999998</v>
       </c>
       <c r="G10" s="28">
-        <f>+SUM(G8:G9)</f>
-        <v>2101.5</v>
+        <f t="shared" si="1"/>
+        <v>1210.1999999999998</v>
       </c>
       <c r="H10" s="28">
-        <f>+SUM(H8:H9)</f>
-        <v>1865.04</v>
+        <f t="shared" si="1"/>
+        <v>1210.1999999999998</v>
       </c>
       <c r="I10" s="28">
-        <f>+SUM(I8:I9)</f>
-        <v>1531.3799999999999</v>
+        <f t="shared" si="1"/>
+        <v>1210.1999999999998</v>
       </c>
       <c r="J10" s="28">
-        <f>+SUM(J8:J9)</f>
-        <v>1197.72</v>
+        <f t="shared" si="1"/>
+        <v>4486.2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -11717,7 +11668,7 @@
       </c>
       <c r="C12" s="1">
         <f>(Inventario_Dinamico!B8+Inventario_Dinamico!B14+Inventario_Dinamico!B20+Inventario_Dinamico!B26+Inventario_Dinamico!B32)*$L$12</f>
-        <v>15750</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <f>(Inventario_Dinamico!C8+Inventario_Dinamico!C14+Inventario_Dinamico!C20+Inventario_Dinamico!C26+Inventario_Dinamico!C32)*$L$12</f>
@@ -11733,7 +11684,7 @@
       </c>
       <c r="G12" s="1">
         <f>(Inventario_Dinamico!F8+Inventario_Dinamico!F14+Inventario_Dinamico!F20+Inventario_Dinamico!F26+Inventario_Dinamico!F32)*$L$12</f>
-        <v>15750</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
         <f>(Inventario_Dinamico!G8+Inventario_Dinamico!G14+Inventario_Dinamico!G20+Inventario_Dinamico!G26+Inventario_Dinamico!G32)*$L$12</f>
@@ -11745,11 +11696,11 @@
       </c>
       <c r="J12" s="1">
         <f>(Inventario_Dinamico!I8+Inventario_Dinamico!I14+Inventario_Dinamico!I20+Inventario_Dinamico!I26+Inventario_Dinamico!I32)*$L$12</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L12">
         <f>+VLOOKUP(Inputs!B110,Inputs!A107:B109,2,FALSE)</f>
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -11758,7 +11709,7 @@
       </c>
       <c r="C13" s="1">
         <f>(Inventario_Dinamico!P8+Inventario_Dinamico!P14+Inventario_Dinamico!P20+Inventario_Dinamico!P26+Inventario_Dinamico!P32)*$L$13</f>
-        <v>8910</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <f>(Inventario_Dinamico!Q8+Inventario_Dinamico!Q14+Inventario_Dinamico!Q20+Inventario_Dinamico!Q26+Inventario_Dinamico!Q32)*$L$13</f>
@@ -11770,15 +11721,15 @@
       </c>
       <c r="F13" s="1">
         <f>(Inventario_Dinamico!S8+Inventario_Dinamico!S14+Inventario_Dinamico!S20+Inventario_Dinamico!S26+Inventario_Dinamico!S32)*$L$13</f>
-        <v>8910</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
         <f>(Inventario_Dinamico!T8+Inventario_Dinamico!T14+Inventario_Dinamico!T20+Inventario_Dinamico!T26+Inventario_Dinamico!T32)*$L$13</f>
-        <v>8910</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
         <f>(Inventario_Dinamico!U8+Inventario_Dinamico!U14+Inventario_Dinamico!U20+Inventario_Dinamico!U26+Inventario_Dinamico!U32)*$L$13</f>
-        <v>8910</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
         <f>(Inventario_Dinamico!V8+Inventario_Dinamico!V14+Inventario_Dinamico!V20+Inventario_Dinamico!V26+Inventario_Dinamico!V32)*$L$13</f>
@@ -11786,11 +11737,11 @@
       </c>
       <c r="J13" s="1">
         <f>(Inventario_Dinamico!W8+Inventario_Dinamico!W14+Inventario_Dinamico!W20+Inventario_Dinamico!W26+Inventario_Dinamico!W32)*$L$13</f>
-        <v>0</v>
+        <v>42240</v>
       </c>
       <c r="L13">
         <f>+VLOOKUP(Inputs!B118,Inputs!A114:B117,2,FALSE)</f>
-        <v>330</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -11799,7 +11750,7 @@
       </c>
       <c r="B14" s="28">
         <f>BOM_Consumo_Piezas!P6+BOM_Consumo_Piezas!P16+BOM_Consumo_Piezas!P26+BOM_Consumo_Piezas!P36+BOM_Consumo_Piezas!P46</f>
-        <v>3234.0000000000005</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -11816,7 +11767,7 @@
       </c>
       <c r="B15" s="28">
         <f>BOM_Consumo_Piezas!P7+BOM_Consumo_Piezas!P17+BOM_Consumo_Piezas!P27+BOM_Consumo_Piezas!P37+BOM_Consumo_Piezas!P47</f>
-        <v>5446</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -11833,7 +11784,7 @@
       </c>
       <c r="B16" s="28">
         <f>BOM_Consumo_Piezas!P8+BOM_Consumo_Piezas!P18+BOM_Consumo_Piezas!P28+BOM_Consumo_Piezas!P38+BOM_Consumo_Piezas!P48</f>
-        <v>3060</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -11850,7 +11801,7 @@
       </c>
       <c r="B17" s="28">
         <f>BOM_Consumo_Piezas!P9+BOM_Consumo_Piezas!P19+BOM_Consumo_Piezas!P29+BOM_Consumo_Piezas!P39+BOM_Consumo_Piezas!P49</f>
-        <v>2088</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -11867,7 +11818,7 @@
       </c>
       <c r="B18" s="28">
         <f>BOM_Consumo_Piezas!P10+BOM_Consumo_Piezas!P20+BOM_Consumo_Piezas!P30+BOM_Consumo_Piezas!P40+BOM_Consumo_Piezas!P50</f>
-        <v>5820</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -11884,53 +11835,53 @@
       </c>
       <c r="B19" s="43">
         <f>BOM_Consumo_Piezas!P11+BOM_Consumo_Piezas!P21+BOM_Consumo_Piezas!P31+BOM_Consumo_Piezas!P41+BOM_Consumo_Piezas!P51</f>
-        <v>1344</v>
-      </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <f>SUM(B12:B19)</f>
-        <v>20992</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" ref="C20:J20" si="0">SUM(C12:C19)</f>
-        <v>24660</v>
+        <f t="shared" ref="C20:J20" si="2">SUM(C12:C19)</f>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="0"/>
-        <v>8910</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>24660</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="0"/>
-        <v>8910</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>72240</v>
       </c>
     </row>
   </sheetData>
@@ -11954,18 +11905,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
@@ -12021,7 +11972,7 @@
       </c>
       <c r="C4" s="28">
         <f>Inventario_Dinamico!B38</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="D4" s="28">
         <f>Inventario_Dinamico!C38</f>
@@ -12037,7 +11988,7 @@
       </c>
       <c r="G4" s="28">
         <f>Inventario_Dinamico!F38</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="H4" s="28">
         <f>Inventario_Dinamico!G38</f>
@@ -12049,7 +12000,7 @@
       </c>
       <c r="J4" s="28">
         <f>Inventario_Dinamico!I38</f>
-        <v>0</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -12058,7 +12009,7 @@
       </c>
       <c r="C5" s="43">
         <f>Inventario_Dinamico!P38</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="D5" s="43">
         <f>Inventario_Dinamico!Q38</f>
@@ -12070,15 +12021,15 @@
       </c>
       <c r="F5" s="43">
         <f>Inventario_Dinamico!S38</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="43">
         <f>Inventario_Dinamico!T38</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="H5" s="43">
         <f>Inventario_Dinamico!U38</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="43">
         <f>Inventario_Dinamico!V38</f>
@@ -12086,42 +12037,42 @@
       </c>
       <c r="J5" s="43">
         <f>Inventario_Dinamico!W38</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="42"/>
       <c r="C6" s="28">
-        <f>SUM(C4:C5)</f>
-        <v>8300</v>
+        <f t="shared" ref="C6:J6" si="0">SUM(C4:C5)</f>
+        <v>0</v>
       </c>
       <c r="D6" s="28">
-        <f>SUM(D4:D5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="28">
-        <f>SUM(E4:E5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" s="28">
-        <f>SUM(F4:F5)</f>
-        <v>6000</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G6" s="28">
-        <f>SUM(G4:G5)</f>
-        <v>8300</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H6" s="28">
-        <f>SUM(H4:H5)</f>
-        <v>6000</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I6" s="28">
-        <f>SUM(I4:I5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6" s="28">
-        <f>SUM(J4:J5)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>16600</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -12142,39 +12093,39 @@
       </c>
       <c r="C8" s="28">
         <f>Inventario_Dinamico!B37</f>
-        <v>1859.6999999999998</v>
+        <v>1003.1999999999999</v>
       </c>
       <c r="D8" s="28">
         <f>Inventario_Dinamico!C37</f>
-        <v>1582.2</v>
+        <v>1003.1999999999999</v>
       </c>
       <c r="E8" s="28">
         <f>Inventario_Dinamico!D37</f>
-        <v>1304.7</v>
+        <v>1003.1999999999999</v>
       </c>
       <c r="F8" s="28">
         <f>Inventario_Dinamico!E37</f>
-        <v>1027.2</v>
+        <v>1003.1999999999999</v>
       </c>
       <c r="G8" s="28">
         <f>Inventario_Dinamico!F37</f>
-        <v>1883.6999999999998</v>
+        <v>1003.1999999999999</v>
       </c>
       <c r="H8" s="28">
         <f>Inventario_Dinamico!G37</f>
-        <v>1606.2</v>
+        <v>1003.1999999999999</v>
       </c>
       <c r="I8" s="28">
         <f>Inventario_Dinamico!H37</f>
-        <v>1328.7</v>
+        <v>1003.1999999999999</v>
       </c>
       <c r="J8" s="28">
         <f>Inventario_Dinamico!I37</f>
-        <v>1051.2</v>
+        <v>3703.2</v>
       </c>
       <c r="K8" t="str">
         <f>+VLOOKUP(Inputs!B110,Inputs!A107:C109,3,FALSE)</f>
-        <v>Inmediato (0Q)</v>
+        <v>+2 Quincenas</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -12183,73 +12134,73 @@
       </c>
       <c r="C9" s="43">
         <f>Inventario_Dinamico!P37</f>
-        <v>248.03999999999996</v>
+        <v>207</v>
       </c>
       <c r="D9" s="43">
         <f>Inventario_Dinamico!Q37</f>
-        <v>191.87999999999997</v>
+        <v>207</v>
       </c>
       <c r="E9" s="43">
         <f>Inventario_Dinamico!R37</f>
-        <v>135.71999999999997</v>
+        <v>207</v>
       </c>
       <c r="F9" s="43">
         <f>Inventario_Dinamico!S37</f>
-        <v>176.75999999999996</v>
+        <v>207</v>
       </c>
       <c r="G9" s="43">
         <f>Inventario_Dinamico!T37</f>
-        <v>217.79999999999995</v>
+        <v>207</v>
       </c>
       <c r="H9" s="43">
         <f>Inventario_Dinamico!U37</f>
-        <v>258.83999999999992</v>
+        <v>207</v>
       </c>
       <c r="I9" s="43">
         <f>Inventario_Dinamico!V37</f>
-        <v>202.67999999999992</v>
+        <v>207</v>
       </c>
       <c r="J9" s="43">
         <f>Inventario_Dinamico!W37</f>
-        <v>146.51999999999992</v>
+        <v>783</v>
       </c>
       <c r="K9" t="str">
         <f>VLOOKUP(Inputs!B118,Inputs!A114:C117,3,FALSE)</f>
-        <v>Inmediato (0Q)</v>
+        <v>+2 Quincenas</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="28">
-        <f>+SUM(C8:C9)</f>
-        <v>2107.7399999999998</v>
+        <f t="shared" ref="C10:J10" si="1">+SUM(C8:C9)</f>
+        <v>1210.1999999999998</v>
       </c>
       <c r="D10" s="28">
-        <f>+SUM(D8:D9)</f>
-        <v>1774.08</v>
+        <f t="shared" si="1"/>
+        <v>1210.1999999999998</v>
       </c>
       <c r="E10" s="28">
-        <f>+SUM(E8:E9)</f>
-        <v>1440.42</v>
+        <f t="shared" si="1"/>
+        <v>1210.1999999999998</v>
       </c>
       <c r="F10" s="28">
-        <f>+SUM(F8:F9)</f>
-        <v>1203.96</v>
+        <f t="shared" si="1"/>
+        <v>1210.1999999999998</v>
       </c>
       <c r="G10" s="28">
-        <f>+SUM(G8:G9)</f>
-        <v>2101.5</v>
+        <f t="shared" si="1"/>
+        <v>1210.1999999999998</v>
       </c>
       <c r="H10" s="28">
-        <f>+SUM(H8:H9)</f>
-        <v>1865.04</v>
+        <f t="shared" si="1"/>
+        <v>1210.1999999999998</v>
       </c>
       <c r="I10" s="28">
-        <f>+SUM(I8:I9)</f>
-        <v>1531.3799999999999</v>
+        <f t="shared" si="1"/>
+        <v>1210.1999999999998</v>
       </c>
       <c r="J10" s="28">
-        <f>+SUM(J8:J9)</f>
-        <v>1197.72</v>
+        <f t="shared" si="1"/>
+        <v>4486.2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -12263,7 +12214,7 @@
       </c>
       <c r="C12" s="1">
         <f>(Inventario_Dinamico!B8+Inventario_Dinamico!B14+Inventario_Dinamico!B20+Inventario_Dinamico!B26+Inventario_Dinamico!B32)*$L$12</f>
-        <v>15750</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <f>(Inventario_Dinamico!C8+Inventario_Dinamico!C14+Inventario_Dinamico!C20+Inventario_Dinamico!C26+Inventario_Dinamico!C32)*$L$12</f>
@@ -12279,7 +12230,7 @@
       </c>
       <c r="G12" s="1">
         <f>(Inventario_Dinamico!F8+Inventario_Dinamico!F14+Inventario_Dinamico!F20+Inventario_Dinamico!F26+Inventario_Dinamico!F32)*$L$12</f>
-        <v>15750</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
         <f>(Inventario_Dinamico!G8+Inventario_Dinamico!G14+Inventario_Dinamico!G20+Inventario_Dinamico!G26+Inventario_Dinamico!G32)*$L$12</f>
@@ -12291,11 +12242,11 @@
       </c>
       <c r="J12" s="1">
         <f>(Inventario_Dinamico!I8+Inventario_Dinamico!I14+Inventario_Dinamico!I20+Inventario_Dinamico!I26+Inventario_Dinamico!I32)*$L$12</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L12">
         <f>+VLOOKUP(Inputs!B110,Inputs!A107:B109,2,FALSE)</f>
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -12304,7 +12255,7 @@
       </c>
       <c r="C13" s="1">
         <f>(Inventario_Dinamico!P8+Inventario_Dinamico!P14+Inventario_Dinamico!P20+Inventario_Dinamico!P26+Inventario_Dinamico!P32)*$L$13</f>
-        <v>8910</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <f>(Inventario_Dinamico!Q8+Inventario_Dinamico!Q14+Inventario_Dinamico!Q20+Inventario_Dinamico!Q26+Inventario_Dinamico!Q32)*$L$13</f>
@@ -12316,15 +12267,15 @@
       </c>
       <c r="F13" s="1">
         <f>(Inventario_Dinamico!S8+Inventario_Dinamico!S14+Inventario_Dinamico!S20+Inventario_Dinamico!S26+Inventario_Dinamico!S32)*$L$13</f>
-        <v>8910</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
         <f>(Inventario_Dinamico!T8+Inventario_Dinamico!T14+Inventario_Dinamico!T20+Inventario_Dinamico!T26+Inventario_Dinamico!T32)*$L$13</f>
-        <v>8910</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
         <f>(Inventario_Dinamico!U8+Inventario_Dinamico!U14+Inventario_Dinamico!U20+Inventario_Dinamico!U26+Inventario_Dinamico!U32)*$L$13</f>
-        <v>8910</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
         <f>(Inventario_Dinamico!V8+Inventario_Dinamico!V14+Inventario_Dinamico!V20+Inventario_Dinamico!V26+Inventario_Dinamico!V32)*$L$13</f>
@@ -12332,11 +12283,11 @@
       </c>
       <c r="J13" s="1">
         <f>(Inventario_Dinamico!W8+Inventario_Dinamico!W14+Inventario_Dinamico!W20+Inventario_Dinamico!W26+Inventario_Dinamico!W32)*$L$13</f>
-        <v>0</v>
+        <v>42240</v>
       </c>
       <c r="L13">
         <f>+VLOOKUP(Inputs!B118,Inputs!A114:B117,2,FALSE)</f>
-        <v>330</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -12345,7 +12296,7 @@
       </c>
       <c r="B14" s="28">
         <f>BOM_Consumo_Piezas!P6+BOM_Consumo_Piezas!P16+BOM_Consumo_Piezas!P26+BOM_Consumo_Piezas!P36+BOM_Consumo_Piezas!P46</f>
-        <v>3234.0000000000005</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -12362,7 +12313,7 @@
       </c>
       <c r="B15" s="28">
         <f>BOM_Consumo_Piezas!P7+BOM_Consumo_Piezas!P17+BOM_Consumo_Piezas!P27+BOM_Consumo_Piezas!P37+BOM_Consumo_Piezas!P47</f>
-        <v>5446</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -12379,7 +12330,7 @@
       </c>
       <c r="B16" s="28">
         <f>BOM_Consumo_Piezas!P8+BOM_Consumo_Piezas!P18+BOM_Consumo_Piezas!P28+BOM_Consumo_Piezas!P38+BOM_Consumo_Piezas!P48</f>
-        <v>3060</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -12396,7 +12347,7 @@
       </c>
       <c r="B17" s="28">
         <f>BOM_Consumo_Piezas!P9+BOM_Consumo_Piezas!P19+BOM_Consumo_Piezas!P29+BOM_Consumo_Piezas!P39+BOM_Consumo_Piezas!P49</f>
-        <v>2088</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -12413,7 +12364,7 @@
       </c>
       <c r="B18" s="28">
         <f>BOM_Consumo_Piezas!P10+BOM_Consumo_Piezas!P20+BOM_Consumo_Piezas!P30+BOM_Consumo_Piezas!P40+BOM_Consumo_Piezas!P50</f>
-        <v>5820</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -12430,53 +12381,53 @@
       </c>
       <c r="B19" s="43">
         <f>BOM_Consumo_Piezas!P11+BOM_Consumo_Piezas!P21+BOM_Consumo_Piezas!P31+BOM_Consumo_Piezas!P41+BOM_Consumo_Piezas!P51</f>
-        <v>1344</v>
-      </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <f>SUM(B12:B19)</f>
-        <v>20992</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" ref="C20:J20" si="0">SUM(C12:C19)</f>
-        <v>24660</v>
+        <f t="shared" ref="C20:J20" si="2">SUM(C12:C19)</f>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="0"/>
-        <v>8910</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>24660</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="0"/>
-        <v>8910</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>72240</v>
       </c>
     </row>
   </sheetData>

--- a/Procurement/EXSIM_Mezquite_Purchasing_CORREGIDO_FIX_with_policies.xlsx
+++ b/Procurement/EXSIM_Mezquite_Purchasing_CORREGIDO_FIX_with_policies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0dc407a335d7300f/Documentos/GitHub/BusinessSim/Procurement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1487" documentId="6_{4F45DE64-BE33-4F18-9BCE-C4F36FED717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E53DD138-251E-4AF6-B521-3F4900C67BF2}"/>
+  <xr:revisionPtr revIDLastSave="1809" documentId="6_{4F45DE64-BE33-4F18-9BCE-C4F36FED717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7643515E-B572-4153-B2B3-0A9CBFFA41B0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="\$#,##0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,8 +662,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,8 +700,14 @@
         <fgColor rgb="FF1F4E79"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -772,6 +785,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -779,7 +822,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -881,15 +924,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -902,6 +945,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1247,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B24:I28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1260,8 +1309,8 @@
     <col min="13" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="50"/>
@@ -1275,8 +1324,8 @@
       <c r="J1" s="50"/>
       <c r="K1" s="50"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="50"/>
@@ -1290,8 +1339,8 @@
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="50"/>
@@ -1305,7 +1354,7 @@
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1337,73 +1386,73 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
+      <c r="B6" s="63">
+        <v>1920</v>
+      </c>
+      <c r="C6" s="64">
+        <v>1920</v>
+      </c>
+      <c r="D6" s="64">
+        <v>1920</v>
+      </c>
+      <c r="E6" s="64">
+        <v>1920</v>
+      </c>
+      <c r="F6" s="64">
+        <v>1920</v>
+      </c>
+      <c r="G6" s="64">
+        <v>1920</v>
+      </c>
+      <c r="H6" s="64">
+        <v>1920</v>
+      </c>
+      <c r="I6" s="64">
+        <v>1920</v>
       </c>
       <c r="J6" s="7">
         <f>SUM(B6:I6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
+      <c r="B7" s="63">
+        <v>750</v>
+      </c>
+      <c r="C7" s="64">
+        <v>750</v>
+      </c>
+      <c r="D7" s="64">
+        <v>750</v>
+      </c>
+      <c r="E7" s="64">
+        <v>750</v>
+      </c>
+      <c r="F7" s="64">
+        <v>750</v>
+      </c>
+      <c r="G7" s="64">
+        <v>750</v>
+      </c>
+      <c r="H7" s="64">
+        <v>750</v>
+      </c>
+      <c r="I7" s="64">
+        <v>750</v>
       </c>
       <c r="J7" s="7">
         <f>SUM(B7:I7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -1436,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1469,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
@@ -1502,48 +1551,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="24">
         <f t="shared" ref="B11:I11" si="0">+SUM(B6:B10)</f>
-        <v>0</v>
+        <v>2670</v>
       </c>
       <c r="C11" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2670</v>
       </c>
       <c r="D11" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2670</v>
       </c>
       <c r="E11" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2670</v>
       </c>
       <c r="F11" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2670</v>
       </c>
       <c r="G11" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2670</v>
       </c>
       <c r="H11" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2670</v>
       </c>
       <c r="I11" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2670</v>
       </c>
       <c r="J11" s="24">
         <f>+SUM(J6:J10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>21360</v>
+      </c>
+      <c r="N11">
+        <f>745*0.97</f>
+        <v>722.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
@@ -1555,8 +1608,8 @@
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="49" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="50"/>
@@ -1570,7 +1623,7 @@
       <c r="J13" s="50"/>
       <c r="K13" s="50"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
@@ -1602,70 +1655,74 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0</v>
+      <c r="B15" s="63">
+        <v>2160</v>
+      </c>
+      <c r="C15" s="64">
+        <v>2160</v>
+      </c>
+      <c r="D15" s="64">
+        <v>2160</v>
+      </c>
+      <c r="E15" s="64">
+        <v>2160</v>
+      </c>
+      <c r="F15" s="64">
+        <v>2160</v>
+      </c>
+      <c r="G15" s="64">
+        <v>2160</v>
+      </c>
+      <c r="H15" s="64">
+        <v>2160</v>
+      </c>
+      <c r="I15" s="64">
+        <v>2160</v>
       </c>
       <c r="J15" s="7">
         <f>SUM(B15:I15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
+      <c r="B16" s="63">
+        <v>840</v>
+      </c>
+      <c r="C16" s="64">
+        <v>840</v>
+      </c>
+      <c r="D16" s="64">
+        <v>840</v>
+      </c>
+      <c r="E16" s="64">
+        <v>840</v>
+      </c>
+      <c r="F16" s="64">
+        <v>840</v>
+      </c>
+      <c r="G16" s="64">
+        <v>840</v>
+      </c>
+      <c r="H16" s="64">
+        <v>840</v>
+      </c>
+      <c r="I16" s="64">
+        <v>840</v>
       </c>
       <c r="J16" s="7">
         <f>SUM(B16:I16)</f>
-        <v>0</v>
+        <v>6720</v>
+      </c>
+      <c r="L16">
+        <f>I16*0.2</f>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1773,39 +1830,39 @@
       </c>
       <c r="B20" s="24">
         <f t="shared" ref="B20:J20" si="1">+SUM(B15:B19)</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C20" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D20" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E20" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F20" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G20" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H20" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I20" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J20" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1821,7 +1878,7 @@
       <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="49" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="50"/>
@@ -1835,7 +1892,7 @@
       <c r="J22" s="50"/>
       <c r="K22" s="50"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -1867,70 +1924,70 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="6">
-        <v>0</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0</v>
+      <c r="B24" s="63">
+        <v>2029</v>
+      </c>
+      <c r="C24" s="64">
+        <v>2029</v>
+      </c>
+      <c r="D24" s="64">
+        <v>2029</v>
+      </c>
+      <c r="E24" s="64">
+        <v>2029</v>
+      </c>
+      <c r="F24" s="64">
+        <v>2029</v>
+      </c>
+      <c r="G24" s="64">
+        <v>2029</v>
+      </c>
+      <c r="H24" s="64">
+        <v>2029</v>
+      </c>
+      <c r="I24" s="64">
+        <v>2029</v>
       </c>
       <c r="J24" s="7">
         <f>SUM(B24:I24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="6">
-        <v>0</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6">
-        <v>0</v>
+      <c r="B25" s="63">
+        <v>800</v>
+      </c>
+      <c r="C25" s="64">
+        <v>800</v>
+      </c>
+      <c r="D25" s="64">
+        <v>800</v>
+      </c>
+      <c r="E25" s="64">
+        <v>800</v>
+      </c>
+      <c r="F25" s="64">
+        <v>800</v>
+      </c>
+      <c r="G25" s="64">
+        <v>800</v>
+      </c>
+      <c r="H25" s="64">
+        <v>800</v>
+      </c>
+      <c r="I25" s="64">
+        <v>800</v>
       </c>
       <c r="J25" s="7">
         <f>SUM(B25:I25)</f>
-        <v>0</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -2038,39 +2095,39 @@
       </c>
       <c r="B29" s="24">
         <f t="shared" ref="B29:J29" si="2">+SUM(B24:B28)</f>
-        <v>0</v>
+        <v>2829</v>
       </c>
       <c r="C29" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2829</v>
       </c>
       <c r="D29" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2829</v>
       </c>
       <c r="E29" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2829</v>
       </c>
       <c r="F29" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2829</v>
       </c>
       <c r="G29" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2829</v>
       </c>
       <c r="H29" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2829</v>
       </c>
       <c r="I29" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2829</v>
       </c>
       <c r="J29" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22632</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2116,7 +2173,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="48">
-        <v>1648</v>
+        <v>5564</v>
       </c>
       <c r="C32" s="48">
         <v>1696</v>
@@ -2142,10 +2199,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="48">
-        <v>261</v>
+        <v>1216</v>
       </c>
       <c r="C33" s="48">
-        <v>429</v>
+        <v>1389</v>
       </c>
       <c r="D33" s="6">
         <v>0</v>
@@ -2168,10 +2225,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="48">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C34" s="48">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D34" s="6">
         <v>0</v>
@@ -2194,9 +2251,9 @@
         <v>34</v>
       </c>
       <c r="B35" s="48">
-        <v>824</v>
-      </c>
-      <c r="C35" s="6">
+        <v>4</v>
+      </c>
+      <c r="C35" s="48">
         <v>0</v>
       </c>
       <c r="D35" s="6">
@@ -2220,10 +2277,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="48">
-        <v>413</v>
+        <v>139</v>
       </c>
       <c r="C36" s="48">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="D36" s="6">
         <v>0</v>
@@ -2246,10 +2303,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="48">
-        <v>707</v>
+        <v>158</v>
       </c>
       <c r="C37" s="48">
-        <v>59</v>
+        <v>359</v>
       </c>
       <c r="D37" s="6">
         <v>0</v>
@@ -2272,10 +2329,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="48">
-        <v>256</v>
-      </c>
-      <c r="C38" s="6">
-        <v>0</v>
+        <v>426</v>
+      </c>
+      <c r="C38" s="48">
+        <v>500</v>
       </c>
       <c r="D38" s="6">
         <v>0</v>
@@ -2298,10 +2355,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="48">
-        <v>209</v>
-      </c>
-      <c r="C39" s="6">
-        <v>0</v>
+        <v>273</v>
+      </c>
+      <c r="C39" s="48">
+        <v>375</v>
       </c>
       <c r="D39" s="6">
         <v>0</v>
@@ -2424,7 +2481,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="49" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="50"/>
@@ -2620,12 +2677,12 @@
       <c r="D61" s="3"/>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="55" t="s">
+      <c r="A64" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
@@ -2816,18 +2873,18 @@
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="52" t="s">
+      <c r="A81" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B81" s="53"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="53"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="53"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="53"/>
+      <c r="B81" s="52"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="52"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="52"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="52"/>
+      <c r="J81" s="52"/>
     </row>
     <row r="82" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="22" t="s">
@@ -2974,6 +3031,10 @@
         <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
+      <c r="M85">
+        <f>7*60</f>
+        <v>420</v>
+      </c>
     </row>
     <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
@@ -3208,7 +3269,7 @@
       </c>
     </row>
     <row r="93" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="51" t="s">
+      <c r="A93" s="49" t="s">
         <v>77</v>
       </c>
       <c r="B93" s="50"/>
@@ -3336,7 +3397,7 @@
       <c r="D102" s="11"/>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="51" t="s">
+      <c r="A105" s="49" t="s">
         <v>84</v>
       </c>
       <c r="B105" s="50"/>
@@ -3431,11 +3492,11 @@
         <v>101</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="51" t="s">
+      <c r="A113" s="49" t="s">
         <v>102</v>
       </c>
       <c r="B113" s="50"/>
@@ -3530,23 +3591,23 @@
         <v>101</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A105:G105"/>
-    <mergeCell ref="A64:D64"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A81:J81"/>
     <mergeCell ref="A93:E93"/>
     <mergeCell ref="A13:K13"/>
     <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A105:G105"/>
+    <mergeCell ref="A64:D64"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3558,8 +3619,8 @@
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3629,7 +3690,7 @@
       </c>
       <c r="B8" s="24">
         <f>Inputs!J11</f>
-        <v>0</v>
+        <v>21360</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -3690,8 +3751,8 @@
         <v>1</v>
       </c>
       <c r="C12" s="36">
-        <f>B12*Inputs!$J$6</f>
-        <v>0</v>
+        <f>Inputs!J6</f>
+        <v>15360</v>
       </c>
       <c r="D12" s="36">
         <f>Inputs!B66</f>
@@ -3711,7 +3772,7 @@
       </c>
       <c r="H12" s="36">
         <f>B12*(C12/8)</f>
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="I12" s="36">
         <f>IF($B$6="",0,$B$5*H12*$B$6)</f>
@@ -3719,7 +3780,7 @@
       </c>
       <c r="J12" s="36">
         <f>IF(LEFT(A12,5)="Parte",H12+I12,"")</f>
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="K12" s="1">
         <f>Inputs!$B$95</f>
@@ -3731,11 +3792,11 @@
       </c>
       <c r="M12" s="36">
         <f>IF(AND(K12&gt;0,L12&gt;0),SQRT(2*H12*K12/L12),"")</f>
-        <v>0</v>
+        <v>5425.8639865002142</v>
       </c>
       <c r="N12" s="36">
         <f t="shared" ref="N12:N19" si="3">IF(M12="","",ROUNDUP(M12/D12,0))</f>
-        <v>0</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -3747,8 +3808,8 @@
         <v>0.2</v>
       </c>
       <c r="C13" s="36">
-        <f>B13*Inputs!J15</f>
-        <v>0</v>
+        <f>Inputs!J15</f>
+        <v>17280</v>
       </c>
       <c r="D13" s="36">
         <f>Inputs!B67</f>
@@ -3767,16 +3828,16 @@
         <v/>
       </c>
       <c r="H13" s="36">
-        <f t="shared" ref="H13:H19" si="4">B13*(C13/8)</f>
-        <v>0</v>
+        <f>B13*(C13/8)</f>
+        <v>432</v>
       </c>
       <c r="I13" s="36">
-        <f t="shared" ref="I13:I19" si="5">IF($B$6="",0,$B$5*H13*$B$6)</f>
+        <f t="shared" ref="I13:I19" si="4">IF($B$6="",0,$B$5*H13*$B$6)</f>
         <v>0</v>
       </c>
       <c r="J13" s="36">
         <f>IF(LEFT(A13,5)="Parte",H13+I13,"")</f>
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="K13" s="1">
         <f>Inputs!$B$96</f>
@@ -3788,11 +3849,11 @@
       </c>
       <c r="M13" s="36">
         <f>IF(AND(K13&gt;0,L13&gt;0),SQRT(2*H13*K13/L13),"")</f>
-        <v>0</v>
+        <v>1073.312629199899</v>
       </c>
       <c r="N13" s="36">
         <f>IF(M13="","",ROUNDUP(M13/D13,0))</f>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -3805,7 +3866,7 @@
       </c>
       <c r="C14" s="36">
         <f>B14*Inputs!$J$15</f>
-        <v>0</v>
+        <v>172.8</v>
       </c>
       <c r="D14" s="36">
         <f>Inputs!B68</f>
@@ -3821,14 +3882,14 @@
       </c>
       <c r="G14" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>172.8</v>
       </c>
       <c r="H14" s="36">
+        <f t="shared" ref="H13:H19" si="5">B14*(C14/8)</f>
+        <v>0.21600000000000003</v>
+      </c>
+      <c r="I14" s="36">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="36">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J14" s="36" t="str">
@@ -3862,7 +3923,7 @@
       </c>
       <c r="C15" s="36">
         <f>B15*Inputs!$J$15</f>
-        <v>0</v>
+        <v>138240</v>
       </c>
       <c r="D15" s="36">
         <f>Inputs!B69</f>
@@ -3878,14 +3939,14 @@
       </c>
       <c r="G15" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138240</v>
       </c>
       <c r="H15" s="36">
+        <f t="shared" si="5"/>
+        <v>138240</v>
+      </c>
+      <c r="I15" s="36">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="36">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J15" s="36" t="str">
@@ -3919,7 +3980,7 @@
       </c>
       <c r="C16" s="36">
         <f>B16*Inputs!$J$24</f>
-        <v>0</v>
+        <v>4869.5999999999995</v>
       </c>
       <c r="D16" s="36">
         <f>Inputs!B70</f>
@@ -3935,14 +3996,14 @@
       </c>
       <c r="G16" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4869.5999999999995</v>
       </c>
       <c r="H16" s="36">
+        <f t="shared" si="5"/>
+        <v>182.60999999999999</v>
+      </c>
+      <c r="I16" s="36">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="36">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J16" s="36" t="str">
@@ -3976,7 +4037,7 @@
       </c>
       <c r="C17" s="36">
         <f>B17*Inputs!$J$24</f>
-        <v>0</v>
+        <v>9739.1999999999989</v>
       </c>
       <c r="D17" s="36">
         <f>Inputs!B71</f>
@@ -3992,14 +4053,14 @@
       </c>
       <c r="G17" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9739.1999999999989</v>
       </c>
       <c r="H17" s="36">
+        <f t="shared" si="5"/>
+        <v>730.43999999999994</v>
+      </c>
+      <c r="I17" s="36">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="36">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J17" s="36" t="str">
@@ -4033,7 +4094,7 @@
       </c>
       <c r="C18" s="36">
         <f>B18*Inputs!$J$24</f>
-        <v>0</v>
+        <v>32464</v>
       </c>
       <c r="D18" s="36">
         <f>Inputs!B72</f>
@@ -4049,14 +4110,14 @@
       </c>
       <c r="G18" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>32464</v>
       </c>
       <c r="H18" s="36">
+        <f t="shared" si="5"/>
+        <v>8116</v>
+      </c>
+      <c r="I18" s="36">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="36">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J18" s="36" t="str">
@@ -4090,7 +4151,7 @@
       </c>
       <c r="C19" s="36">
         <f>B19*Inputs!$J$24</f>
-        <v>0</v>
+        <v>12174</v>
       </c>
       <c r="D19" s="36">
         <f>Inputs!B73</f>
@@ -4106,14 +4167,14 @@
       </c>
       <c r="G19" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12174</v>
       </c>
       <c r="H19" s="36">
+        <f t="shared" si="5"/>
+        <v>1141.3125</v>
+      </c>
+      <c r="I19" s="36">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="36">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J19" s="36" t="str">
@@ -4195,8 +4256,8 @@
         <v>1</v>
       </c>
       <c r="C23" s="36">
-        <f>B23*Inputs!$J$7</f>
-        <v>0</v>
+        <f>Inputs!J7</f>
+        <v>6000</v>
       </c>
       <c r="D23" s="36">
         <f>Inputs!B66</f>
@@ -4216,7 +4277,7 @@
       </c>
       <c r="H23" s="36">
         <f>B23*(C23/8)</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I23" s="36">
         <f>IF($B$6="",0,$B$5*H23*$B$6)</f>
@@ -4224,7 +4285,7 @@
       </c>
       <c r="J23" s="36">
         <f>IF(LEFT(A23,5)="Parte",H23+I23,"")</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="K23" s="1">
         <f>Inputs!$B$95</f>
@@ -4236,11 +4297,11 @@
       </c>
       <c r="M23" s="36">
         <f t="shared" ref="M23:M30" si="9">IF(AND(K23&gt;0,L23&gt;0),SQRT(2*H23*K23/L23),"")</f>
-        <v>0</v>
+        <v>3391.164991562634</v>
       </c>
       <c r="N23" s="36">
         <f t="shared" ref="N23:N30" si="10">IF(M23="","",ROUNDUP(M23/D23,0))</f>
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -4252,8 +4313,8 @@
         <v>0.2</v>
       </c>
       <c r="C24" s="36">
-        <f>B24*Inputs!$J$16</f>
-        <v>0</v>
+        <f>Inputs!J16</f>
+        <v>6720</v>
       </c>
       <c r="D24" s="36">
         <f>Inputs!B67</f>
@@ -4273,7 +4334,7 @@
       </c>
       <c r="H24" s="36">
         <f t="shared" ref="H24:H30" si="13">B24*(C24/8)</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="I24" s="36">
         <f>IF($B$6="",0,$B$5*H24*$B$6)</f>
@@ -4281,7 +4342,7 @@
       </c>
       <c r="J24" s="36">
         <f>IF(LEFT(A24,5)="Parte",H24+I24,"")</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K24" s="1">
         <f>Inputs!$B$96</f>
@@ -4293,11 +4354,11 @@
       </c>
       <c r="M24" s="36">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>669.32802122726048</v>
       </c>
       <c r="N24" s="36">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -4310,7 +4371,7 @@
       </c>
       <c r="C25" s="36">
         <f>B25*Inputs!$J$16</f>
-        <v>0</v>
+        <v>67.2</v>
       </c>
       <c r="D25" s="36">
         <f>Inputs!B68</f>
@@ -4326,11 +4387,11 @@
       </c>
       <c r="G25" s="36">
         <f>IF(LEFT(A25,5)="Pieza",C25+F25,"")</f>
-        <v>0</v>
+        <v>67.2</v>
       </c>
       <c r="H25" s="36">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="I25" s="36">
         <f t="shared" ref="I25:I30" si="14">IF($B$6="",0,$B$5*H25*$B$6)</f>
@@ -4366,7 +4427,7 @@
       </c>
       <c r="C26" s="36">
         <f>B26*Inputs!$J$25</f>
-        <v>0</v>
+        <v>51200</v>
       </c>
       <c r="D26" s="36">
         <f>Inputs!B69</f>
@@ -4382,11 +4443,11 @@
       </c>
       <c r="G26" s="36">
         <f>IF(LEFT(A26,5)="Pieza",C26+F26,"")</f>
-        <v>0</v>
+        <v>51200</v>
       </c>
       <c r="H26" s="36">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>51200</v>
       </c>
       <c r="I26" s="36">
         <f t="shared" si="14"/>
@@ -4423,7 +4484,7 @@
       </c>
       <c r="C27" s="36">
         <f>B27*Inputs!$J$25</f>
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="D27" s="36">
         <f>Inputs!B70</f>
@@ -4439,11 +4500,11 @@
       </c>
       <c r="G27" s="36">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="H27" s="36">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I27" s="36">
         <f t="shared" si="14"/>
@@ -4480,7 +4541,7 @@
       </c>
       <c r="C28" s="36">
         <f>B28*Inputs!$J$25</f>
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="D28" s="36">
         <f>Inputs!B71</f>
@@ -4496,11 +4557,11 @@
       </c>
       <c r="G28" s="36">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="H28" s="36">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="I28" s="36">
         <f t="shared" si="14"/>
@@ -4537,7 +4598,7 @@
       </c>
       <c r="C29" s="36">
         <f>B29*Inputs!$J$25</f>
-        <v>0</v>
+        <v>12800</v>
       </c>
       <c r="D29" s="36">
         <f>Inputs!B72</f>
@@ -4553,11 +4614,11 @@
       </c>
       <c r="G29" s="36">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>12800</v>
       </c>
       <c r="H29" s="36">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="I29" s="36">
         <f t="shared" si="14"/>
@@ -4594,7 +4655,7 @@
       </c>
       <c r="C30" s="36">
         <f>B30*Inputs!$J$25</f>
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="D30" s="36">
         <f>Inputs!B73</f>
@@ -4610,11 +4671,11 @@
       </c>
       <c r="G30" s="36">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="H30" s="36">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="I30" s="36">
         <f t="shared" si="14"/>
@@ -4699,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="36">
-        <f>B34*Inputs!$J$8</f>
+        <f>Inputs!J8</f>
         <v>0</v>
       </c>
       <c r="D34" s="36">
@@ -4756,7 +4817,7 @@
         <v>0.2</v>
       </c>
       <c r="C35" s="36">
-        <f>B35*Inputs!$J$17</f>
+        <f>Inputs!$J$17</f>
         <v>0</v>
       </c>
       <c r="D35" s="36">
@@ -5203,7 +5264,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="36">
-        <f>B34*Inputs!$J$9</f>
+        <f>Inputs!J9</f>
         <v>0</v>
       </c>
       <c r="D45" s="36">
@@ -5260,7 +5321,7 @@
         <v>0.2</v>
       </c>
       <c r="C46" s="36">
-        <f>B35*Inputs!$J$18</f>
+        <f>Inputs!$J$18</f>
         <v>0</v>
       </c>
       <c r="D46" s="36">
@@ -5707,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="36">
-        <f>B56*Inputs!$J$10</f>
+        <f>Inputs!J10</f>
         <v>0</v>
       </c>
       <c r="D56" s="36">
@@ -5764,7 +5825,7 @@
         <v>0.2</v>
       </c>
       <c r="C57" s="36">
-        <f>B57*Inputs!$J$19</f>
+        <f>Inputs!$J$19</f>
         <v>0</v>
       </c>
       <c r="D57" s="36">
@@ -6163,7 +6224,7 @@
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6176,7 +6237,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>123</v>
       </c>
       <c r="B1" s="50"/>
@@ -6288,39 +6349,39 @@
       </c>
       <c r="C6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="D6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="E6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="F6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="G6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="H6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="I6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="J6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="K6" s="19">
         <f>Inputs!J6*B6</f>
-        <v>0</v>
+        <v>153.6</v>
       </c>
       <c r="L6" s="39">
         <f>Politica_Inventarios!F14</f>
@@ -6328,19 +6389,19 @@
       </c>
       <c r="M6" s="24">
         <f>Inputs!B34</f>
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="N6" s="24">
         <f>K6+L6-M6</f>
-        <v>-25</v>
+        <v>142.6</v>
       </c>
       <c r="O6" s="39">
-        <f>IF(ROUNDUP(N6/Inputs!$B$68,0)&lt;0,0,ROUNDUP(N6/Inputs!$B$68,0))*1.1+0</f>
-        <v>0</v>
+        <f>IF(ROUNDUP(N6/Inputs!$B$68,0)&lt;0,0,ROUNDUP(N6/Inputs!$B$68,0))+1</f>
+        <v>144</v>
       </c>
       <c r="P6" s="28">
         <f>O6*Inputs!$B$85</f>
-        <v>0</v>
+        <v>8640</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6353,39 +6414,39 @@
       </c>
       <c r="C7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>0</v>
+        <v>16232</v>
       </c>
       <c r="D7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>0</v>
+        <v>16232</v>
       </c>
       <c r="E7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>0</v>
+        <v>16232</v>
       </c>
       <c r="F7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>0</v>
+        <v>16232</v>
       </c>
       <c r="G7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>0</v>
+        <v>16232</v>
       </c>
       <c r="H7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>0</v>
+        <v>16232</v>
       </c>
       <c r="I7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>0</v>
+        <v>16232</v>
       </c>
       <c r="J7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>0</v>
+        <v>16232</v>
       </c>
       <c r="K7" s="19">
         <f>SUM(C7:J7)</f>
-        <v>0</v>
+        <v>129856</v>
       </c>
       <c r="L7" s="39">
         <f>Politica_Inventarios!F15</f>
@@ -6393,19 +6454,19 @@
       </c>
       <c r="M7" s="24">
         <f>Inputs!B35</f>
-        <v>824</v>
+        <v>4</v>
       </c>
       <c r="N7" s="24">
         <f>K7+L7-M7</f>
-        <v>-824</v>
+        <v>129852</v>
       </c>
       <c r="O7" s="39">
         <f>IF(ROUNDUP(N7/Inputs!$B$69,0)&lt;0,0,ROUNDUP(N7/Inputs!$B$69,0))</f>
-        <v>0</v>
+        <v>1299</v>
       </c>
       <c r="P7" s="28">
         <f>O7*Inputs!$B$86</f>
-        <v>0</v>
+        <v>9093</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6418,39 +6479,39 @@
       </c>
       <c r="C8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>0</v>
+        <v>608.69999999999993</v>
       </c>
       <c r="D8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>0</v>
+        <v>608.69999999999993</v>
       </c>
       <c r="E8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>0</v>
+        <v>608.69999999999993</v>
       </c>
       <c r="F8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>0</v>
+        <v>608.69999999999993</v>
       </c>
       <c r="G8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>0</v>
+        <v>608.69999999999993</v>
       </c>
       <c r="H8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>0</v>
+        <v>608.69999999999993</v>
       </c>
       <c r="I8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>0</v>
+        <v>608.69999999999993</v>
       </c>
       <c r="J8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>0</v>
+        <v>608.69999999999993</v>
       </c>
       <c r="K8" s="19">
         <f>Inputs!$J$24*B8</f>
-        <v>0</v>
+        <v>4869.5999999999995</v>
       </c>
       <c r="L8" s="39">
         <f>Politica_Inventarios!F16</f>
@@ -6458,19 +6519,19 @@
       </c>
       <c r="M8" s="24">
         <f>Inputs!B36</f>
-        <v>413</v>
+        <v>139</v>
       </c>
       <c r="N8" s="24">
         <f t="shared" ref="N8:N11" si="0">K8+L8-M8</f>
-        <v>-413</v>
+        <v>4730.5999999999995</v>
       </c>
       <c r="O8" s="39">
         <f>IF(ROUNDUP(N8/Inputs!$B$70,0)&lt;0,0,ROUNDUP(N8/Inputs!$B$70,0))</f>
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="P8" s="28">
         <f>O8*Inputs!$B$87</f>
-        <v>0</v>
+        <v>5688</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6483,39 +6544,39 @@
       </c>
       <c r="C9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>0</v>
+        <v>1217.3999999999999</v>
       </c>
       <c r="D9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>0</v>
+        <v>1217.3999999999999</v>
       </c>
       <c r="E9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>0</v>
+        <v>1217.3999999999999</v>
       </c>
       <c r="F9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>0</v>
+        <v>1217.3999999999999</v>
       </c>
       <c r="G9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>0</v>
+        <v>1217.3999999999999</v>
       </c>
       <c r="H9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>0</v>
+        <v>1217.3999999999999</v>
       </c>
       <c r="I9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>0</v>
+        <v>1217.3999999999999</v>
       </c>
       <c r="J9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>0</v>
+        <v>1217.3999999999999</v>
       </c>
       <c r="K9" s="19">
         <f>Inputs!$J$24*B9</f>
-        <v>0</v>
+        <v>9739.1999999999989</v>
       </c>
       <c r="L9" s="39">
         <f>Politica_Inventarios!F17</f>
@@ -6523,19 +6584,19 @@
       </c>
       <c r="M9" s="24">
         <f>Inputs!B37</f>
-        <v>707</v>
+        <v>158</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="0"/>
-        <v>-707</v>
+        <v>9581.1999999999989</v>
       </c>
       <c r="O9" s="39">
         <f>IF(ROUNDUP(N9/Inputs!$B$71,0)&lt;0,0,ROUNDUP(N9/Inputs!$B$71,0))</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="P9" s="28">
         <f>O9*Inputs!$B$88</f>
-        <v>0</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6548,39 +6609,39 @@
       </c>
       <c r="C10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>0</v>
+        <v>4058</v>
       </c>
       <c r="D10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>0</v>
+        <v>4058</v>
       </c>
       <c r="E10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>0</v>
+        <v>4058</v>
       </c>
       <c r="F10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>0</v>
+        <v>4058</v>
       </c>
       <c r="G10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>0</v>
+        <v>4058</v>
       </c>
       <c r="H10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>0</v>
+        <v>4058</v>
       </c>
       <c r="I10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>0</v>
+        <v>4058</v>
       </c>
       <c r="J10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>0</v>
+        <v>4058</v>
       </c>
       <c r="K10" s="19">
         <f>Inputs!$J$24*B10</f>
-        <v>0</v>
+        <v>32464</v>
       </c>
       <c r="L10" s="39">
         <f>Politica_Inventarios!F18</f>
@@ -6588,19 +6649,19 @@
       </c>
       <c r="M10" s="24">
         <f>Inputs!B38</f>
-        <v>256</v>
+        <v>426</v>
       </c>
       <c r="N10" s="24">
         <f t="shared" si="0"/>
-        <v>-256</v>
+        <v>32038</v>
       </c>
       <c r="O10" s="39">
         <f>IF(ROUNDUP(N10/Inputs!$B$72,0)&lt;0,0,ROUNDUP(N10/Inputs!$B$72,0))</f>
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="P10" s="28">
         <f>O10*Inputs!$B$89</f>
-        <v>0</v>
+        <v>9630</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6613,39 +6674,39 @@
       </c>
       <c r="C11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>0</v>
+        <v>1521.75</v>
       </c>
       <c r="D11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>0</v>
+        <v>1521.75</v>
       </c>
       <c r="E11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>0</v>
+        <v>1521.75</v>
       </c>
       <c r="F11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>0</v>
+        <v>1521.75</v>
       </c>
       <c r="G11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>0</v>
+        <v>1521.75</v>
       </c>
       <c r="H11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>0</v>
+        <v>1521.75</v>
       </c>
       <c r="I11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>0</v>
+        <v>1521.75</v>
       </c>
       <c r="J11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>0</v>
+        <v>1521.75</v>
       </c>
       <c r="K11" s="19">
         <f>Inputs!$J$24*B11</f>
-        <v>0</v>
+        <v>12174</v>
       </c>
       <c r="L11" s="39">
         <f>Politica_Inventarios!F19</f>
@@ -6653,19 +6714,19 @@
       </c>
       <c r="M11" s="24">
         <f>Inputs!B39</f>
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" si="0"/>
-        <v>-209</v>
+        <v>11901</v>
       </c>
       <c r="O11" s="39">
         <f>IF(ROUNDUP(N11/Inputs!$B$73,0)&lt;0,0,ROUNDUP(N11/Inputs!$B$73,0))</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P11" s="28">
         <f>O11*Inputs!$B$90</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -6675,44 +6736,44 @@
       <c r="B12" s="2"/>
       <c r="C12" s="20">
         <f>Inputs!B6</f>
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="D12" s="20">
         <f>Inputs!C6</f>
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="E12" s="20">
         <f>Inputs!D6</f>
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="F12" s="20">
         <f>Inputs!E6</f>
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="G12" s="20">
         <f>Inputs!F6</f>
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="H12" s="20">
         <f>Inputs!G6</f>
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="I12" s="20">
         <f>Inputs!H6</f>
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="J12" s="20">
         <f>Inputs!I6</f>
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="K12" s="20">
         <f>Inputs!J6</f>
-        <v>0</v>
+        <v>15360</v>
       </c>
       <c r="N12" s="24"/>
       <c r="P12" s="28">
         <f>SUM(P6:P11)</f>
-        <v>0</v>
+        <v>39131</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6780,39 +6841,39 @@
       </c>
       <c r="C16" s="18">
         <f>Inputs!$B$16*$B$16</f>
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="D16" s="18">
         <f>Inputs!$B$16*$B$16</f>
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="E16" s="18">
         <f>Inputs!$B$16*$B$16</f>
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="F16" s="18">
         <f>Inputs!$B$16*$B$16</f>
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="G16" s="18">
         <f>Inputs!$B$16*$B$16</f>
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="H16" s="18">
         <f>Inputs!$B$16*$B$16</f>
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="I16" s="18">
         <f>Inputs!$B$16*$B$16</f>
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="J16" s="18">
         <f>Inputs!$B$16*$B$16</f>
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="K16" s="19">
         <f t="shared" ref="K16:K21" si="1">SUM(C16:J16)</f>
-        <v>0</v>
+        <v>67.2</v>
       </c>
       <c r="L16" s="39">
         <f>Politica_Inventarios!F25</f>
@@ -6820,19 +6881,19 @@
       </c>
       <c r="M16" s="24">
         <f>Inputs!C34</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N16" s="46">
         <f>K16+L16-M16</f>
-        <v>-18</v>
+        <v>46.2</v>
       </c>
       <c r="O16" s="39">
-        <f>IF(ROUNDUP(N16/Inputs!$B$68,0)&lt;0,0,ROUNDUP(N16/Inputs!$B$68,0))+0</f>
-        <v>0</v>
+        <f>IF(ROUNDUP(N16/Inputs!$B$68,0)&lt;0,0,ROUNDUP(N16/Inputs!$B$68,0))+1</f>
+        <v>48</v>
       </c>
       <c r="P16" s="28">
         <f>O16*Inputs!$B$85</f>
-        <v>0</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -6844,39 +6905,39 @@
       </c>
       <c r="C17" s="18">
         <f>Inputs!$B$25*$B$17</f>
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="D17" s="18">
         <f>Inputs!$B$25*$B$17</f>
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="E17" s="18">
         <f>Inputs!$B$25*$B$17</f>
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="F17" s="18">
         <f>Inputs!$B$25*$B$17</f>
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="G17" s="18">
         <f>Inputs!$B$25*$B$17</f>
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="H17" s="18">
         <f>Inputs!$B$25*$B$17</f>
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="I17" s="18">
         <f>Inputs!$B$25*$B$17</f>
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="J17" s="18">
         <f>Inputs!$B$25*$B$17</f>
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="K17" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>51200</v>
       </c>
       <c r="L17" s="39">
         <f>Politica_Inventarios!F26</f>
@@ -6888,15 +6949,15 @@
       </c>
       <c r="N17" s="24">
         <f>K17+L17-M17</f>
-        <v>0</v>
+        <v>51200</v>
       </c>
       <c r="O17" s="39">
         <f>IF(ROUNDUP(N17/Inputs!$B$69,0)&lt;0,0,ROUNDUP(N17/Inputs!$B$69,0))</f>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="P17" s="28">
         <f>O17*Inputs!$B$86</f>
-        <v>0</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
@@ -6908,39 +6969,39 @@
       </c>
       <c r="C18" s="18">
         <f>Inputs!$B$25*$B$18</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D18" s="18">
         <f>Inputs!$B$25*$B$18</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="E18" s="18">
         <f>Inputs!$B$25*$B$18</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F18" s="18">
         <f>Inputs!$B$25*$B$18</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="G18" s="18">
         <f>Inputs!$B$25*$B$18</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="H18" s="18">
         <f>Inputs!$B$25*$B$18</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="I18" s="18">
         <f>Inputs!$B$25*$B$18</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="J18" s="18">
         <f>Inputs!$B$25*$B$18</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="K18" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="L18" s="39">
         <f>Politica_Inventarios!F27</f>
@@ -6948,19 +7009,19 @@
       </c>
       <c r="M18" s="24">
         <f>Inputs!C36</f>
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" ref="N18:N21" si="2">K18+L18-M18</f>
-        <v>-30</v>
+        <v>1740</v>
       </c>
       <c r="O18" s="39">
         <f>IF(ROUNDUP(N18/Inputs!$B$70,0)&lt;0,0,ROUNDUP(N18/Inputs!$B$70,0))</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="P18" s="28">
         <f>O18*Inputs!$B$87</f>
-        <v>0</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -6972,39 +7033,39 @@
       </c>
       <c r="C19" s="18">
         <f>Inputs!$B$25*$B$19</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="D19" s="18">
         <f>Inputs!$B$25*$B$19</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="E19" s="18">
         <f>Inputs!$B$25*$B$19</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="F19" s="18">
         <f>Inputs!$B$25*$B$19</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="G19" s="18">
         <f>Inputs!$B$25*$B$19</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="H19" s="18">
         <f>Inputs!$B$25*$B$19</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="I19" s="18">
         <f>Inputs!$B$25*$B$19</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="J19" s="18">
         <f>Inputs!$B$25*$B$19</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="K19" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="L19" s="39">
         <f>Politica_Inventarios!F28</f>
@@ -7012,19 +7073,19 @@
       </c>
       <c r="M19" s="24">
         <f>Inputs!C37</f>
-        <v>59</v>
+        <v>359</v>
       </c>
       <c r="N19" s="24">
         <f t="shared" si="2"/>
-        <v>-59</v>
+        <v>3481</v>
       </c>
       <c r="O19" s="39">
         <f>IF(ROUNDUP(N19/Inputs!$B$71,0)&lt;0,0,ROUNDUP(N19/Inputs!$B$71,0))</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="P19" s="28">
         <f>O19*Inputs!$B$88</f>
-        <v>0</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
@@ -7036,39 +7097,39 @@
       </c>
       <c r="C20" s="18">
         <f>Inputs!$B$25*$B$20</f>
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="D20" s="18">
         <f>Inputs!$B$25*$B$20</f>
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E20" s="18">
         <f>Inputs!$B$25*$B$20</f>
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F20" s="18">
         <f>Inputs!$B$25*$B$20</f>
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="G20" s="18">
         <f>Inputs!$B$25*$B$20</f>
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="H20" s="18">
         <f>Inputs!$B$25*$B$20</f>
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="I20" s="18">
         <f>Inputs!$B$25*$B$20</f>
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="J20" s="18">
         <f>Inputs!$B$25*$B$20</f>
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="K20" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12800</v>
       </c>
       <c r="L20" s="39">
         <f>Politica_Inventarios!F29</f>
@@ -7076,19 +7137,19 @@
       </c>
       <c r="M20" s="24">
         <f>Inputs!C38</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12300</v>
       </c>
       <c r="O20" s="39">
         <f>IF(ROUNDUP(N20/Inputs!$B$72,0)&lt;0,0,ROUNDUP(N20/Inputs!$B$72,0))</f>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="P20" s="28">
         <f>O20*Inputs!$B$89</f>
-        <v>0</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
@@ -7100,39 +7161,39 @@
       </c>
       <c r="C21" s="18">
         <f>Inputs!$B$25*$B$21</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D21" s="18">
         <f>Inputs!$B$25*$B$21</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E21" s="18">
         <f>Inputs!$B$25*$B$21</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F21" s="18">
         <f>Inputs!$B$25*$B$21</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G21" s="18">
         <f>Inputs!$B$25*$B$21</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H21" s="18">
         <f>Inputs!$B$25*$B$21</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I21" s="18">
         <f>Inputs!$B$25*$B$21</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J21" s="18">
         <f>Inputs!$B$25*$B$21</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K21" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="L21" s="39">
         <f>Politica_Inventarios!F30</f>
@@ -7140,19 +7201,19 @@
       </c>
       <c r="M21" s="24">
         <f>Inputs!C39</f>
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4425</v>
       </c>
       <c r="O21" s="39">
         <f>IF(ROUNDUP(N21/Inputs!$B$73,0)&lt;0,0,ROUNDUP(N21/Inputs!$B$73,0))</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P21" s="28">
         <f>O21*Inputs!$B$90</f>
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
@@ -7162,43 +7223,43 @@
       <c r="B22" s="2"/>
       <c r="C22" s="20">
         <f>Inputs!B7</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="D22" s="20">
         <f>Inputs!C7</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E22" s="20">
         <f>Inputs!D7</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="F22" s="20">
         <f>Inputs!E7</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="G22" s="20">
         <f>Inputs!F7</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="H22" s="20">
         <f>Inputs!G7</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I22" s="20">
         <f>Inputs!H7</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="J22" s="20">
         <f>Inputs!I7</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="K22" s="20">
         <f>Inputs!J7</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="P22" s="28">
         <f>SUM(P16:P21)</f>
-        <v>0</v>
+        <v>14498</v>
       </c>
       <c r="R22" s="28"/>
     </row>
@@ -8660,7 +8721,7 @@
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P54" s="28">
         <f>SUM(P12,P22,P32,P42)</f>
-        <v>0</v>
+        <v>53629</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -8681,8 +8742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8707,7 +8768,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="50"/>
@@ -8797,28 +8858,28 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="O5" s="52" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="O5" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -8882,43 +8943,43 @@
       </c>
       <c r="B7" s="21">
         <f>Inputs!B32</f>
-        <v>1648</v>
+        <v>5564</v>
       </c>
       <c r="C7" s="16">
         <f t="shared" ref="C7:I7" si="0">B10</f>
-        <v>1648</v>
+        <v>3644</v>
       </c>
       <c r="D7" s="16">
         <f t="shared" si="0"/>
-        <v>1648</v>
+        <v>1724</v>
       </c>
       <c r="E7" s="16">
         <f t="shared" si="0"/>
-        <v>1648</v>
+        <v>5234</v>
       </c>
       <c r="F7" s="16">
         <f t="shared" si="0"/>
-        <v>1648</v>
+        <v>3314</v>
       </c>
       <c r="G7" s="16">
         <f t="shared" si="0"/>
-        <v>1648</v>
+        <v>1394</v>
       </c>
       <c r="H7" s="16">
         <f t="shared" si="0"/>
-        <v>1648</v>
+        <v>4904</v>
       </c>
       <c r="I7" s="16">
         <f t="shared" si="0"/>
-        <v>1648</v>
+        <v>2984</v>
       </c>
       <c r="J7" s="39">
         <f>Politica_Inventarios!N12</f>
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="K7" s="39">
         <f>Politica_Inventarios!J12</f>
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="L7" s="39">
         <f>Inputs!B66</f>
@@ -8929,43 +8990,43 @@
       </c>
       <c r="P7" s="21">
         <f>Inputs!B33</f>
-        <v>261</v>
+        <v>1216</v>
       </c>
       <c r="Q7" s="16">
         <f t="shared" ref="Q7:W7" si="1">P10</f>
-        <v>261</v>
+        <v>784</v>
       </c>
       <c r="R7" s="16">
         <f t="shared" si="1"/>
-        <v>261</v>
+        <v>352</v>
       </c>
       <c r="S7" s="16">
         <f t="shared" si="1"/>
-        <v>261</v>
+        <v>1000</v>
       </c>
       <c r="T7" s="16">
         <f t="shared" si="1"/>
-        <v>261</v>
+        <v>568</v>
       </c>
       <c r="U7" s="16">
         <f t="shared" si="1"/>
-        <v>261</v>
+        <v>136</v>
       </c>
       <c r="V7" s="16">
         <f t="shared" si="1"/>
-        <v>261</v>
+        <v>784</v>
       </c>
       <c r="W7" s="16">
         <f t="shared" si="1"/>
-        <v>261</v>
+        <v>352</v>
       </c>
       <c r="X7" s="39">
         <f>Politica_Inventarios!N13</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Y7" s="39">
         <f>Politica_Inventarios!J13</f>
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="Z7" s="24">
         <f>Inputs!B67</f>
@@ -8983,7 +9044,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="6">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
@@ -8992,17 +9053,17 @@
         <v>0</v>
       </c>
       <c r="G8" s="6">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
       </c>
       <c r="I8" s="6">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="M8" s="28">
         <f>SUM(B8:I8)*VLOOKUP(Inputs!B110,Inputs!A107:B109,2,FALSE)</f>
-        <v>15000</v>
+        <v>45250</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>136</v>
@@ -9014,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="S8" s="6">
         <v>0</v>
@@ -9023,17 +9084,17 @@
         <v>0</v>
       </c>
       <c r="U8" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="V8" s="6">
         <v>0</v>
       </c>
       <c r="W8" s="6">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AA8" s="1">
         <f>SUM(P8:W8)*VLOOKUP(Inputs!B118,Inputs!A114:B117,2,FALSE)</f>
-        <v>21120</v>
+        <v>89100</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9042,70 +9103,78 @@
       </c>
       <c r="B9" s="21">
         <f>Inputs!B6*Inputs!$B$48</f>
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="C9" s="21">
         <f>Inputs!C6*Inputs!$B$48</f>
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="D9" s="21">
         <f>Inputs!D6*Inputs!$B$48</f>
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="E9" s="21">
         <f>Inputs!E6*Inputs!$B$48</f>
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="F9" s="21">
         <f>Inputs!F6*Inputs!$B$48</f>
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="G9" s="21">
         <f>Inputs!G6*Inputs!$B$48</f>
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="H9" s="21">
         <f>Inputs!H6*Inputs!$B$48</f>
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="I9" s="21">
         <f>Inputs!I6*Inputs!$B$48</f>
-        <v>0</v>
+        <v>1920</v>
+      </c>
+      <c r="K9">
+        <f>J7/2</f>
+        <v>90.5</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>137</v>
       </c>
       <c r="P9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="Q9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="R9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="S9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="T9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="U9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="V9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="W9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>0</v>
+        <v>432</v>
+      </c>
+      <c r="Y9">
+        <f>X7/2</f>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9114,70 +9183,70 @@
       </c>
       <c r="B10" s="19">
         <f>B7+(B8*$L$7)-B9</f>
-        <v>1648</v>
+        <v>3644</v>
       </c>
       <c r="C10" s="19">
         <f t="shared" ref="C10:I10" si="2">C7+(C8*$L$7)-C9</f>
-        <v>1648</v>
+        <v>1724</v>
       </c>
       <c r="D10" s="19">
         <f t="shared" si="2"/>
-        <v>1648</v>
+        <v>5234</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" si="2"/>
-        <v>1648</v>
+        <v>3314</v>
       </c>
       <c r="F10" s="19">
         <f t="shared" si="2"/>
-        <v>1648</v>
+        <v>1394</v>
       </c>
       <c r="G10" s="19">
         <f t="shared" si="2"/>
-        <v>1648</v>
+        <v>4904</v>
       </c>
       <c r="H10" s="19">
         <f t="shared" si="2"/>
-        <v>1648</v>
+        <v>2984</v>
       </c>
       <c r="I10" s="19">
         <f t="shared" si="2"/>
-        <v>6148</v>
+        <v>1064</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>138</v>
       </c>
       <c r="P10" s="19">
         <f>P7+(P8*$Z$7)-P9</f>
-        <v>261</v>
+        <v>784</v>
       </c>
       <c r="Q10" s="19">
         <f t="shared" ref="Q10:W10" si="3">Q7+(Q8*$Z$7)-Q9</f>
-        <v>261</v>
+        <v>352</v>
       </c>
       <c r="R10" s="19">
         <f t="shared" si="3"/>
-        <v>261</v>
+        <v>1000</v>
       </c>
       <c r="S10" s="19">
         <f>S7+(S8*$Z$7)-S9</f>
-        <v>261</v>
+        <v>568</v>
       </c>
       <c r="T10" s="19">
         <f t="shared" si="3"/>
-        <v>261</v>
+        <v>136</v>
       </c>
       <c r="U10" s="19">
         <f t="shared" si="3"/>
-        <v>261</v>
+        <v>784</v>
       </c>
       <c r="V10" s="19">
         <f t="shared" si="3"/>
-        <v>261</v>
+        <v>352</v>
       </c>
       <c r="W10" s="19">
         <f t="shared" si="3"/>
-        <v>1221</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9270,39 +9339,39 @@
       </c>
       <c r="C13" s="16">
         <f t="shared" ref="C13:I13" si="4">B16</f>
-        <v>1696</v>
+        <v>4246</v>
       </c>
       <c r="D13" s="16">
         <f t="shared" si="4"/>
-        <v>1696</v>
+        <v>3496</v>
       </c>
       <c r="E13" s="16">
         <f t="shared" si="4"/>
-        <v>1696</v>
+        <v>6046</v>
       </c>
       <c r="F13" s="16">
         <f t="shared" si="4"/>
-        <v>1696</v>
+        <v>5296</v>
       </c>
       <c r="G13" s="16">
         <f t="shared" si="4"/>
-        <v>1696</v>
+        <v>7846</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" si="4"/>
-        <v>1696</v>
+        <v>7096</v>
       </c>
       <c r="I13" s="16">
         <f t="shared" si="4"/>
-        <v>1696</v>
+        <v>6346</v>
       </c>
       <c r="J13" s="39">
         <f>Politica_Inventarios!N23</f>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="K13" s="39">
         <f>Politica_Inventarios!J23</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="L13">
         <v>30</v>
@@ -9312,43 +9381,43 @@
       </c>
       <c r="P13" s="21">
         <f>Inputs!C33</f>
-        <v>429</v>
+        <v>1389</v>
       </c>
       <c r="Q13" s="16">
         <f t="shared" ref="Q13:W13" si="5">P16</f>
-        <v>429</v>
+        <v>1221</v>
       </c>
       <c r="R13" s="16">
         <f t="shared" si="5"/>
-        <v>429</v>
+        <v>1053</v>
       </c>
       <c r="S13" s="16">
         <f t="shared" si="5"/>
-        <v>429</v>
+        <v>885</v>
       </c>
       <c r="T13" s="16">
         <f t="shared" si="5"/>
-        <v>429</v>
+        <v>717</v>
       </c>
       <c r="U13" s="16">
         <f t="shared" si="5"/>
-        <v>429</v>
+        <v>549</v>
       </c>
       <c r="V13" s="16">
         <f t="shared" si="5"/>
-        <v>429</v>
+        <v>381</v>
       </c>
       <c r="W13" s="16">
         <f t="shared" si="5"/>
-        <v>429</v>
+        <v>213</v>
       </c>
       <c r="X13" s="39">
         <f>Politica_Inventarios!N24</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Y13" s="39">
         <f>Politica_Inventarios!J24</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="Z13">
         <v>12</v>
@@ -9359,19 +9428,19 @@
         <v>136</v>
       </c>
       <c r="B14" s="6">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
       </c>
       <c r="D14" s="6">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
       </c>
       <c r="F14" s="6">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -9380,11 +9449,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="6">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="M14" s="28">
         <f>SUM(B14:I14)*VLOOKUP(Inputs!B110,Inputs!A107:B109,2,FALSE)</f>
-        <v>15000</v>
+        <v>41250</v>
       </c>
       <c r="O14" s="9" t="s">
         <v>136</v>
@@ -9411,11 +9480,11 @@
         <v>0</v>
       </c>
       <c r="W14" s="6">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="1">
         <f>SUM(P14:W14)*VLOOKUP(Inputs!B118,Inputs!A114:B117,2,FALSE)</f>
-        <v>21120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9424,70 +9493,78 @@
       </c>
       <c r="B15" s="21">
         <f>Inputs!B7*Inputs!$B$48</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="C15" s="21">
         <f>Inputs!C7*Inputs!$B$48</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="D15" s="21">
         <f>Inputs!D7*Inputs!$B$48</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E15" s="21">
         <f>Inputs!E7*Inputs!$B$48</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="F15" s="21">
         <f>Inputs!F7*Inputs!$B$48</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="G15" s="21">
         <f>Inputs!G7*Inputs!$B$48</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="H15" s="21">
         <f>Inputs!H7*Inputs!$B$48</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I15" s="21">
         <f>Inputs!I7*Inputs!$B$48</f>
-        <v>0</v>
+        <v>750</v>
+      </c>
+      <c r="K15">
+        <f>J13/2</f>
+        <v>57</v>
       </c>
       <c r="O15" s="9" t="s">
         <v>137</v>
       </c>
       <c r="P15" s="21">
         <f>Inputs!$B$16*Inputs!$B$49</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="Q15" s="21">
         <f>Inputs!$B$16*Inputs!$B$49</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="R15" s="21">
         <f>Inputs!$B$16*Inputs!$B$49</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="S15" s="21">
         <f>Inputs!$B$16*Inputs!$B$49</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="T15" s="21">
         <f>Inputs!$B$16*Inputs!$B$49</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="U15" s="21">
         <f>Inputs!$B$16*Inputs!$B$49</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="V15" s="21">
         <f>Inputs!$B$16*Inputs!$B$49</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="W15" s="21">
         <f>Inputs!$B$16*Inputs!$B$49</f>
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="Y15">
+        <f>X13/2</f>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9496,70 +9573,70 @@
       </c>
       <c r="B16" s="19">
         <f>B13+(B14*$L$13)-B15</f>
-        <v>1696</v>
+        <v>4246</v>
       </c>
       <c r="C16" s="19">
         <f t="shared" ref="C16:I16" si="6">C13+(C14*$L$7)-C15</f>
-        <v>1696</v>
+        <v>3496</v>
       </c>
       <c r="D16" s="19">
         <f t="shared" si="6"/>
-        <v>1696</v>
+        <v>6046</v>
       </c>
       <c r="E16" s="19">
         <f t="shared" si="6"/>
-        <v>1696</v>
+        <v>5296</v>
       </c>
       <c r="F16" s="19">
         <f t="shared" si="6"/>
-        <v>1696</v>
+        <v>7846</v>
       </c>
       <c r="G16" s="19">
         <f t="shared" si="6"/>
-        <v>1696</v>
+        <v>7096</v>
       </c>
       <c r="H16" s="19">
         <f t="shared" si="6"/>
-        <v>1696</v>
+        <v>6346</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" si="6"/>
-        <v>6196</v>
+        <v>5596</v>
       </c>
       <c r="O16" s="5" t="s">
         <v>138</v>
       </c>
       <c r="P16" s="19">
         <f>P13+(P14*$Z$7)-P15</f>
-        <v>429</v>
+        <v>1221</v>
       </c>
       <c r="Q16" s="19">
         <f t="shared" ref="Q16:W16" si="7">Q13+(Q14*$Z$7)-Q15</f>
-        <v>429</v>
+        <v>1053</v>
       </c>
       <c r="R16" s="19">
         <f t="shared" si="7"/>
-        <v>429</v>
+        <v>885</v>
       </c>
       <c r="S16" s="19">
         <f t="shared" si="7"/>
-        <v>429</v>
+        <v>717</v>
       </c>
       <c r="T16" s="19">
         <f t="shared" si="7"/>
-        <v>429</v>
+        <v>549</v>
       </c>
       <c r="U16" s="19">
         <f t="shared" si="7"/>
-        <v>429</v>
+        <v>381</v>
       </c>
       <c r="V16" s="19">
         <f t="shared" si="7"/>
-        <v>429</v>
+        <v>213</v>
       </c>
       <c r="W16" s="19">
         <f t="shared" si="7"/>
-        <v>1389</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10646,7 +10723,7 @@
       </c>
       <c r="M35" s="28">
         <f>SUM(M14,M8)</f>
-        <v>30000</v>
+        <v>86500</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
@@ -10663,74 +10740,74 @@
       </c>
       <c r="B37" s="28">
         <f>SUM(B10+B16+B22+B28+B34)*Inputs!$C$95</f>
-        <v>1003.1999999999999</v>
+        <v>2367</v>
       </c>
       <c r="C37" s="28">
         <f>SUM(C10+C16+C22+C28+C34)*Inputs!$C$95</f>
-        <v>1003.1999999999999</v>
+        <v>1566</v>
       </c>
       <c r="D37" s="28">
         <f>SUM(D10+D16+D22+D28+D34)*Inputs!$C$95</f>
-        <v>1003.1999999999999</v>
+        <v>3384</v>
       </c>
       <c r="E37" s="28">
         <f>SUM(E10+E16+E22+E28+E34)*Inputs!$C$95</f>
-        <v>1003.1999999999999</v>
+        <v>2583</v>
       </c>
       <c r="F37" s="28">
         <f>SUM(F10+F16+F22+F28+F34)*Inputs!$C$95</f>
-        <v>1003.1999999999999</v>
+        <v>2772</v>
       </c>
       <c r="G37" s="28">
         <f>SUM(G10+G16+G22+G28+G34)*Inputs!$C$95</f>
-        <v>1003.1999999999999</v>
+        <v>3600</v>
       </c>
       <c r="H37" s="28">
         <f>SUM(H10+H16+H22+H28+H34)*Inputs!$C$95</f>
-        <v>1003.1999999999999</v>
+        <v>2799</v>
       </c>
       <c r="I37" s="28">
         <f>SUM(I10+I16+I22+I28+I34)*Inputs!$C$95</f>
-        <v>3703.2</v>
+        <v>1998</v>
       </c>
       <c r="J37" s="28">
         <f>SUM(B37:I37)</f>
-        <v>10725.599999999999</v>
+        <v>21069</v>
       </c>
       <c r="O37" t="s">
         <v>149</v>
       </c>
       <c r="P37" s="28">
         <f>SUM(P10+P16+P22+P28+P34)*Inputs!$C$95</f>
-        <v>207</v>
+        <v>601.5</v>
       </c>
       <c r="Q37" s="28">
         <f>SUM(Q10+Q16+Q22+Q28+Q34)*Inputs!$C$95</f>
-        <v>207</v>
+        <v>421.5</v>
       </c>
       <c r="R37" s="28">
         <f>SUM(R10+R16+R22+R28+R34)*Inputs!$C$95</f>
-        <v>207</v>
+        <v>565.5</v>
       </c>
       <c r="S37" s="28">
         <f>SUM(S10+S16+S22+S28+S34)*Inputs!$C$95</f>
-        <v>207</v>
+        <v>385.5</v>
       </c>
       <c r="T37" s="28">
         <f>SUM(T10+T16+T22+T28+T34)*Inputs!$C$95</f>
-        <v>207</v>
+        <v>205.5</v>
       </c>
       <c r="U37" s="28">
         <f>SUM(U10+U16+U22+U28+U34)*Inputs!$C$95</f>
-        <v>207</v>
+        <v>349.5</v>
       </c>
       <c r="V37" s="28">
         <f>SUM(V10+V16+V22+V28+V34)*Inputs!$C$95</f>
-        <v>207</v>
+        <v>169.5</v>
       </c>
       <c r="W37" s="28">
         <f>SUM(W10+W16+W22+W28+W34)*Inputs!$C$95</f>
-        <v>783</v>
+        <v>313.5</v>
       </c>
       <c r="X37" s="28"/>
       <c r="Z37" s="28"/>
@@ -10741,7 +10818,7 @@
       </c>
       <c r="B38" s="28">
         <f>B39*Inputs!$B$95</f>
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="C38" s="28">
         <f>C39*Inputs!$B$95</f>
@@ -10749,7 +10826,7 @@
       </c>
       <c r="D38" s="28">
         <f>D39*Inputs!$B$95</f>
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="E38" s="28">
         <f>E39*Inputs!$B$95</f>
@@ -10757,11 +10834,11 @@
       </c>
       <c r="F38" s="28">
         <f>F39*Inputs!$B$95</f>
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G38" s="28">
         <f>G39*Inputs!$B$95</f>
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="H38" s="28">
         <f>H39*Inputs!$B$95</f>
@@ -10769,11 +10846,11 @@
       </c>
       <c r="I38" s="28">
         <f>I39*Inputs!$B$95</f>
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="J38" s="28">
         <f>SUM(B38:I38)</f>
-        <v>4600</v>
+        <v>11500</v>
       </c>
       <c r="O38" t="s">
         <v>150</v>
@@ -10788,7 +10865,7 @@
       </c>
       <c r="R38" s="28">
         <f>R39*Inputs!$B$96</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="S38" s="28">
         <f>S39*Inputs!$B$96</f>
@@ -10800,7 +10877,7 @@
       </c>
       <c r="U38" s="28">
         <f>U39*Inputs!$B$96</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="V38" s="28">
         <f>V39*Inputs!$B$96</f>
@@ -10808,7 +10885,7 @@
       </c>
       <c r="W38" s="28">
         <f>W39*Inputs!$B$96</f>
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="X38" s="28"/>
       <c r="Z38" s="28"/>
@@ -10819,7 +10896,7 @@
       </c>
       <c r="B39">
         <f>+COUNTIF(B42:B46,"&gt;0")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <f t="shared" ref="C39:I39" si="20">+COUNTIF(C42:C46,"&gt;0")</f>
@@ -10827,7 +10904,7 @@
       </c>
       <c r="D39">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <f t="shared" si="20"/>
@@ -10835,11 +10912,11 @@
       </c>
       <c r="F39">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <f t="shared" si="20"/>
@@ -10847,7 +10924,7 @@
       </c>
       <c r="I39">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O39" t="s">
         <v>151</v>
@@ -10862,7 +10939,7 @@
       </c>
       <c r="R39">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39">
         <f t="shared" si="21"/>
@@ -10874,7 +10951,7 @@
       </c>
       <c r="U39">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39">
         <f t="shared" si="21"/>
@@ -10882,13 +10959,13 @@
       </c>
       <c r="W39">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="J40" s="28">
         <f>+SUM(J37:J38)</f>
-        <v>15325.599999999999</v>
+        <v>32569</v>
       </c>
       <c r="X40" s="28"/>
     </row>
@@ -10911,7 +10988,7 @@
       </c>
       <c r="D42" s="24">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="E42" s="24">
         <f t="shared" si="22"/>
@@ -10923,7 +11000,7 @@
       </c>
       <c r="G42" s="24">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="H42" s="24">
         <f t="shared" si="22"/>
@@ -10931,7 +11008,7 @@
       </c>
       <c r="I42" s="24">
         <f t="shared" si="22"/>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="P42" s="24">
         <f>P8</f>
@@ -10943,7 +11020,7 @@
       </c>
       <c r="R42" s="24">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="S42" s="24">
         <f t="shared" si="23"/>
@@ -10955,7 +11032,7 @@
       </c>
       <c r="U42" s="24">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="V42" s="24">
         <f t="shared" si="23"/>
@@ -10963,13 +11040,13 @@
       </c>
       <c r="W42" s="24">
         <f t="shared" si="23"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B43" s="24">
         <f>B14</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C43" s="24">
         <f t="shared" ref="C43:I43" si="24">C14</f>
@@ -10977,7 +11054,7 @@
       </c>
       <c r="D43" s="24">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="E43" s="24">
         <f t="shared" si="24"/>
@@ -10985,7 +11062,7 @@
       </c>
       <c r="F43" s="24">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G43" s="24">
         <f t="shared" si="24"/>
@@ -10997,11 +11074,11 @@
       </c>
       <c r="I43" s="24">
         <f t="shared" si="24"/>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <f>+VLOOKUP(Inputs!B110,Inputs!A107:B109,2,FALSE)</f>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="P43" s="24">
         <f>P14</f>
@@ -11033,7 +11110,7 @@
       </c>
       <c r="W43" s="24">
         <f t="shared" si="25"/>
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
@@ -11237,7 +11314,7 @@
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B48">
         <f>SUM(B42:B46)*$K$43</f>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="C48">
         <f t="shared" ref="C48:I48" si="32">SUM(C42:C46)*$K$43</f>
@@ -11245,7 +11322,7 @@
       </c>
       <c r="D48">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>36375</v>
       </c>
       <c r="E48">
         <f t="shared" si="32"/>
@@ -11253,11 +11330,11 @@
       </c>
       <c r="F48">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="G48">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>22625</v>
       </c>
       <c r="H48">
         <f t="shared" si="32"/>
@@ -11265,7 +11342,7 @@
       </c>
       <c r="I48">
         <f t="shared" si="32"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11344,7 +11421,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J20"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11423,7 +11500,7 @@
       </c>
       <c r="C4" s="28">
         <f>Inventario_Dinamico!B38</f>
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="D4" s="28">
         <f>Inventario_Dinamico!C38</f>
@@ -11431,7 +11508,7 @@
       </c>
       <c r="E4" s="28">
         <f>Inventario_Dinamico!D38</f>
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="F4" s="28">
         <f>Inventario_Dinamico!E38</f>
@@ -11439,11 +11516,11 @@
       </c>
       <c r="G4" s="28">
         <f>Inventario_Dinamico!F38</f>
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="H4" s="28">
         <f>Inventario_Dinamico!G38</f>
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="I4" s="28">
         <f>Inventario_Dinamico!H38</f>
@@ -11451,7 +11528,7 @@
       </c>
       <c r="J4" s="28">
         <f>Inventario_Dinamico!I38</f>
-        <v>4600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -11468,7 +11545,7 @@
       </c>
       <c r="E5" s="43">
         <f>Inventario_Dinamico!R38</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="F5" s="43">
         <f>Inventario_Dinamico!S38</f>
@@ -11480,7 +11557,7 @@
       </c>
       <c r="H5" s="43">
         <f>Inventario_Dinamico!U38</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I5" s="43">
         <f>Inventario_Dinamico!V38</f>
@@ -11488,14 +11565,14 @@
       </c>
       <c r="J5" s="43">
         <f>Inventario_Dinamico!W38</f>
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="42"/>
       <c r="C6" s="28">
         <f t="shared" ref="C6:J6" si="0">SUM(C4:C5)</f>
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="D6" s="28">
         <f t="shared" si="0"/>
@@ -11503,7 +11580,7 @@
       </c>
       <c r="E6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10600</v>
       </c>
       <c r="F6" s="28">
         <f t="shared" si="0"/>
@@ -11511,11 +11588,11 @@
       </c>
       <c r="G6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="H6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8300</v>
       </c>
       <c r="I6" s="28">
         <f t="shared" si="0"/>
@@ -11523,7 +11600,7 @@
       </c>
       <c r="J6" s="28">
         <f t="shared" si="0"/>
-        <v>16600</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -11544,39 +11621,39 @@
       </c>
       <c r="C8" s="28">
         <f>Inventario_Dinamico!B37</f>
-        <v>1003.1999999999999</v>
+        <v>2367</v>
       </c>
       <c r="D8" s="28">
         <f>Inventario_Dinamico!C37</f>
-        <v>1003.1999999999999</v>
+        <v>1566</v>
       </c>
       <c r="E8" s="28">
         <f>Inventario_Dinamico!D37</f>
-        <v>1003.1999999999999</v>
+        <v>3384</v>
       </c>
       <c r="F8" s="28">
         <f>Inventario_Dinamico!E37</f>
-        <v>1003.1999999999999</v>
+        <v>2583</v>
       </c>
       <c r="G8" s="28">
         <f>Inventario_Dinamico!F37</f>
-        <v>1003.1999999999999</v>
+        <v>2772</v>
       </c>
       <c r="H8" s="28">
         <f>Inventario_Dinamico!G37</f>
-        <v>1003.1999999999999</v>
+        <v>3600</v>
       </c>
       <c r="I8" s="28">
         <f>Inventario_Dinamico!H37</f>
-        <v>1003.1999999999999</v>
+        <v>2799</v>
       </c>
       <c r="J8" s="28">
         <f>Inventario_Dinamico!I37</f>
-        <v>3703.2</v>
+        <v>1998</v>
       </c>
       <c r="K8" t="str">
         <f>+VLOOKUP(Inputs!B110,Inputs!A107:C109,3,FALSE)</f>
-        <v>+2 Quincenas</v>
+        <v>Inmediato (0Q)</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -11585,73 +11662,73 @@
       </c>
       <c r="C9" s="43">
         <f>Inventario_Dinamico!P37</f>
-        <v>207</v>
+        <v>601.5</v>
       </c>
       <c r="D9" s="43">
         <f>Inventario_Dinamico!Q37</f>
-        <v>207</v>
+        <v>421.5</v>
       </c>
       <c r="E9" s="43">
         <f>Inventario_Dinamico!R37</f>
-        <v>207</v>
+        <v>565.5</v>
       </c>
       <c r="F9" s="43">
         <f>Inventario_Dinamico!S37</f>
-        <v>207</v>
+        <v>385.5</v>
       </c>
       <c r="G9" s="43">
         <f>Inventario_Dinamico!T37</f>
-        <v>207</v>
+        <v>205.5</v>
       </c>
       <c r="H9" s="43">
         <f>Inventario_Dinamico!U37</f>
-        <v>207</v>
+        <v>349.5</v>
       </c>
       <c r="I9" s="43">
         <f>Inventario_Dinamico!V37</f>
-        <v>207</v>
+        <v>169.5</v>
       </c>
       <c r="J9" s="43">
         <f>Inventario_Dinamico!W37</f>
-        <v>783</v>
+        <v>313.5</v>
       </c>
       <c r="K9" t="str">
         <f>VLOOKUP(Inputs!B118,Inputs!A114:C117,3,FALSE)</f>
-        <v>+2 Quincenas</v>
+        <v>Inmediato (0Q)</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C10" s="28">
         <f t="shared" ref="C10:J10" si="1">+SUM(C8:C9)</f>
-        <v>1210.1999999999998</v>
+        <v>2968.5</v>
       </c>
       <c r="D10" s="28">
         <f t="shared" si="1"/>
-        <v>1210.1999999999998</v>
+        <v>1987.5</v>
       </c>
       <c r="E10" s="28">
         <f t="shared" si="1"/>
-        <v>1210.1999999999998</v>
+        <v>3949.5</v>
       </c>
       <c r="F10" s="28">
         <f t="shared" si="1"/>
-        <v>1210.1999999999998</v>
+        <v>2968.5</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" si="1"/>
-        <v>1210.1999999999998</v>
+        <v>2977.5</v>
       </c>
       <c r="H10" s="28">
         <f t="shared" si="1"/>
-        <v>1210.1999999999998</v>
+        <v>3949.5</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" si="1"/>
-        <v>1210.1999999999998</v>
+        <v>2968.5</v>
       </c>
       <c r="J10" s="28">
         <f t="shared" si="1"/>
-        <v>4486.2</v>
+        <v>2311.5</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -11668,7 +11745,7 @@
       </c>
       <c r="C12" s="1">
         <f>(Inventario_Dinamico!B8+Inventario_Dinamico!B14+Inventario_Dinamico!B20+Inventario_Dinamico!B26+Inventario_Dinamico!B32)*$L$12</f>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="D12" s="1">
         <f>(Inventario_Dinamico!C8+Inventario_Dinamico!C14+Inventario_Dinamico!C20+Inventario_Dinamico!C26+Inventario_Dinamico!C32)*$L$12</f>
@@ -11676,7 +11753,7 @@
       </c>
       <c r="E12" s="1">
         <f>(Inventario_Dinamico!D8+Inventario_Dinamico!D14+Inventario_Dinamico!D20+Inventario_Dinamico!D26+Inventario_Dinamico!D32)*$L$12</f>
-        <v>0</v>
+        <v>36375</v>
       </c>
       <c r="F12" s="1">
         <f>(Inventario_Dinamico!E8+Inventario_Dinamico!E14+Inventario_Dinamico!E20+Inventario_Dinamico!E26+Inventario_Dinamico!E32)*$L$12</f>
@@ -11684,11 +11761,11 @@
       </c>
       <c r="G12" s="1">
         <f>(Inventario_Dinamico!F8+Inventario_Dinamico!F14+Inventario_Dinamico!F20+Inventario_Dinamico!F26+Inventario_Dinamico!F32)*$L$12</f>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="H12" s="1">
         <f>(Inventario_Dinamico!G8+Inventario_Dinamico!G14+Inventario_Dinamico!G20+Inventario_Dinamico!G26+Inventario_Dinamico!G32)*$L$12</f>
-        <v>0</v>
+        <v>22625</v>
       </c>
       <c r="I12" s="1">
         <f>(Inventario_Dinamico!H8+Inventario_Dinamico!H14+Inventario_Dinamico!H20+Inventario_Dinamico!H26+Inventario_Dinamico!H32)*$L$12</f>
@@ -11696,11 +11773,11 @@
       </c>
       <c r="J12" s="1">
         <f>(Inventario_Dinamico!I8+Inventario_Dinamico!I14+Inventario_Dinamico!I20+Inventario_Dinamico!I26+Inventario_Dinamico!I32)*$L$12</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <f>+VLOOKUP(Inputs!B110,Inputs!A107:B109,2,FALSE)</f>
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -11717,7 +11794,7 @@
       </c>
       <c r="E13" s="1">
         <f>(Inventario_Dinamico!R8+Inventario_Dinamico!R14+Inventario_Dinamico!R20+Inventario_Dinamico!R26+Inventario_Dinamico!R32)*$L$13</f>
-        <v>0</v>
+        <v>29700</v>
       </c>
       <c r="F13" s="1">
         <f>(Inventario_Dinamico!S8+Inventario_Dinamico!S14+Inventario_Dinamico!S20+Inventario_Dinamico!S26+Inventario_Dinamico!S32)*$L$13</f>
@@ -11729,7 +11806,7 @@
       </c>
       <c r="H13" s="1">
         <f>(Inventario_Dinamico!U8+Inventario_Dinamico!U14+Inventario_Dinamico!U20+Inventario_Dinamico!U26+Inventario_Dinamico!U32)*$L$13</f>
-        <v>0</v>
+        <v>29700</v>
       </c>
       <c r="I13" s="1">
         <f>(Inventario_Dinamico!V8+Inventario_Dinamico!V14+Inventario_Dinamico!V20+Inventario_Dinamico!V26+Inventario_Dinamico!V32)*$L$13</f>
@@ -11737,11 +11814,11 @@
       </c>
       <c r="J13" s="1">
         <f>(Inventario_Dinamico!W8+Inventario_Dinamico!W14+Inventario_Dinamico!W20+Inventario_Dinamico!W26+Inventario_Dinamico!W32)*$L$13</f>
-        <v>42240</v>
+        <v>29700</v>
       </c>
       <c r="L13">
         <f>+VLOOKUP(Inputs!B118,Inputs!A114:B117,2,FALSE)</f>
-        <v>264</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -11750,7 +11827,7 @@
       </c>
       <c r="B14" s="28">
         <f>BOM_Consumo_Piezas!P6+BOM_Consumo_Piezas!P16+BOM_Consumo_Piezas!P26+BOM_Consumo_Piezas!P36+BOM_Consumo_Piezas!P46</f>
-        <v>0</v>
+        <v>11520</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -11767,7 +11844,7 @@
       </c>
       <c r="B15" s="28">
         <f>BOM_Consumo_Piezas!P7+BOM_Consumo_Piezas!P17+BOM_Consumo_Piezas!P27+BOM_Consumo_Piezas!P37+BOM_Consumo_Piezas!P47</f>
-        <v>0</v>
+        <v>12677</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -11784,7 +11861,7 @@
       </c>
       <c r="B16" s="28">
         <f>BOM_Consumo_Piezas!P8+BOM_Consumo_Piezas!P18+BOM_Consumo_Piezas!P28+BOM_Consumo_Piezas!P38+BOM_Consumo_Piezas!P48</f>
-        <v>0</v>
+        <v>7776</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -11801,7 +11878,7 @@
       </c>
       <c r="B17" s="28">
         <f>BOM_Consumo_Piezas!P9+BOM_Consumo_Piezas!P19+BOM_Consumo_Piezas!P29+BOM_Consumo_Piezas!P39+BOM_Consumo_Piezas!P49</f>
-        <v>0</v>
+        <v>5256</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -11818,7 +11895,7 @@
       </c>
       <c r="B18" s="28">
         <f>BOM_Consumo_Piezas!P10+BOM_Consumo_Piezas!P20+BOM_Consumo_Piezas!P30+BOM_Consumo_Piezas!P40+BOM_Consumo_Piezas!P50</f>
-        <v>0</v>
+        <v>13320</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -11835,7 +11912,7 @@
       </c>
       <c r="B19" s="43">
         <f>BOM_Consumo_Piezas!P11+BOM_Consumo_Piezas!P21+BOM_Consumo_Piezas!P31+BOM_Consumo_Piezas!P41+BOM_Consumo_Piezas!P51</f>
-        <v>0</v>
+        <v>3080</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
@@ -11849,11 +11926,11 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <f>SUM(B12:B19)</f>
-        <v>0</v>
+        <v>53629</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ref="C20:J20" si="2">SUM(C12:C19)</f>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="2"/>
@@ -11861,7 +11938,7 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>66075</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="2"/>
@@ -11869,11 +11946,11 @@
       </c>
       <c r="G20" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>52325</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="2"/>
@@ -11881,7 +11958,7 @@
       </c>
       <c r="J20" s="1">
         <f t="shared" si="2"/>
-        <v>72240</v>
+        <v>29700</v>
       </c>
     </row>
   </sheetData>
@@ -11972,7 +12049,7 @@
       </c>
       <c r="C4" s="28">
         <f>Inventario_Dinamico!B38</f>
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="D4" s="28">
         <f>Inventario_Dinamico!C38</f>
@@ -11980,7 +12057,7 @@
       </c>
       <c r="E4" s="28">
         <f>Inventario_Dinamico!D38</f>
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="F4" s="28">
         <f>Inventario_Dinamico!E38</f>
@@ -11988,11 +12065,11 @@
       </c>
       <c r="G4" s="28">
         <f>Inventario_Dinamico!F38</f>
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="H4" s="28">
         <f>Inventario_Dinamico!G38</f>
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="I4" s="28">
         <f>Inventario_Dinamico!H38</f>
@@ -12000,7 +12077,7 @@
       </c>
       <c r="J4" s="28">
         <f>Inventario_Dinamico!I38</f>
-        <v>4600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -12017,7 +12094,7 @@
       </c>
       <c r="E5" s="43">
         <f>Inventario_Dinamico!R38</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="F5" s="43">
         <f>Inventario_Dinamico!S38</f>
@@ -12029,7 +12106,7 @@
       </c>
       <c r="H5" s="43">
         <f>Inventario_Dinamico!U38</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I5" s="43">
         <f>Inventario_Dinamico!V38</f>
@@ -12037,14 +12114,14 @@
       </c>
       <c r="J5" s="43">
         <f>Inventario_Dinamico!W38</f>
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="42"/>
       <c r="C6" s="28">
         <f t="shared" ref="C6:J6" si="0">SUM(C4:C5)</f>
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="D6" s="28">
         <f t="shared" si="0"/>
@@ -12052,7 +12129,7 @@
       </c>
       <c r="E6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10600</v>
       </c>
       <c r="F6" s="28">
         <f t="shared" si="0"/>
@@ -12060,11 +12137,11 @@
       </c>
       <c r="G6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="H6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8300</v>
       </c>
       <c r="I6" s="28">
         <f t="shared" si="0"/>
@@ -12072,7 +12149,7 @@
       </c>
       <c r="J6" s="28">
         <f t="shared" si="0"/>
-        <v>16600</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -12093,39 +12170,39 @@
       </c>
       <c r="C8" s="28">
         <f>Inventario_Dinamico!B37</f>
-        <v>1003.1999999999999</v>
+        <v>2367</v>
       </c>
       <c r="D8" s="28">
         <f>Inventario_Dinamico!C37</f>
-        <v>1003.1999999999999</v>
+        <v>1566</v>
       </c>
       <c r="E8" s="28">
         <f>Inventario_Dinamico!D37</f>
-        <v>1003.1999999999999</v>
+        <v>3384</v>
       </c>
       <c r="F8" s="28">
         <f>Inventario_Dinamico!E37</f>
-        <v>1003.1999999999999</v>
+        <v>2583</v>
       </c>
       <c r="G8" s="28">
         <f>Inventario_Dinamico!F37</f>
-        <v>1003.1999999999999</v>
+        <v>2772</v>
       </c>
       <c r="H8" s="28">
         <f>Inventario_Dinamico!G37</f>
-        <v>1003.1999999999999</v>
+        <v>3600</v>
       </c>
       <c r="I8" s="28">
         <f>Inventario_Dinamico!H37</f>
-        <v>1003.1999999999999</v>
+        <v>2799</v>
       </c>
       <c r="J8" s="28">
         <f>Inventario_Dinamico!I37</f>
-        <v>3703.2</v>
+        <v>1998</v>
       </c>
       <c r="K8" t="str">
         <f>+VLOOKUP(Inputs!B110,Inputs!A107:C109,3,FALSE)</f>
-        <v>+2 Quincenas</v>
+        <v>Inmediato (0Q)</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -12134,73 +12211,73 @@
       </c>
       <c r="C9" s="43">
         <f>Inventario_Dinamico!P37</f>
-        <v>207</v>
+        <v>601.5</v>
       </c>
       <c r="D9" s="43">
         <f>Inventario_Dinamico!Q37</f>
-        <v>207</v>
+        <v>421.5</v>
       </c>
       <c r="E9" s="43">
         <f>Inventario_Dinamico!R37</f>
-        <v>207</v>
+        <v>565.5</v>
       </c>
       <c r="F9" s="43">
         <f>Inventario_Dinamico!S37</f>
-        <v>207</v>
+        <v>385.5</v>
       </c>
       <c r="G9" s="43">
         <f>Inventario_Dinamico!T37</f>
-        <v>207</v>
+        <v>205.5</v>
       </c>
       <c r="H9" s="43">
         <f>Inventario_Dinamico!U37</f>
-        <v>207</v>
+        <v>349.5</v>
       </c>
       <c r="I9" s="43">
         <f>Inventario_Dinamico!V37</f>
-        <v>207</v>
+        <v>169.5</v>
       </c>
       <c r="J9" s="43">
         <f>Inventario_Dinamico!W37</f>
-        <v>783</v>
+        <v>313.5</v>
       </c>
       <c r="K9" t="str">
         <f>VLOOKUP(Inputs!B118,Inputs!A114:C117,3,FALSE)</f>
-        <v>+2 Quincenas</v>
+        <v>Inmediato (0Q)</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="28">
         <f t="shared" ref="C10:J10" si="1">+SUM(C8:C9)</f>
-        <v>1210.1999999999998</v>
+        <v>2968.5</v>
       </c>
       <c r="D10" s="28">
         <f t="shared" si="1"/>
-        <v>1210.1999999999998</v>
+        <v>1987.5</v>
       </c>
       <c r="E10" s="28">
         <f t="shared" si="1"/>
-        <v>1210.1999999999998</v>
+        <v>3949.5</v>
       </c>
       <c r="F10" s="28">
         <f t="shared" si="1"/>
-        <v>1210.1999999999998</v>
+        <v>2968.5</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" si="1"/>
-        <v>1210.1999999999998</v>
+        <v>2977.5</v>
       </c>
       <c r="H10" s="28">
         <f t="shared" si="1"/>
-        <v>1210.1999999999998</v>
+        <v>3949.5</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" si="1"/>
-        <v>1210.1999999999998</v>
+        <v>2968.5</v>
       </c>
       <c r="J10" s="28">
         <f t="shared" si="1"/>
-        <v>4486.2</v>
+        <v>2311.5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -12214,7 +12291,7 @@
       </c>
       <c r="C12" s="1">
         <f>(Inventario_Dinamico!B8+Inventario_Dinamico!B14+Inventario_Dinamico!B20+Inventario_Dinamico!B26+Inventario_Dinamico!B32)*$L$12</f>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="D12" s="1">
         <f>(Inventario_Dinamico!C8+Inventario_Dinamico!C14+Inventario_Dinamico!C20+Inventario_Dinamico!C26+Inventario_Dinamico!C32)*$L$12</f>
@@ -12222,7 +12299,7 @@
       </c>
       <c r="E12" s="1">
         <f>(Inventario_Dinamico!D8+Inventario_Dinamico!D14+Inventario_Dinamico!D20+Inventario_Dinamico!D26+Inventario_Dinamico!D32)*$L$12</f>
-        <v>0</v>
+        <v>36375</v>
       </c>
       <c r="F12" s="1">
         <f>(Inventario_Dinamico!E8+Inventario_Dinamico!E14+Inventario_Dinamico!E20+Inventario_Dinamico!E26+Inventario_Dinamico!E32)*$L$12</f>
@@ -12230,11 +12307,11 @@
       </c>
       <c r="G12" s="1">
         <f>(Inventario_Dinamico!F8+Inventario_Dinamico!F14+Inventario_Dinamico!F20+Inventario_Dinamico!F26+Inventario_Dinamico!F32)*$L$12</f>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="H12" s="1">
         <f>(Inventario_Dinamico!G8+Inventario_Dinamico!G14+Inventario_Dinamico!G20+Inventario_Dinamico!G26+Inventario_Dinamico!G32)*$L$12</f>
-        <v>0</v>
+        <v>22625</v>
       </c>
       <c r="I12" s="1">
         <f>(Inventario_Dinamico!H8+Inventario_Dinamico!H14+Inventario_Dinamico!H20+Inventario_Dinamico!H26+Inventario_Dinamico!H32)*$L$12</f>
@@ -12242,11 +12319,11 @@
       </c>
       <c r="J12" s="1">
         <f>(Inventario_Dinamico!I8+Inventario_Dinamico!I14+Inventario_Dinamico!I20+Inventario_Dinamico!I26+Inventario_Dinamico!I32)*$L$12</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <f>+VLOOKUP(Inputs!B110,Inputs!A107:B109,2,FALSE)</f>
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -12263,7 +12340,7 @@
       </c>
       <c r="E13" s="1">
         <f>(Inventario_Dinamico!R8+Inventario_Dinamico!R14+Inventario_Dinamico!R20+Inventario_Dinamico!R26+Inventario_Dinamico!R32)*$L$13</f>
-        <v>0</v>
+        <v>29700</v>
       </c>
       <c r="F13" s="1">
         <f>(Inventario_Dinamico!S8+Inventario_Dinamico!S14+Inventario_Dinamico!S20+Inventario_Dinamico!S26+Inventario_Dinamico!S32)*$L$13</f>
@@ -12275,7 +12352,7 @@
       </c>
       <c r="H13" s="1">
         <f>(Inventario_Dinamico!U8+Inventario_Dinamico!U14+Inventario_Dinamico!U20+Inventario_Dinamico!U26+Inventario_Dinamico!U32)*$L$13</f>
-        <v>0</v>
+        <v>29700</v>
       </c>
       <c r="I13" s="1">
         <f>(Inventario_Dinamico!V8+Inventario_Dinamico!V14+Inventario_Dinamico!V20+Inventario_Dinamico!V26+Inventario_Dinamico!V32)*$L$13</f>
@@ -12283,11 +12360,11 @@
       </c>
       <c r="J13" s="1">
         <f>(Inventario_Dinamico!W8+Inventario_Dinamico!W14+Inventario_Dinamico!W20+Inventario_Dinamico!W26+Inventario_Dinamico!W32)*$L$13</f>
-        <v>42240</v>
+        <v>29700</v>
       </c>
       <c r="L13">
         <f>+VLOOKUP(Inputs!B118,Inputs!A114:B117,2,FALSE)</f>
-        <v>264</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -12296,7 +12373,7 @@
       </c>
       <c r="B14" s="28">
         <f>BOM_Consumo_Piezas!P6+BOM_Consumo_Piezas!P16+BOM_Consumo_Piezas!P26+BOM_Consumo_Piezas!P36+BOM_Consumo_Piezas!P46</f>
-        <v>0</v>
+        <v>11520</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -12313,7 +12390,7 @@
       </c>
       <c r="B15" s="28">
         <f>BOM_Consumo_Piezas!P7+BOM_Consumo_Piezas!P17+BOM_Consumo_Piezas!P27+BOM_Consumo_Piezas!P37+BOM_Consumo_Piezas!P47</f>
-        <v>0</v>
+        <v>12677</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -12330,7 +12407,7 @@
       </c>
       <c r="B16" s="28">
         <f>BOM_Consumo_Piezas!P8+BOM_Consumo_Piezas!P18+BOM_Consumo_Piezas!P28+BOM_Consumo_Piezas!P38+BOM_Consumo_Piezas!P48</f>
-        <v>0</v>
+        <v>7776</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -12347,7 +12424,7 @@
       </c>
       <c r="B17" s="28">
         <f>BOM_Consumo_Piezas!P9+BOM_Consumo_Piezas!P19+BOM_Consumo_Piezas!P29+BOM_Consumo_Piezas!P39+BOM_Consumo_Piezas!P49</f>
-        <v>0</v>
+        <v>5256</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -12364,7 +12441,7 @@
       </c>
       <c r="B18" s="28">
         <f>BOM_Consumo_Piezas!P10+BOM_Consumo_Piezas!P20+BOM_Consumo_Piezas!P30+BOM_Consumo_Piezas!P40+BOM_Consumo_Piezas!P50</f>
-        <v>0</v>
+        <v>13320</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -12381,7 +12458,7 @@
       </c>
       <c r="B19" s="43">
         <f>BOM_Consumo_Piezas!P11+BOM_Consumo_Piezas!P21+BOM_Consumo_Piezas!P31+BOM_Consumo_Piezas!P41+BOM_Consumo_Piezas!P51</f>
-        <v>0</v>
+        <v>3080</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
@@ -12395,11 +12472,11 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <f>SUM(B12:B19)</f>
-        <v>0</v>
+        <v>53629</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ref="C20:J20" si="2">SUM(C12:C19)</f>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="2"/>
@@ -12407,7 +12484,7 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>66075</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="2"/>
@@ -12415,11 +12492,11 @@
       </c>
       <c r="G20" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>52325</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="2"/>
@@ -12427,7 +12504,7 @@
       </c>
       <c r="J20" s="1">
         <f t="shared" si="2"/>
-        <v>72240</v>
+        <v>29700</v>
       </c>
     </row>
   </sheetData>

--- a/Procurement/EXSIM_Mezquite_Purchasing_CORREGIDO_FIX_with_policies.xlsx
+++ b/Procurement/EXSIM_Mezquite_Purchasing_CORREGIDO_FIX_with_policies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0dc407a335d7300f/Documentos/GitHub/BusinessSim/Procurement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1809" documentId="6_{4F45DE64-BE33-4F18-9BCE-C4F36FED717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7643515E-B572-4153-B2B3-0A9CBFFA41B0}"/>
+  <xr:revisionPtr revIDLastSave="2149" documentId="6_{4F45DE64-BE33-4F18-9BCE-C4F36FED717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E356E6B7-3246-4227-8BD7-6D96B07B54BC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Costos" sheetId="19" r:id="rId5"/>
     <sheet name="Proveedor B" sheetId="20" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -663,14 +663,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Cambria"/>
-      <family val="1"/>
+      <sz val="7"/>
+      <color rgb="FF0F0F0F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,14 +699,8 @@
         <fgColor rgb="FF1F4E79"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -786,33 +779,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -822,7 +794,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -946,12 +918,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Encabezado 1" xfId="2" builtinId="16"/>
@@ -959,7 +930,28 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título" xfId="3" builtinId="15"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1296,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1354,7 +1346,7 @@
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1386,70 +1378,74 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="63">
-        <v>1920</v>
-      </c>
-      <c r="C6" s="64">
-        <v>1920</v>
-      </c>
-      <c r="D6" s="64">
-        <v>1920</v>
-      </c>
-      <c r="E6" s="64">
-        <v>1920</v>
-      </c>
-      <c r="F6" s="64">
-        <v>1920</v>
-      </c>
-      <c r="G6" s="64">
-        <v>1920</v>
-      </c>
-      <c r="H6" s="64">
-        <v>1920</v>
-      </c>
-      <c r="I6" s="64">
-        <v>1920</v>
+        <v>1864</v>
+      </c>
+      <c r="C6" s="63">
+        <v>1864</v>
+      </c>
+      <c r="D6" s="63">
+        <v>1864</v>
+      </c>
+      <c r="E6" s="63">
+        <v>1864</v>
+      </c>
+      <c r="F6" s="63">
+        <v>1864</v>
+      </c>
+      <c r="G6" s="63">
+        <v>1864</v>
+      </c>
+      <c r="H6" s="63">
+        <v>1864</v>
+      </c>
+      <c r="I6" s="63">
+        <v>1864</v>
       </c>
       <c r="J6" s="7">
         <f>SUM(B6:I6)</f>
-        <v>15360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="63">
-        <v>750</v>
-      </c>
-      <c r="C7" s="64">
-        <v>750</v>
-      </c>
-      <c r="D7" s="64">
-        <v>750</v>
-      </c>
-      <c r="E7" s="64">
-        <v>750</v>
-      </c>
-      <c r="F7" s="64">
-        <v>750</v>
-      </c>
-      <c r="G7" s="64">
-        <v>750</v>
-      </c>
-      <c r="H7" s="64">
-        <v>750</v>
-      </c>
-      <c r="I7" s="64">
-        <v>750</v>
+      <c r="B7" s="48">
+        <v>1164</v>
+      </c>
+      <c r="C7" s="48">
+        <v>1164</v>
+      </c>
+      <c r="D7" s="48">
+        <v>1164</v>
+      </c>
+      <c r="E7" s="48">
+        <v>1164</v>
+      </c>
+      <c r="F7" s="48">
+        <v>1164</v>
+      </c>
+      <c r="G7" s="48">
+        <v>1164</v>
+      </c>
+      <c r="H7" s="48">
+        <v>1164</v>
+      </c>
+      <c r="I7" s="48">
+        <v>1164</v>
       </c>
       <c r="J7" s="7">
         <f>SUM(B7:I7)</f>
-        <v>6000</v>
+        <v>9312</v>
+      </c>
+      <c r="N7">
+        <f>1401/1.08</f>
+        <v>1297.2222222222222</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1517,6 +1513,13 @@
         <f>SUM(B9:I9)</f>
         <v>0</v>
       </c>
+      <c r="L9" s="63">
+        <v>1512</v>
+      </c>
+      <c r="M9">
+        <f>L9/B6</f>
+        <v>0.81115879828326176</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -1557,39 +1560,39 @@
       </c>
       <c r="B11" s="24">
         <f t="shared" ref="B11:I11" si="0">+SUM(B6:B10)</f>
-        <v>2670</v>
+        <v>3028</v>
       </c>
       <c r="C11" s="24">
         <f t="shared" si="0"/>
-        <v>2670</v>
+        <v>3028</v>
       </c>
       <c r="D11" s="24">
         <f t="shared" si="0"/>
-        <v>2670</v>
+        <v>3028</v>
       </c>
       <c r="E11" s="24">
         <f t="shared" si="0"/>
-        <v>2670</v>
+        <v>3028</v>
       </c>
       <c r="F11" s="24">
         <f t="shared" si="0"/>
-        <v>2670</v>
+        <v>3028</v>
       </c>
       <c r="G11" s="24">
         <f t="shared" si="0"/>
-        <v>2670</v>
+        <v>3028</v>
       </c>
       <c r="H11" s="24">
         <f t="shared" si="0"/>
-        <v>2670</v>
+        <v>3028</v>
       </c>
       <c r="I11" s="24">
         <f t="shared" si="0"/>
-        <v>2670</v>
+        <v>3028</v>
       </c>
       <c r="J11" s="24">
         <f>+SUM(J6:J10)</f>
-        <v>21360</v>
+        <v>24224</v>
       </c>
       <c r="N11">
         <f>745*0.97</f>
@@ -1623,7 +1626,7 @@
       <c r="J13" s="50"/>
       <c r="K13" s="50"/>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
@@ -1655,74 +1658,74 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="63">
-        <v>2160</v>
-      </c>
-      <c r="C15" s="64">
-        <v>2160</v>
-      </c>
-      <c r="D15" s="64">
-        <v>2160</v>
-      </c>
-      <c r="E15" s="64">
-        <v>2160</v>
-      </c>
-      <c r="F15" s="64">
-        <v>2160</v>
-      </c>
-      <c r="G15" s="64">
-        <v>2160</v>
-      </c>
-      <c r="H15" s="64">
-        <v>2160</v>
-      </c>
-      <c r="I15" s="64">
-        <v>2160</v>
+        <v>1863</v>
+      </c>
+      <c r="C15" s="63">
+        <v>1863</v>
+      </c>
+      <c r="D15" s="63">
+        <v>1863</v>
+      </c>
+      <c r="E15" s="63">
+        <v>1863</v>
+      </c>
+      <c r="F15" s="63">
+        <v>1863</v>
+      </c>
+      <c r="G15" s="63">
+        <v>1863</v>
+      </c>
+      <c r="H15" s="63">
+        <v>1863</v>
+      </c>
+      <c r="I15" s="63">
+        <v>1863</v>
       </c>
       <c r="J15" s="7">
         <f>SUM(B15:I15)</f>
-        <v>17280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="63">
-        <v>840</v>
-      </c>
-      <c r="C16" s="64">
-        <v>840</v>
-      </c>
-      <c r="D16" s="64">
-        <v>840</v>
-      </c>
-      <c r="E16" s="64">
-        <v>840</v>
-      </c>
-      <c r="F16" s="64">
-        <v>840</v>
-      </c>
-      <c r="G16" s="64">
-        <v>840</v>
-      </c>
-      <c r="H16" s="64">
-        <v>840</v>
-      </c>
-      <c r="I16" s="64">
-        <v>840</v>
+      <c r="B16" s="48">
+        <v>1163</v>
+      </c>
+      <c r="C16" s="48">
+        <v>1163</v>
+      </c>
+      <c r="D16" s="48">
+        <v>1163</v>
+      </c>
+      <c r="E16" s="48">
+        <v>1163</v>
+      </c>
+      <c r="F16" s="48">
+        <v>1163</v>
+      </c>
+      <c r="G16" s="48">
+        <v>1163</v>
+      </c>
+      <c r="H16" s="48">
+        <v>1163</v>
+      </c>
+      <c r="I16" s="48">
+        <v>1163</v>
       </c>
       <c r="J16" s="7">
         <f>SUM(B16:I16)</f>
-        <v>6720</v>
+        <v>9304</v>
       </c>
       <c r="L16">
         <f>I16*0.2</f>
-        <v>168</v>
+        <v>232.60000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1830,39 +1833,39 @@
       </c>
       <c r="B20" s="24">
         <f t="shared" ref="B20:J20" si="1">+SUM(B15:B19)</f>
-        <v>3000</v>
+        <v>3026</v>
       </c>
       <c r="C20" s="24">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>3026</v>
       </c>
       <c r="D20" s="24">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>3026</v>
       </c>
       <c r="E20" s="24">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>3026</v>
       </c>
       <c r="F20" s="24">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>3026</v>
       </c>
       <c r="G20" s="24">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>3026</v>
       </c>
       <c r="H20" s="24">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>3026</v>
       </c>
       <c r="I20" s="24">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>3026</v>
       </c>
       <c r="J20" s="24">
         <f t="shared" si="1"/>
-        <v>24000</v>
+        <v>24208</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1892,7 +1895,7 @@
       <c r="J22" s="50"/>
       <c r="K22" s="50"/>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -1924,70 +1927,70 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="63">
-        <v>2029</v>
-      </c>
-      <c r="C24" s="64">
-        <v>2029</v>
-      </c>
-      <c r="D24" s="64">
-        <v>2029</v>
-      </c>
-      <c r="E24" s="64">
-        <v>2029</v>
-      </c>
-      <c r="F24" s="64">
-        <v>2029</v>
-      </c>
-      <c r="G24" s="64">
-        <v>2029</v>
-      </c>
-      <c r="H24" s="64">
-        <v>2029</v>
-      </c>
-      <c r="I24" s="64">
-        <v>2029</v>
+        <v>1863</v>
+      </c>
+      <c r="C24" s="63">
+        <v>1863</v>
+      </c>
+      <c r="D24" s="63">
+        <v>1863</v>
+      </c>
+      <c r="E24" s="63">
+        <v>1863</v>
+      </c>
+      <c r="F24" s="63">
+        <v>1863</v>
+      </c>
+      <c r="G24" s="63">
+        <v>1863</v>
+      </c>
+      <c r="H24" s="63">
+        <v>1863</v>
+      </c>
+      <c r="I24" s="63">
+        <v>1863</v>
       </c>
       <c r="J24" s="7">
         <f>SUM(B24:I24)</f>
-        <v>16232</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="63">
-        <v>800</v>
-      </c>
-      <c r="C25" s="64">
-        <v>800</v>
-      </c>
-      <c r="D25" s="64">
-        <v>800</v>
-      </c>
-      <c r="E25" s="64">
-        <v>800</v>
-      </c>
-      <c r="F25" s="64">
-        <v>800</v>
-      </c>
-      <c r="G25" s="64">
-        <v>800</v>
-      </c>
-      <c r="H25" s="64">
-        <v>800</v>
-      </c>
-      <c r="I25" s="64">
-        <v>800</v>
+      <c r="B25" s="48">
+        <v>1163</v>
+      </c>
+      <c r="C25" s="48">
+        <v>1163</v>
+      </c>
+      <c r="D25" s="48">
+        <v>1163</v>
+      </c>
+      <c r="E25" s="48">
+        <v>1163</v>
+      </c>
+      <c r="F25" s="48">
+        <v>1163</v>
+      </c>
+      <c r="G25" s="48">
+        <v>1163</v>
+      </c>
+      <c r="H25" s="48">
+        <v>1163</v>
+      </c>
+      <c r="I25" s="48">
+        <v>1163</v>
       </c>
       <c r="J25" s="7">
         <f>SUM(B25:I25)</f>
-        <v>6400</v>
+        <v>9304</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -2095,39 +2098,39 @@
       </c>
       <c r="B29" s="24">
         <f t="shared" ref="B29:J29" si="2">+SUM(B24:B28)</f>
-        <v>2829</v>
+        <v>3026</v>
       </c>
       <c r="C29" s="24">
         <f t="shared" si="2"/>
-        <v>2829</v>
+        <v>3026</v>
       </c>
       <c r="D29" s="24">
         <f t="shared" si="2"/>
-        <v>2829</v>
+        <v>3026</v>
       </c>
       <c r="E29" s="24">
         <f t="shared" si="2"/>
-        <v>2829</v>
+        <v>3026</v>
       </c>
       <c r="F29" s="24">
         <f t="shared" si="2"/>
-        <v>2829</v>
+        <v>3026</v>
       </c>
       <c r="G29" s="24">
         <f t="shared" si="2"/>
-        <v>2829</v>
+        <v>3026</v>
       </c>
       <c r="H29" s="24">
         <f t="shared" si="2"/>
-        <v>2829</v>
+        <v>3026</v>
       </c>
       <c r="I29" s="24">
         <f t="shared" si="2"/>
-        <v>2829</v>
+        <v>3026</v>
       </c>
       <c r="J29" s="24">
         <f t="shared" si="2"/>
-        <v>22632</v>
+        <v>24208</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2173,10 +2176,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="48">
-        <v>5564</v>
+        <v>19552</v>
       </c>
       <c r="C32" s="48">
-        <v>1696</v>
+        <v>14864</v>
       </c>
       <c r="D32" s="6">
         <v>0</v>
@@ -2199,10 +2202,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="48">
-        <v>1216</v>
+        <v>4467</v>
       </c>
       <c r="C33" s="48">
-        <v>1389</v>
+        <v>19</v>
       </c>
       <c r="D33" s="6">
         <v>0</v>
@@ -2225,10 +2228,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="48">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C34" s="48">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D34" s="6">
         <v>0</v>
@@ -2251,10 +2254,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="48">
-        <v>4</v>
+        <v>1380</v>
       </c>
       <c r="C35" s="48">
-        <v>0</v>
+        <v>1076</v>
       </c>
       <c r="D35" s="6">
         <v>0</v>
@@ -2277,10 +2280,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="48">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="C36" s="48">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="D36" s="6">
         <v>0</v>
@@ -2303,10 +2306,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="48">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="C37" s="48">
-        <v>359</v>
+        <v>58</v>
       </c>
       <c r="D37" s="6">
         <v>0</v>
@@ -2329,10 +2332,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="48">
-        <v>426</v>
+        <v>20</v>
       </c>
       <c r="C38" s="48">
-        <v>500</v>
+        <v>94</v>
       </c>
       <c r="D38" s="6">
         <v>0</v>
@@ -2355,10 +2358,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="48">
-        <v>273</v>
+        <v>46</v>
       </c>
       <c r="C39" s="48">
-        <v>375</v>
+        <v>148</v>
       </c>
       <c r="D39" s="6">
         <v>0</v>
@@ -3321,7 +3324,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>82</v>
       </c>
@@ -3335,7 +3338,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>39</v>
       </c>
@@ -3349,7 +3352,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>40</v>
       </c>
@@ -3363,7 +3366,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>41</v>
       </c>
@@ -3377,7 +3380,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>42</v>
       </c>
@@ -3391,12 +3394,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="30"/>
       <c r="C102" s="30"/>
       <c r="D102" s="11"/>
     </row>
-    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="49" t="s">
         <v>84</v>
       </c>
@@ -3407,7 +3410,7 @@
       <c r="F105" s="50"/>
       <c r="G105" s="50"/>
     </row>
-    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>85</v>
       </c>
@@ -3427,7 +3430,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>91</v>
       </c>
@@ -3447,7 +3450,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>95</v>
       </c>
@@ -3466,8 +3469,12 @@
       <c r="F108" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H108">
+        <f>B109/B107</f>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>99</v>
       </c>
@@ -3487,7 +3494,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>101</v>
       </c>
@@ -3592,6 +3599,12 @@
       </c>
       <c r="B118" s="15" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E119">
+        <f>B117/B115</f>
+        <v>1.1212121212121211</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3690,7 +3703,7 @@
       </c>
       <c r="B8" s="24">
         <f>Inputs!J11</f>
-        <v>21360</v>
+        <v>24224</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -3752,7 +3765,7 @@
       </c>
       <c r="C12" s="36">
         <f>Inputs!J6</f>
-        <v>15360</v>
+        <v>14912</v>
       </c>
       <c r="D12" s="36">
         <f>Inputs!B66</f>
@@ -3772,7 +3785,7 @@
       </c>
       <c r="H12" s="36">
         <f>B12*(C12/8)</f>
-        <v>1920</v>
+        <v>1864</v>
       </c>
       <c r="I12" s="36">
         <f>IF($B$6="",0,$B$5*H12*$B$6)</f>
@@ -3780,7 +3793,7 @@
       </c>
       <c r="J12" s="36">
         <f>IF(LEFT(A12,5)="Parte",H12+I12,"")</f>
-        <v>1920</v>
+        <v>1864</v>
       </c>
       <c r="K12" s="1">
         <f>Inputs!$B$95</f>
@@ -3792,11 +3805,11 @@
       </c>
       <c r="M12" s="36">
         <f>IF(AND(K12&gt;0,L12&gt;0),SQRT(2*H12*K12/L12),"")</f>
-        <v>5425.8639865002142</v>
+        <v>5346.1512636038779</v>
       </c>
       <c r="N12" s="36">
         <f t="shared" ref="N12:N19" si="3">IF(M12="","",ROUNDUP(M12/D12,0))</f>
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -3809,7 +3822,7 @@
       </c>
       <c r="C13" s="36">
         <f>Inputs!J15</f>
-        <v>17280</v>
+        <v>14904</v>
       </c>
       <c r="D13" s="36">
         <f>Inputs!B67</f>
@@ -3829,7 +3842,7 @@
       </c>
       <c r="H13" s="36">
         <f>B13*(C13/8)</f>
-        <v>432</v>
+        <v>372.6</v>
       </c>
       <c r="I13" s="36">
         <f t="shared" ref="I13:I19" si="4">IF($B$6="",0,$B$5*H13*$B$6)</f>
@@ -3837,7 +3850,7 @@
       </c>
       <c r="J13" s="36">
         <f>IF(LEFT(A13,5)="Parte",H13+I13,"")</f>
-        <v>432</v>
+        <v>372.6</v>
       </c>
       <c r="K13" s="1">
         <f>Inputs!$B$96</f>
@@ -3849,11 +3862,11 @@
       </c>
       <c r="M13" s="36">
         <f>IF(AND(K13&gt;0,L13&gt;0),SQRT(2*H13*K13/L13),"")</f>
-        <v>1073.312629199899</v>
+        <v>996.794863550169</v>
       </c>
       <c r="N13" s="36">
         <f>IF(M13="","",ROUNDUP(M13/D13,0))</f>
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -3866,7 +3879,7 @@
       </c>
       <c r="C14" s="36">
         <f>B14*Inputs!$J$15</f>
-        <v>172.8</v>
+        <v>149.04</v>
       </c>
       <c r="D14" s="36">
         <f>Inputs!B68</f>
@@ -3882,11 +3895,11 @@
       </c>
       <c r="G14" s="36">
         <f t="shared" si="2"/>
-        <v>172.8</v>
+        <v>149.04</v>
       </c>
       <c r="H14" s="36">
-        <f t="shared" ref="H13:H19" si="5">B14*(C14/8)</f>
-        <v>0.21600000000000003</v>
+        <f t="shared" ref="H14:H19" si="5">B14*(C14/8)</f>
+        <v>0.18629999999999999</v>
       </c>
       <c r="I14" s="36">
         <f t="shared" si="4"/>
@@ -3923,7 +3936,7 @@
       </c>
       <c r="C15" s="36">
         <f>B15*Inputs!$J$15</f>
-        <v>138240</v>
+        <v>119232</v>
       </c>
       <c r="D15" s="36">
         <f>Inputs!B69</f>
@@ -3939,11 +3952,11 @@
       </c>
       <c r="G15" s="36">
         <f t="shared" si="2"/>
-        <v>138240</v>
+        <v>119232</v>
       </c>
       <c r="H15" s="36">
         <f t="shared" si="5"/>
-        <v>138240</v>
+        <v>119232</v>
       </c>
       <c r="I15" s="36">
         <f t="shared" si="4"/>
@@ -3980,7 +3993,7 @@
       </c>
       <c r="C16" s="36">
         <f>B16*Inputs!$J$24</f>
-        <v>4869.5999999999995</v>
+        <v>4471.2</v>
       </c>
       <c r="D16" s="36">
         <f>Inputs!B70</f>
@@ -3996,11 +4009,11 @@
       </c>
       <c r="G16" s="36">
         <f t="shared" si="2"/>
-        <v>4869.5999999999995</v>
+        <v>4471.2</v>
       </c>
       <c r="H16" s="36">
         <f t="shared" si="5"/>
-        <v>182.60999999999999</v>
+        <v>167.67</v>
       </c>
       <c r="I16" s="36">
         <f t="shared" si="4"/>
@@ -4037,7 +4050,7 @@
       </c>
       <c r="C17" s="36">
         <f>B17*Inputs!$J$24</f>
-        <v>9739.1999999999989</v>
+        <v>8942.4</v>
       </c>
       <c r="D17" s="36">
         <f>Inputs!B71</f>
@@ -4053,11 +4066,11 @@
       </c>
       <c r="G17" s="36">
         <f t="shared" si="2"/>
-        <v>9739.1999999999989</v>
+        <v>8942.4</v>
       </c>
       <c r="H17" s="36">
         <f t="shared" si="5"/>
-        <v>730.43999999999994</v>
+        <v>670.68</v>
       </c>
       <c r="I17" s="36">
         <f t="shared" si="4"/>
@@ -4094,7 +4107,7 @@
       </c>
       <c r="C18" s="36">
         <f>B18*Inputs!$J$24</f>
-        <v>32464</v>
+        <v>29808</v>
       </c>
       <c r="D18" s="36">
         <f>Inputs!B72</f>
@@ -4110,11 +4123,11 @@
       </c>
       <c r="G18" s="36">
         <f t="shared" si="2"/>
-        <v>32464</v>
+        <v>29808</v>
       </c>
       <c r="H18" s="36">
         <f t="shared" si="5"/>
-        <v>8116</v>
+        <v>7452</v>
       </c>
       <c r="I18" s="36">
         <f t="shared" si="4"/>
@@ -4151,7 +4164,7 @@
       </c>
       <c r="C19" s="36">
         <f>B19*Inputs!$J$24</f>
-        <v>12174</v>
+        <v>11178</v>
       </c>
       <c r="D19" s="36">
         <f>Inputs!B73</f>
@@ -4167,11 +4180,11 @@
       </c>
       <c r="G19" s="36">
         <f t="shared" si="2"/>
-        <v>12174</v>
+        <v>11178</v>
       </c>
       <c r="H19" s="36">
         <f t="shared" si="5"/>
-        <v>1141.3125</v>
+        <v>1047.9375</v>
       </c>
       <c r="I19" s="36">
         <f t="shared" si="4"/>
@@ -4257,7 +4270,7 @@
       </c>
       <c r="C23" s="36">
         <f>Inputs!J7</f>
-        <v>6000</v>
+        <v>9312</v>
       </c>
       <c r="D23" s="36">
         <f>Inputs!B66</f>
@@ -4277,7 +4290,7 @@
       </c>
       <c r="H23" s="36">
         <f>B23*(C23/8)</f>
-        <v>750</v>
+        <v>1164</v>
       </c>
       <c r="I23" s="36">
         <f>IF($B$6="",0,$B$5*H23*$B$6)</f>
@@ -4285,7 +4298,7 @@
       </c>
       <c r="J23" s="36">
         <f>IF(LEFT(A23,5)="Parte",H23+I23,"")</f>
-        <v>750</v>
+        <v>1164</v>
       </c>
       <c r="K23" s="1">
         <f>Inputs!$B$95</f>
@@ -4297,11 +4310,11 @@
       </c>
       <c r="M23" s="36">
         <f t="shared" ref="M23:M30" si="9">IF(AND(K23&gt;0,L23&gt;0),SQRT(2*H23*K23/L23),"")</f>
-        <v>3391.164991562634</v>
+        <v>4224.6893376909975</v>
       </c>
       <c r="N23" s="36">
         <f t="shared" ref="N23:N30" si="10">IF(M23="","",ROUNDUP(M23/D23,0))</f>
-        <v>114</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -4314,7 +4327,7 @@
       </c>
       <c r="C24" s="36">
         <f>Inputs!J16</f>
-        <v>6720</v>
+        <v>9304</v>
       </c>
       <c r="D24" s="36">
         <f>Inputs!B67</f>
@@ -4334,7 +4347,7 @@
       </c>
       <c r="H24" s="36">
         <f t="shared" ref="H24:H30" si="13">B24*(C24/8)</f>
-        <v>168</v>
+        <v>232.60000000000002</v>
       </c>
       <c r="I24" s="36">
         <f>IF($B$6="",0,$B$5*H24*$B$6)</f>
@@ -4342,7 +4355,7 @@
       </c>
       <c r="J24" s="36">
         <f>IF(LEFT(A24,5)="Parte",H24+I24,"")</f>
-        <v>168</v>
+        <v>232.60000000000002</v>
       </c>
       <c r="K24" s="1">
         <f>Inputs!$B$96</f>
@@ -4354,11 +4367,11 @@
       </c>
       <c r="M24" s="36">
         <f t="shared" si="9"/>
-        <v>669.32802122726048</v>
+        <v>787.57010269985915</v>
       </c>
       <c r="N24" s="36">
         <f t="shared" si="10"/>
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -4371,7 +4384,7 @@
       </c>
       <c r="C25" s="36">
         <f>B25*Inputs!$J$16</f>
-        <v>67.2</v>
+        <v>93.04</v>
       </c>
       <c r="D25" s="36">
         <f>Inputs!B68</f>
@@ -4387,11 +4400,11 @@
       </c>
       <c r="G25" s="36">
         <f>IF(LEFT(A25,5)="Pieza",C25+F25,"")</f>
-        <v>67.2</v>
+        <v>93.04</v>
       </c>
       <c r="H25" s="36">
         <f t="shared" si="13"/>
-        <v>8.4000000000000005E-2</v>
+        <v>0.11630000000000001</v>
       </c>
       <c r="I25" s="36">
         <f t="shared" ref="I25:I30" si="14">IF($B$6="",0,$B$5*H25*$B$6)</f>
@@ -4427,7 +4440,7 @@
       </c>
       <c r="C26" s="36">
         <f>B26*Inputs!$J$25</f>
-        <v>51200</v>
+        <v>74432</v>
       </c>
       <c r="D26" s="36">
         <f>Inputs!B69</f>
@@ -4443,11 +4456,11 @@
       </c>
       <c r="G26" s="36">
         <f>IF(LEFT(A26,5)="Pieza",C26+F26,"")</f>
-        <v>51200</v>
+        <v>74432</v>
       </c>
       <c r="H26" s="36">
         <f t="shared" si="13"/>
-        <v>51200</v>
+        <v>74432</v>
       </c>
       <c r="I26" s="36">
         <f t="shared" si="14"/>
@@ -4484,7 +4497,7 @@
       </c>
       <c r="C27" s="36">
         <f>B27*Inputs!$J$25</f>
-        <v>1920</v>
+        <v>2791.2</v>
       </c>
       <c r="D27" s="36">
         <f>Inputs!B70</f>
@@ -4500,11 +4513,11 @@
       </c>
       <c r="G27" s="36">
         <f t="shared" si="8"/>
-        <v>1920</v>
+        <v>2791.2</v>
       </c>
       <c r="H27" s="36">
         <f t="shared" si="13"/>
-        <v>72</v>
+        <v>104.66999999999999</v>
       </c>
       <c r="I27" s="36">
         <f t="shared" si="14"/>
@@ -4541,7 +4554,7 @@
       </c>
       <c r="C28" s="36">
         <f>B28*Inputs!$J$25</f>
-        <v>3840</v>
+        <v>5582.4</v>
       </c>
       <c r="D28" s="36">
         <f>Inputs!B71</f>
@@ -4557,11 +4570,11 @@
       </c>
       <c r="G28" s="36">
         <f t="shared" si="8"/>
-        <v>3840</v>
+        <v>5582.4</v>
       </c>
       <c r="H28" s="36">
         <f t="shared" si="13"/>
-        <v>288</v>
+        <v>418.67999999999995</v>
       </c>
       <c r="I28" s="36">
         <f t="shared" si="14"/>
@@ -4598,7 +4611,7 @@
       </c>
       <c r="C29" s="36">
         <f>B29*Inputs!$J$25</f>
-        <v>12800</v>
+        <v>18608</v>
       </c>
       <c r="D29" s="36">
         <f>Inputs!B72</f>
@@ -4614,11 +4627,11 @@
       </c>
       <c r="G29" s="36">
         <f t="shared" si="8"/>
-        <v>12800</v>
+        <v>18608</v>
       </c>
       <c r="H29" s="36">
         <f t="shared" si="13"/>
-        <v>3200</v>
+        <v>4652</v>
       </c>
       <c r="I29" s="36">
         <f t="shared" si="14"/>
@@ -4655,7 +4668,7 @@
       </c>
       <c r="C30" s="36">
         <f>B30*Inputs!$J$25</f>
-        <v>4800</v>
+        <v>6978</v>
       </c>
       <c r="D30" s="36">
         <f>Inputs!B73</f>
@@ -4671,11 +4684,11 @@
       </c>
       <c r="G30" s="36">
         <f t="shared" si="8"/>
-        <v>4800</v>
+        <v>6978</v>
       </c>
       <c r="H30" s="36">
         <f t="shared" si="13"/>
-        <v>450</v>
+        <v>654.1875</v>
       </c>
       <c r="I30" s="36">
         <f t="shared" si="14"/>
@@ -6221,10 +6234,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6236,7 +6249,7 @@
     <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="53" t="s">
         <v>123</v>
       </c>
@@ -6252,7 +6265,7 @@
       <c r="K1" s="50"/>
       <c r="L1" s="50"/>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>124</v>
       </c>
@@ -6268,7 +6281,7 @@
       <c r="K2" s="50"/>
       <c r="L2" s="50"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
         <v>125</v>
       </c>
@@ -6284,12 +6297,12 @@
       <c r="K3" s="50"/>
       <c r="L3" s="50"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>21</v>
       </c>
@@ -6339,7 +6352,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
@@ -6349,39 +6362,39 @@
       </c>
       <c r="C6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>21.6</v>
+        <v>18.63</v>
       </c>
       <c r="D6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>21.6</v>
+        <v>18.63</v>
       </c>
       <c r="E6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>21.6</v>
+        <v>18.63</v>
       </c>
       <c r="F6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>21.6</v>
+        <v>18.63</v>
       </c>
       <c r="G6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>21.6</v>
+        <v>18.63</v>
       </c>
       <c r="H6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>21.6</v>
+        <v>18.63</v>
       </c>
       <c r="I6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>21.6</v>
+        <v>18.63</v>
       </c>
       <c r="J6" s="18">
         <f>Inputs!$B$15*$B$6</f>
-        <v>21.6</v>
+        <v>18.63</v>
       </c>
       <c r="K6" s="19">
         <f>Inputs!J6*B6</f>
-        <v>153.6</v>
+        <v>149.12</v>
       </c>
       <c r="L6" s="39">
         <f>Politica_Inventarios!F14</f>
@@ -6389,22 +6402,22 @@
       </c>
       <c r="M6" s="24">
         <f>Inputs!B34</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N6" s="24">
         <f>K6+L6-M6</f>
-        <v>142.6</v>
+        <v>147.12</v>
       </c>
       <c r="O6" s="39">
         <f>IF(ROUNDUP(N6/Inputs!$B$68,0)&lt;0,0,ROUNDUP(N6/Inputs!$B$68,0))+1</f>
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="P6" s="28">
         <f>O6*Inputs!$B$85</f>
-        <v>8640</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8940</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -6414,39 +6427,39 @@
       </c>
       <c r="C7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>16232</v>
+        <v>14904</v>
       </c>
       <c r="D7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>16232</v>
+        <v>14904</v>
       </c>
       <c r="E7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>16232</v>
+        <v>14904</v>
       </c>
       <c r="F7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>16232</v>
+        <v>14904</v>
       </c>
       <c r="G7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>16232</v>
+        <v>14904</v>
       </c>
       <c r="H7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>16232</v>
+        <v>14904</v>
       </c>
       <c r="I7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>16232</v>
+        <v>14904</v>
       </c>
       <c r="J7" s="18">
         <f>Inputs!$B$24*$B$7</f>
-        <v>16232</v>
+        <v>14904</v>
       </c>
       <c r="K7" s="19">
         <f>SUM(C7:J7)</f>
-        <v>129856</v>
+        <v>119232</v>
       </c>
       <c r="L7" s="39">
         <f>Politica_Inventarios!F15</f>
@@ -6454,22 +6467,22 @@
       </c>
       <c r="M7" s="24">
         <f>Inputs!B35</f>
-        <v>4</v>
+        <v>1380</v>
       </c>
       <c r="N7" s="24">
         <f>K7+L7-M7</f>
-        <v>129852</v>
+        <v>117852</v>
       </c>
       <c r="O7" s="39">
         <f>IF(ROUNDUP(N7/Inputs!$B$69,0)&lt;0,0,ROUNDUP(N7/Inputs!$B$69,0))</f>
-        <v>1299</v>
+        <v>1179</v>
       </c>
       <c r="P7" s="28">
         <f>O7*Inputs!$B$86</f>
-        <v>9093</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>35</v>
       </c>
@@ -6479,39 +6492,39 @@
       </c>
       <c r="C8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>608.69999999999993</v>
+        <v>558.9</v>
       </c>
       <c r="D8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>608.69999999999993</v>
+        <v>558.9</v>
       </c>
       <c r="E8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>608.69999999999993</v>
+        <v>558.9</v>
       </c>
       <c r="F8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>608.69999999999993</v>
+        <v>558.9</v>
       </c>
       <c r="G8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>608.69999999999993</v>
+        <v>558.9</v>
       </c>
       <c r="H8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>608.69999999999993</v>
+        <v>558.9</v>
       </c>
       <c r="I8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>608.69999999999993</v>
+        <v>558.9</v>
       </c>
       <c r="J8" s="18">
         <f>Inputs!$B$24*$B$8</f>
-        <v>608.69999999999993</v>
+        <v>558.9</v>
       </c>
       <c r="K8" s="19">
         <f>Inputs!$J$24*B8</f>
-        <v>4869.5999999999995</v>
+        <v>4471.2</v>
       </c>
       <c r="L8" s="39">
         <f>Politica_Inventarios!F16</f>
@@ -6519,22 +6532,22 @@
       </c>
       <c r="M8" s="24">
         <f>Inputs!B36</f>
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="N8" s="24">
         <f t="shared" ref="N8:N11" si="0">K8+L8-M8</f>
-        <v>4730.5999999999995</v>
+        <v>4453.2</v>
       </c>
       <c r="O8" s="39">
         <f>IF(ROUNDUP(N8/Inputs!$B$70,0)&lt;0,0,ROUNDUP(N8/Inputs!$B$70,0))</f>
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="P8" s="28">
         <f>O8*Inputs!$B$87</f>
-        <v>5688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
@@ -6544,39 +6557,39 @@
       </c>
       <c r="C9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>1217.3999999999999</v>
+        <v>1117.8</v>
       </c>
       <c r="D9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>1217.3999999999999</v>
+        <v>1117.8</v>
       </c>
       <c r="E9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>1217.3999999999999</v>
+        <v>1117.8</v>
       </c>
       <c r="F9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>1217.3999999999999</v>
+        <v>1117.8</v>
       </c>
       <c r="G9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>1217.3999999999999</v>
+        <v>1117.8</v>
       </c>
       <c r="H9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>1217.3999999999999</v>
+        <v>1117.8</v>
       </c>
       <c r="I9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>1217.3999999999999</v>
+        <v>1117.8</v>
       </c>
       <c r="J9" s="18">
         <f>Inputs!$B$24*$B$9</f>
-        <v>1217.3999999999999</v>
+        <v>1117.8</v>
       </c>
       <c r="K9" s="19">
         <f>Inputs!$J$24*B9</f>
-        <v>9739.1999999999989</v>
+        <v>8942.4</v>
       </c>
       <c r="L9" s="39">
         <f>Politica_Inventarios!F17</f>
@@ -6584,22 +6597,26 @@
       </c>
       <c r="M9" s="24">
         <f>Inputs!B37</f>
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="0"/>
-        <v>9581.1999999999989</v>
+        <v>8906.4</v>
       </c>
       <c r="O9" s="39">
         <f>IF(ROUNDUP(N9/Inputs!$B$71,0)&lt;0,0,ROUNDUP(N9/Inputs!$B$71,0))</f>
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="P9" s="28">
         <f>O9*Inputs!$B$88</f>
-        <v>3840</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3576</v>
+      </c>
+      <c r="S9" s="24">
+        <f>R11-R12</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
@@ -6609,39 +6626,39 @@
       </c>
       <c r="C10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>4058</v>
+        <v>3726</v>
       </c>
       <c r="D10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>4058</v>
+        <v>3726</v>
       </c>
       <c r="E10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>4058</v>
+        <v>3726</v>
       </c>
       <c r="F10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>4058</v>
+        <v>3726</v>
       </c>
       <c r="G10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>4058</v>
+        <v>3726</v>
       </c>
       <c r="H10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>4058</v>
+        <v>3726</v>
       </c>
       <c r="I10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>4058</v>
+        <v>3726</v>
       </c>
       <c r="J10" s="18">
         <f>Inputs!$B$24*$B$10</f>
-        <v>4058</v>
+        <v>3726</v>
       </c>
       <c r="K10" s="19">
         <f>Inputs!$J$24*B10</f>
-        <v>32464</v>
+        <v>29808</v>
       </c>
       <c r="L10" s="39">
         <f>Politica_Inventarios!F18</f>
@@ -6649,22 +6666,22 @@
       </c>
       <c r="M10" s="24">
         <f>Inputs!B38</f>
-        <v>426</v>
+        <v>20</v>
       </c>
       <c r="N10" s="24">
         <f t="shared" si="0"/>
-        <v>32038</v>
+        <v>29788</v>
       </c>
       <c r="O10" s="39">
         <f>IF(ROUNDUP(N10/Inputs!$B$72,0)&lt;0,0,ROUNDUP(N10/Inputs!$B$72,0))</f>
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="P10" s="28">
         <f>O10*Inputs!$B$89</f>
-        <v>9630</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8940</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>38</v>
       </c>
@@ -6674,39 +6691,39 @@
       </c>
       <c r="C11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>1521.75</v>
+        <v>1397.25</v>
       </c>
       <c r="D11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>1521.75</v>
+        <v>1397.25</v>
       </c>
       <c r="E11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>1521.75</v>
+        <v>1397.25</v>
       </c>
       <c r="F11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>1521.75</v>
+        <v>1397.25</v>
       </c>
       <c r="G11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>1521.75</v>
+        <v>1397.25</v>
       </c>
       <c r="H11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>1521.75</v>
+        <v>1397.25</v>
       </c>
       <c r="I11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>1521.75</v>
+        <v>1397.25</v>
       </c>
       <c r="J11" s="18">
         <f>Inputs!$B$24*$B$11</f>
-        <v>1521.75</v>
+        <v>1397.25</v>
       </c>
       <c r="K11" s="19">
         <f>Inputs!$J$24*B11</f>
-        <v>12174</v>
+        <v>11178</v>
       </c>
       <c r="L11" s="39">
         <f>Politica_Inventarios!F19</f>
@@ -6714,75 +6731,94 @@
       </c>
       <c r="M11" s="24">
         <f>Inputs!B39</f>
-        <v>273</v>
+        <v>46</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" si="0"/>
-        <v>11901</v>
+        <v>11132</v>
       </c>
       <c r="O11" s="39">
         <f>IF(ROUNDUP(N11/Inputs!$B$73,0)&lt;0,0,ROUNDUP(N11/Inputs!$B$73,0))</f>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="P11" s="28">
         <f>O11*Inputs!$B$90</f>
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2100</v>
+      </c>
+      <c r="R11" s="65">
+        <v>3732</v>
+      </c>
+      <c r="W11" s="65">
+        <v>14928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="20">
         <f>Inputs!B6</f>
-        <v>1920</v>
+        <v>1864</v>
       </c>
       <c r="D12" s="20">
         <f>Inputs!C6</f>
-        <v>1920</v>
+        <v>1864</v>
       </c>
       <c r="E12" s="20">
         <f>Inputs!D6</f>
-        <v>1920</v>
+        <v>1864</v>
       </c>
       <c r="F12" s="20">
         <f>Inputs!E6</f>
-        <v>1920</v>
+        <v>1864</v>
       </c>
       <c r="G12" s="20">
         <f>Inputs!F6</f>
-        <v>1920</v>
+        <v>1864</v>
       </c>
       <c r="H12" s="20">
         <f>Inputs!G6</f>
-        <v>1920</v>
+        <v>1864</v>
       </c>
       <c r="I12" s="20">
         <f>Inputs!H6</f>
-        <v>1920</v>
+        <v>1864</v>
       </c>
       <c r="J12" s="20">
         <f>Inputs!I6</f>
-        <v>1920</v>
+        <v>1864</v>
       </c>
       <c r="K12" s="20">
         <f>Inputs!J6</f>
-        <v>15360</v>
+        <v>14912</v>
       </c>
       <c r="N12" s="24"/>
       <c r="P12" s="28">
         <f>SUM(P6:P11)</f>
-        <v>39131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>37173</v>
+      </c>
+      <c r="R12" s="48">
+        <v>3696</v>
+      </c>
+      <c r="V12" s="65">
+        <v>117900</v>
+      </c>
+      <c r="W12" s="48">
+        <v>14784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V14" s="24">
+        <f>W11-W12</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>21</v>
       </c>
@@ -6832,7 +6868,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
@@ -6841,39 +6877,39 @@
       </c>
       <c r="C16" s="18">
         <f>Inputs!$B$16*$B$16</f>
-        <v>8.4</v>
+        <v>11.63</v>
       </c>
       <c r="D16" s="18">
         <f>Inputs!$B$16*$B$16</f>
-        <v>8.4</v>
+        <v>11.63</v>
       </c>
       <c r="E16" s="18">
         <f>Inputs!$B$16*$B$16</f>
-        <v>8.4</v>
+        <v>11.63</v>
       </c>
       <c r="F16" s="18">
         <f>Inputs!$B$16*$B$16</f>
-        <v>8.4</v>
+        <v>11.63</v>
       </c>
       <c r="G16" s="18">
         <f>Inputs!$B$16*$B$16</f>
-        <v>8.4</v>
+        <v>11.63</v>
       </c>
       <c r="H16" s="18">
         <f>Inputs!$B$16*$B$16</f>
-        <v>8.4</v>
+        <v>11.63</v>
       </c>
       <c r="I16" s="18">
         <f>Inputs!$B$16*$B$16</f>
-        <v>8.4</v>
+        <v>11.63</v>
       </c>
       <c r="J16" s="18">
         <f>Inputs!$B$16*$B$16</f>
-        <v>8.4</v>
+        <v>11.63</v>
       </c>
       <c r="K16" s="19">
         <f t="shared" ref="K16:K21" si="1">SUM(C16:J16)</f>
-        <v>67.2</v>
+        <v>93.039999999999992</v>
       </c>
       <c r="L16" s="39">
         <f>Politica_Inventarios!F25</f>
@@ -6881,22 +6917,26 @@
       </c>
       <c r="M16" s="24">
         <f>Inputs!C34</f>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="N16" s="46">
         <f>K16+L16-M16</f>
-        <v>46.2</v>
+        <v>92.039999999999992</v>
       </c>
       <c r="O16" s="39">
         <f>IF(ROUNDUP(N16/Inputs!$B$68,0)&lt;0,0,ROUNDUP(N16/Inputs!$B$68,0))+1</f>
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="P16" s="28">
         <f>O16*Inputs!$B$85</f>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+        <v>5640</v>
+      </c>
+      <c r="T16" s="24">
+        <f>298+S9</f>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>34</v>
       </c>
@@ -6905,39 +6945,39 @@
       </c>
       <c r="C17" s="18">
         <f>Inputs!$B$25*$B$17</f>
-        <v>6400</v>
+        <v>9304</v>
       </c>
       <c r="D17" s="18">
         <f>Inputs!$B$25*$B$17</f>
-        <v>6400</v>
+        <v>9304</v>
       </c>
       <c r="E17" s="18">
         <f>Inputs!$B$25*$B$17</f>
-        <v>6400</v>
+        <v>9304</v>
       </c>
       <c r="F17" s="18">
         <f>Inputs!$B$25*$B$17</f>
-        <v>6400</v>
+        <v>9304</v>
       </c>
       <c r="G17" s="18">
         <f>Inputs!$B$25*$B$17</f>
-        <v>6400</v>
+        <v>9304</v>
       </c>
       <c r="H17" s="18">
         <f>Inputs!$B$25*$B$17</f>
-        <v>6400</v>
+        <v>9304</v>
       </c>
       <c r="I17" s="18">
         <f>Inputs!$B$25*$B$17</f>
-        <v>6400</v>
+        <v>9304</v>
       </c>
       <c r="J17" s="18">
         <f>Inputs!$B$25*$B$17</f>
-        <v>6400</v>
+        <v>9304</v>
       </c>
       <c r="K17" s="19">
         <f t="shared" si="1"/>
-        <v>51200</v>
+        <v>74432</v>
       </c>
       <c r="L17" s="39">
         <f>Politica_Inventarios!F26</f>
@@ -6945,22 +6985,22 @@
       </c>
       <c r="M17" s="24">
         <f>Inputs!C35</f>
-        <v>0</v>
+        <v>1076</v>
       </c>
       <c r="N17" s="24">
         <f>K17+L17-M17</f>
-        <v>51200</v>
+        <v>73356</v>
       </c>
       <c r="O17" s="39">
         <f>IF(ROUNDUP(N17/Inputs!$B$69,0)&lt;0,0,ROUNDUP(N17/Inputs!$B$69,0))</f>
-        <v>512</v>
+        <v>734</v>
       </c>
       <c r="P17" s="28">
         <f>O17*Inputs!$B$86</f>
-        <v>3584</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>35</v>
       </c>
@@ -6969,39 +7009,39 @@
       </c>
       <c r="C18" s="18">
         <f>Inputs!$B$25*$B$18</f>
-        <v>240</v>
+        <v>348.9</v>
       </c>
       <c r="D18" s="18">
         <f>Inputs!$B$25*$B$18</f>
-        <v>240</v>
+        <v>348.9</v>
       </c>
       <c r="E18" s="18">
         <f>Inputs!$B$25*$B$18</f>
-        <v>240</v>
+        <v>348.9</v>
       </c>
       <c r="F18" s="18">
         <f>Inputs!$B$25*$B$18</f>
-        <v>240</v>
+        <v>348.9</v>
       </c>
       <c r="G18" s="18">
         <f>Inputs!$B$25*$B$18</f>
-        <v>240</v>
+        <v>348.9</v>
       </c>
       <c r="H18" s="18">
         <f>Inputs!$B$25*$B$18</f>
-        <v>240</v>
+        <v>348.9</v>
       </c>
       <c r="I18" s="18">
         <f>Inputs!$B$25*$B$18</f>
-        <v>240</v>
+        <v>348.9</v>
       </c>
       <c r="J18" s="18">
         <f>Inputs!$B$25*$B$18</f>
-        <v>240</v>
+        <v>348.9</v>
       </c>
       <c r="K18" s="19">
         <f t="shared" si="1"/>
-        <v>1920</v>
+        <v>2791.2000000000003</v>
       </c>
       <c r="L18" s="39">
         <f>Politica_Inventarios!F27</f>
@@ -7009,22 +7049,26 @@
       </c>
       <c r="M18" s="24">
         <f>Inputs!C36</f>
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" ref="N18:N21" si="2">K18+L18-M18</f>
-        <v>1740</v>
+        <v>2762.2000000000003</v>
       </c>
       <c r="O18" s="39">
         <f>IF(ROUNDUP(N18/Inputs!$B$70,0)&lt;0,0,ROUNDUP(N18/Inputs!$B$70,0))</f>
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="P18" s="28">
         <f>O18*Inputs!$B$87</f>
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+        <v>3348</v>
+      </c>
+      <c r="V18" s="24">
+        <f>V12+V14</f>
+        <v>118044</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>36</v>
       </c>
@@ -7033,39 +7077,39 @@
       </c>
       <c r="C19" s="18">
         <f>Inputs!$B$25*$B$19</f>
-        <v>480</v>
+        <v>697.8</v>
       </c>
       <c r="D19" s="18">
         <f>Inputs!$B$25*$B$19</f>
-        <v>480</v>
+        <v>697.8</v>
       </c>
       <c r="E19" s="18">
         <f>Inputs!$B$25*$B$19</f>
-        <v>480</v>
+        <v>697.8</v>
       </c>
       <c r="F19" s="18">
         <f>Inputs!$B$25*$B$19</f>
-        <v>480</v>
+        <v>697.8</v>
       </c>
       <c r="G19" s="18">
         <f>Inputs!$B$25*$B$19</f>
-        <v>480</v>
+        <v>697.8</v>
       </c>
       <c r="H19" s="18">
         <f>Inputs!$B$25*$B$19</f>
-        <v>480</v>
+        <v>697.8</v>
       </c>
       <c r="I19" s="18">
         <f>Inputs!$B$25*$B$19</f>
-        <v>480</v>
+        <v>697.8</v>
       </c>
       <c r="J19" s="18">
         <f>Inputs!$B$25*$B$19</f>
-        <v>480</v>
+        <v>697.8</v>
       </c>
       <c r="K19" s="19">
         <f t="shared" si="1"/>
-        <v>3840</v>
+        <v>5582.4000000000005</v>
       </c>
       <c r="L19" s="39">
         <f>Politica_Inventarios!F28</f>
@@ -7073,22 +7117,26 @@
       </c>
       <c r="M19" s="24">
         <f>Inputs!C37</f>
-        <v>359</v>
+        <v>58</v>
       </c>
       <c r="N19" s="24">
         <f t="shared" si="2"/>
-        <v>3481</v>
+        <v>5524.4000000000005</v>
       </c>
       <c r="O19" s="39">
         <f>IF(ROUNDUP(N19/Inputs!$B$71,0)&lt;0,0,ROUNDUP(N19/Inputs!$B$71,0))</f>
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="P19" s="28">
         <f>O19*Inputs!$B$88</f>
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2232</v>
+      </c>
+      <c r="R19">
+        <f>117900/8</f>
+        <v>14737.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>37</v>
       </c>
@@ -7097,39 +7145,39 @@
       </c>
       <c r="C20" s="18">
         <f>Inputs!$B$25*$B$20</f>
-        <v>1600</v>
+        <v>2326</v>
       </c>
       <c r="D20" s="18">
         <f>Inputs!$B$25*$B$20</f>
-        <v>1600</v>
+        <v>2326</v>
       </c>
       <c r="E20" s="18">
         <f>Inputs!$B$25*$B$20</f>
-        <v>1600</v>
+        <v>2326</v>
       </c>
       <c r="F20" s="18">
         <f>Inputs!$B$25*$B$20</f>
-        <v>1600</v>
+        <v>2326</v>
       </c>
       <c r="G20" s="18">
         <f>Inputs!$B$25*$B$20</f>
-        <v>1600</v>
+        <v>2326</v>
       </c>
       <c r="H20" s="18">
         <f>Inputs!$B$25*$B$20</f>
-        <v>1600</v>
+        <v>2326</v>
       </c>
       <c r="I20" s="18">
         <f>Inputs!$B$25*$B$20</f>
-        <v>1600</v>
+        <v>2326</v>
       </c>
       <c r="J20" s="18">
         <f>Inputs!$B$25*$B$20</f>
-        <v>1600</v>
+        <v>2326</v>
       </c>
       <c r="K20" s="19">
         <f t="shared" si="1"/>
-        <v>12800</v>
+        <v>18608</v>
       </c>
       <c r="L20" s="39">
         <f>Politica_Inventarios!F29</f>
@@ -7137,22 +7185,26 @@
       </c>
       <c r="M20" s="24">
         <f>Inputs!C38</f>
-        <v>500</v>
+        <v>94</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="2"/>
-        <v>12300</v>
+        <v>18514</v>
       </c>
       <c r="O20" s="39">
         <f>IF(ROUNDUP(N20/Inputs!$B$72,0)&lt;0,0,ROUNDUP(N20/Inputs!$B$72,0))</f>
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="P20" s="28">
         <f>O20*Inputs!$B$89</f>
-        <v>3690</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+        <v>5580</v>
+      </c>
+      <c r="V20">
+        <f>+V18/8</f>
+        <v>14755.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>38</v>
       </c>
@@ -7161,39 +7213,39 @@
       </c>
       <c r="C21" s="18">
         <f>Inputs!$B$25*$B$21</f>
-        <v>600</v>
+        <v>872.25</v>
       </c>
       <c r="D21" s="18">
         <f>Inputs!$B$25*$B$21</f>
-        <v>600</v>
+        <v>872.25</v>
       </c>
       <c r="E21" s="18">
         <f>Inputs!$B$25*$B$21</f>
-        <v>600</v>
+        <v>872.25</v>
       </c>
       <c r="F21" s="18">
         <f>Inputs!$B$25*$B$21</f>
-        <v>600</v>
+        <v>872.25</v>
       </c>
       <c r="G21" s="18">
         <f>Inputs!$B$25*$B$21</f>
-        <v>600</v>
+        <v>872.25</v>
       </c>
       <c r="H21" s="18">
         <f>Inputs!$B$25*$B$21</f>
-        <v>600</v>
+        <v>872.25</v>
       </c>
       <c r="I21" s="18">
         <f>Inputs!$B$25*$B$21</f>
-        <v>600</v>
+        <v>872.25</v>
       </c>
       <c r="J21" s="18">
         <f>Inputs!$B$25*$B$21</f>
-        <v>600</v>
+        <v>872.25</v>
       </c>
       <c r="K21" s="19">
         <f t="shared" si="1"/>
-        <v>4800</v>
+        <v>6978</v>
       </c>
       <c r="L21" s="39">
         <f>Politica_Inventarios!F30</f>
@@ -7201,74 +7253,74 @@
       </c>
       <c r="M21" s="24">
         <f>Inputs!C39</f>
-        <v>375</v>
+        <v>148</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="2"/>
-        <v>4425</v>
+        <v>6830</v>
       </c>
       <c r="O21" s="39">
         <f>IF(ROUNDUP(N21/Inputs!$B$73,0)&lt;0,0,ROUNDUP(N21/Inputs!$B$73,0))</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="P21" s="28">
         <f>O21*Inputs!$B$90</f>
-        <v>840</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="20">
         <f>Inputs!B7</f>
-        <v>750</v>
+        <v>1164</v>
       </c>
       <c r="D22" s="20">
         <f>Inputs!C7</f>
-        <v>750</v>
+        <v>1164</v>
       </c>
       <c r="E22" s="20">
         <f>Inputs!D7</f>
-        <v>750</v>
+        <v>1164</v>
       </c>
       <c r="F22" s="20">
         <f>Inputs!E7</f>
-        <v>750</v>
+        <v>1164</v>
       </c>
       <c r="G22" s="20">
         <f>Inputs!F7</f>
-        <v>750</v>
+        <v>1164</v>
       </c>
       <c r="H22" s="20">
         <f>Inputs!G7</f>
-        <v>750</v>
+        <v>1164</v>
       </c>
       <c r="I22" s="20">
         <f>Inputs!H7</f>
-        <v>750</v>
+        <v>1164</v>
       </c>
       <c r="J22" s="20">
         <f>Inputs!I7</f>
-        <v>750</v>
+        <v>1164</v>
       </c>
       <c r="K22" s="20">
         <f>Inputs!J7</f>
-        <v>6000</v>
+        <v>9312</v>
       </c>
       <c r="P22" s="28">
         <f>SUM(P16:P21)</f>
-        <v>14498</v>
+        <v>23226</v>
       </c>
       <c r="R22" s="28"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>21</v>
       </c>
@@ -7318,7 +7370,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>33</v>
       </c>
@@ -7382,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>34</v>
       </c>
@@ -7446,7 +7498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>35</v>
       </c>
@@ -7510,7 +7562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>36</v>
       </c>
@@ -7574,7 +7626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>37</v>
       </c>
@@ -7638,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>38</v>
       </c>
@@ -7702,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>127</v>
       </c>
@@ -8721,7 +8773,7 @@
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P54" s="28">
         <f>SUM(P12,P22,P32,P42)</f>
-        <v>53629</v>
+        <v>60399</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -8742,8 +8794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="J3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8943,43 +8995,43 @@
       </c>
       <c r="B7" s="21">
         <f>Inputs!B32</f>
-        <v>5564</v>
+        <v>19552</v>
       </c>
       <c r="C7" s="16">
         <f t="shared" ref="C7:I7" si="0">B10</f>
-        <v>3644</v>
+        <v>17688</v>
       </c>
       <c r="D7" s="16">
         <f t="shared" si="0"/>
-        <v>1724</v>
+        <v>15824</v>
       </c>
       <c r="E7" s="16">
         <f t="shared" si="0"/>
-        <v>5234</v>
+        <v>13960</v>
       </c>
       <c r="F7" s="16">
         <f t="shared" si="0"/>
-        <v>3314</v>
+        <v>12096</v>
       </c>
       <c r="G7" s="16">
         <f t="shared" si="0"/>
-        <v>1394</v>
+        <v>10232</v>
       </c>
       <c r="H7" s="16">
         <f t="shared" si="0"/>
-        <v>4904</v>
+        <v>8368</v>
       </c>
       <c r="I7" s="16">
         <f t="shared" si="0"/>
-        <v>2984</v>
+        <v>6504</v>
       </c>
       <c r="J7" s="39">
         <f>Politica_Inventarios!N12</f>
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K7" s="39">
         <f>Politica_Inventarios!J12</f>
-        <v>1920</v>
+        <v>1864</v>
       </c>
       <c r="L7" s="39">
         <f>Inputs!B66</f>
@@ -8990,43 +9042,43 @@
       </c>
       <c r="P7" s="21">
         <f>Inputs!B33</f>
-        <v>1216</v>
+        <v>4467</v>
       </c>
       <c r="Q7" s="16">
         <f t="shared" ref="Q7:W7" si="1">P10</f>
-        <v>784</v>
+        <v>4094.4</v>
       </c>
       <c r="R7" s="16">
         <f t="shared" si="1"/>
-        <v>352</v>
+        <v>3721.8</v>
       </c>
       <c r="S7" s="16">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>3349.2000000000003</v>
       </c>
       <c r="T7" s="16">
         <f t="shared" si="1"/>
-        <v>568</v>
+        <v>2976.6000000000004</v>
       </c>
       <c r="U7" s="16">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>2604.0000000000005</v>
       </c>
       <c r="V7" s="16">
         <f t="shared" si="1"/>
-        <v>784</v>
+        <v>2231.4000000000005</v>
       </c>
       <c r="W7" s="16">
         <f t="shared" si="1"/>
-        <v>352</v>
+        <v>1858.8000000000006</v>
       </c>
       <c r="X7" s="39">
         <f>Politica_Inventarios!N13</f>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="Y7" s="39">
         <f>Politica_Inventarios!J13</f>
-        <v>432</v>
+        <v>372.6</v>
       </c>
       <c r="Z7" s="24">
         <f>Inputs!B67</f>
@@ -9044,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="6">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
@@ -9053,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="6">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
@@ -9063,7 +9115,7 @@
       </c>
       <c r="M8" s="28">
         <f>SUM(B8:I8)*VLOOKUP(Inputs!B110,Inputs!A107:B109,2,FALSE)</f>
-        <v>45250</v>
+        <v>0</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>136</v>
@@ -9075,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="6">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="S8" s="6">
         <v>0</v>
@@ -9084,17 +9136,17 @@
         <v>0</v>
       </c>
       <c r="U8" s="6">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="V8" s="6">
         <v>0</v>
       </c>
       <c r="W8" s="6">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="1">
         <f>SUM(P8:W8)*VLOOKUP(Inputs!B118,Inputs!A114:B117,2,FALSE)</f>
-        <v>89100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9103,78 +9155,83 @@
       </c>
       <c r="B9" s="21">
         <f>Inputs!B6*Inputs!$B$48</f>
-        <v>1920</v>
+        <v>1864</v>
       </c>
       <c r="C9" s="21">
         <f>Inputs!C6*Inputs!$B$48</f>
-        <v>1920</v>
+        <v>1864</v>
       </c>
       <c r="D9" s="21">
         <f>Inputs!D6*Inputs!$B$48</f>
-        <v>1920</v>
+        <v>1864</v>
       </c>
       <c r="E9" s="21">
         <f>Inputs!E6*Inputs!$B$48</f>
-        <v>1920</v>
+        <v>1864</v>
       </c>
       <c r="F9" s="21">
         <f>Inputs!F6*Inputs!$B$48</f>
-        <v>1920</v>
+        <v>1864</v>
       </c>
       <c r="G9" s="21">
         <f>Inputs!G6*Inputs!$B$48</f>
-        <v>1920</v>
+        <v>1864</v>
       </c>
       <c r="H9" s="21">
         <f>Inputs!H6*Inputs!$B$48</f>
-        <v>1920</v>
+        <v>1864</v>
       </c>
       <c r="I9" s="21">
         <f>Inputs!I6*Inputs!$B$48</f>
-        <v>1920</v>
-      </c>
-      <c r="K9">
-        <f>J7/2</f>
-        <v>90.5</v>
-      </c>
+        <v>1864</v>
+      </c>
+      <c r="J9" s="24">
+        <f>SUM(B9:I9)-I10</f>
+        <v>10272</v>
+      </c>
+      <c r="K9" s="24"/>
       <c r="O9" s="9" t="s">
         <v>137</v>
       </c>
       <c r="P9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>432</v>
+        <v>372.6</v>
       </c>
       <c r="Q9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>432</v>
+        <v>372.6</v>
       </c>
       <c r="R9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>432</v>
+        <v>372.6</v>
       </c>
       <c r="S9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>432</v>
+        <v>372.6</v>
       </c>
       <c r="T9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>432</v>
+        <v>372.6</v>
       </c>
       <c r="U9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>432</v>
+        <v>372.6</v>
       </c>
       <c r="V9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>432</v>
+        <v>372.6</v>
       </c>
       <c r="W9" s="21">
         <f>Inputs!$B$15*Inputs!$B$49</f>
-        <v>432</v>
+        <v>372.6</v>
+      </c>
+      <c r="X9" s="24">
+        <f>SUM(P9:W9)-W10</f>
+        <v>1494.599999999999</v>
       </c>
       <c r="Y9">
         <f>X7/2</f>
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9183,70 +9240,84 @@
       </c>
       <c r="B10" s="19">
         <f>B7+(B8*$L$7)-B9</f>
-        <v>3644</v>
+        <v>17688</v>
       </c>
       <c r="C10" s="19">
         <f t="shared" ref="C10:I10" si="2">C7+(C8*$L$7)-C9</f>
-        <v>1724</v>
+        <v>15824</v>
       </c>
       <c r="D10" s="19">
         <f t="shared" si="2"/>
-        <v>5234</v>
+        <v>13960</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" si="2"/>
-        <v>3314</v>
+        <v>12096</v>
       </c>
       <c r="F10" s="19">
         <f t="shared" si="2"/>
-        <v>1394</v>
+        <v>10232</v>
       </c>
       <c r="G10" s="19">
         <f t="shared" si="2"/>
-        <v>4904</v>
+        <v>8368</v>
       </c>
       <c r="H10" s="19">
         <f t="shared" si="2"/>
-        <v>2984</v>
+        <v>6504</v>
       </c>
       <c r="I10" s="19">
         <f t="shared" si="2"/>
-        <v>1064</v>
+        <v>4640</v>
+      </c>
+      <c r="J10">
+        <v>380.8</v>
+      </c>
+      <c r="K10" s="64">
+        <f>J9/L7</f>
+        <v>342.4</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>138</v>
       </c>
       <c r="P10" s="19">
         <f>P7+(P8*$Z$7)-P9</f>
-        <v>784</v>
+        <v>4094.4</v>
       </c>
       <c r="Q10" s="19">
         <f t="shared" ref="Q10:W10" si="3">Q7+(Q8*$Z$7)-Q9</f>
-        <v>352</v>
+        <v>3721.8</v>
       </c>
       <c r="R10" s="19">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>3349.2000000000003</v>
       </c>
       <c r="S10" s="19">
         <f>S7+(S8*$Z$7)-S9</f>
-        <v>568</v>
+        <v>2976.6000000000004</v>
       </c>
       <c r="T10" s="19">
         <f t="shared" si="3"/>
-        <v>136</v>
+        <v>2604.0000000000005</v>
       </c>
       <c r="U10" s="19">
         <f t="shared" si="3"/>
-        <v>784</v>
+        <v>2231.4000000000005</v>
       </c>
       <c r="V10" s="19">
         <f t="shared" si="3"/>
-        <v>352</v>
+        <v>1858.8000000000006</v>
       </c>
       <c r="W10" s="19">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>1486.2000000000007</v>
+      </c>
+      <c r="X10">
+        <v>144</v>
+      </c>
+      <c r="Y10" s="64">
+        <f>X9/Z7</f>
+        <v>124.54999999999991</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9335,43 +9406,43 @@
       </c>
       <c r="B13" s="21">
         <f>Inputs!C32</f>
-        <v>1696</v>
+        <v>14864</v>
       </c>
       <c r="C13" s="16">
         <f t="shared" ref="C13:I13" si="4">B16</f>
-        <v>4246</v>
+        <v>13700</v>
       </c>
       <c r="D13" s="16">
         <f t="shared" si="4"/>
-        <v>3496</v>
+        <v>12536</v>
       </c>
       <c r="E13" s="16">
         <f t="shared" si="4"/>
-        <v>6046</v>
+        <v>11372</v>
       </c>
       <c r="F13" s="16">
         <f t="shared" si="4"/>
-        <v>5296</v>
+        <v>10208</v>
       </c>
       <c r="G13" s="16">
         <f t="shared" si="4"/>
-        <v>7846</v>
+        <v>9044</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" si="4"/>
-        <v>7096</v>
+        <v>7880</v>
       </c>
       <c r="I13" s="16">
         <f t="shared" si="4"/>
-        <v>6346</v>
+        <v>6716</v>
       </c>
       <c r="J13" s="39">
         <f>Politica_Inventarios!N23</f>
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="K13" s="39">
         <f>Politica_Inventarios!J23</f>
-        <v>750</v>
+        <v>1164</v>
       </c>
       <c r="L13">
         <v>30</v>
@@ -9380,44 +9451,44 @@
         <v>135</v>
       </c>
       <c r="P13" s="21">
-        <f>Inputs!C33</f>
-        <v>1389</v>
+        <f>Inputs!C32</f>
+        <v>14864</v>
       </c>
       <c r="Q13" s="16">
         <f t="shared" ref="Q13:W13" si="5">P16</f>
-        <v>1221</v>
+        <v>15435.4</v>
       </c>
       <c r="R13" s="16">
         <f t="shared" si="5"/>
-        <v>1053</v>
+        <v>15202.8</v>
       </c>
       <c r="S13" s="16">
         <f t="shared" si="5"/>
-        <v>885</v>
+        <v>14970.199999999999</v>
       </c>
       <c r="T13" s="16">
         <f t="shared" si="5"/>
-        <v>717</v>
+        <v>15541.599999999999</v>
       </c>
       <c r="U13" s="16">
         <f t="shared" si="5"/>
-        <v>549</v>
+        <v>15308.999999999998</v>
       </c>
       <c r="V13" s="16">
         <f t="shared" si="5"/>
-        <v>381</v>
+        <v>15076.399999999998</v>
       </c>
       <c r="W13" s="16">
         <f t="shared" si="5"/>
-        <v>213</v>
+        <v>15647.799999999997</v>
       </c>
       <c r="X13" s="39">
         <f>Politica_Inventarios!N24</f>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="Y13" s="39">
         <f>Politica_Inventarios!J24</f>
-        <v>168</v>
+        <v>232.60000000000002</v>
       </c>
       <c r="Z13">
         <v>12</v>
@@ -9428,19 +9499,19 @@
         <v>136</v>
       </c>
       <c r="B14" s="6">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
       </c>
       <c r="D14" s="6">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
       </c>
       <c r="F14" s="6">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -9453,13 +9524,13 @@
       </c>
       <c r="M14" s="28">
         <f>SUM(B14:I14)*VLOOKUP(Inputs!B110,Inputs!A107:B109,2,FALSE)</f>
-        <v>41250</v>
+        <v>0</v>
       </c>
       <c r="O14" s="9" t="s">
         <v>136</v>
       </c>
       <c r="P14" s="6">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="6">
         <v>0</v>
@@ -9468,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="6">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="T14" s="6">
         <v>0</v>
@@ -9477,14 +9548,14 @@
         <v>0</v>
       </c>
       <c r="V14" s="6">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="W14" s="6">
         <v>0</v>
       </c>
       <c r="AA14" s="1">
         <f>SUM(P14:W14)*VLOOKUP(Inputs!B118,Inputs!A114:B117,2,FALSE)</f>
-        <v>0</v>
+        <v>66330</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9493,78 +9564,86 @@
       </c>
       <c r="B15" s="21">
         <f>Inputs!B7*Inputs!$B$48</f>
-        <v>750</v>
+        <v>1164</v>
       </c>
       <c r="C15" s="21">
         <f>Inputs!C7*Inputs!$B$48</f>
-        <v>750</v>
+        <v>1164</v>
       </c>
       <c r="D15" s="21">
         <f>Inputs!D7*Inputs!$B$48</f>
-        <v>750</v>
+        <v>1164</v>
       </c>
       <c r="E15" s="21">
         <f>Inputs!E7*Inputs!$B$48</f>
-        <v>750</v>
+        <v>1164</v>
       </c>
       <c r="F15" s="21">
         <f>Inputs!F7*Inputs!$B$48</f>
-        <v>750</v>
+        <v>1164</v>
       </c>
       <c r="G15" s="21">
         <f>Inputs!G7*Inputs!$B$48</f>
-        <v>750</v>
+        <v>1164</v>
       </c>
       <c r="H15" s="21">
         <f>Inputs!H7*Inputs!$B$48</f>
-        <v>750</v>
+        <v>1164</v>
       </c>
       <c r="I15" s="21">
         <f>Inputs!I7*Inputs!$B$48</f>
-        <v>750</v>
+        <v>1164</v>
+      </c>
+      <c r="J15" s="24">
+        <f>SUM(B15:I15)-I16</f>
+        <v>3760</v>
       </c>
       <c r="K15">
         <f>J13/2</f>
-        <v>57</v>
+        <v>70.5</v>
       </c>
       <c r="O15" s="9" t="s">
         <v>137</v>
       </c>
       <c r="P15" s="21">
         <f>Inputs!$B$16*Inputs!$B$49</f>
-        <v>168</v>
+        <v>232.60000000000002</v>
       </c>
       <c r="Q15" s="21">
         <f>Inputs!$B$16*Inputs!$B$49</f>
-        <v>168</v>
+        <v>232.60000000000002</v>
       </c>
       <c r="R15" s="21">
         <f>Inputs!$B$16*Inputs!$B$49</f>
-        <v>168</v>
+        <v>232.60000000000002</v>
       </c>
       <c r="S15" s="21">
         <f>Inputs!$B$16*Inputs!$B$49</f>
-        <v>168</v>
+        <v>232.60000000000002</v>
       </c>
       <c r="T15" s="21">
         <f>Inputs!$B$16*Inputs!$B$49</f>
-        <v>168</v>
+        <v>232.60000000000002</v>
       </c>
       <c r="U15" s="21">
         <f>Inputs!$B$16*Inputs!$B$49</f>
-        <v>168</v>
+        <v>232.60000000000002</v>
       </c>
       <c r="V15" s="21">
         <f>Inputs!$B$16*Inputs!$B$49</f>
-        <v>168</v>
+        <v>232.60000000000002</v>
       </c>
       <c r="W15" s="21">
         <f>Inputs!$B$16*Inputs!$B$49</f>
-        <v>168</v>
+        <v>232.60000000000002</v>
+      </c>
+      <c r="X15" s="24">
+        <f>SUM(P15:W15)-W16</f>
+        <v>-13554.399999999998</v>
       </c>
       <c r="Y15">
         <f>X13/2</f>
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9573,70 +9652,84 @@
       </c>
       <c r="B16" s="19">
         <f>B13+(B14*$L$13)-B15</f>
-        <v>4246</v>
+        <v>13700</v>
       </c>
       <c r="C16" s="19">
         <f t="shared" ref="C16:I16" si="6">C13+(C14*$L$7)-C15</f>
-        <v>3496</v>
+        <v>12536</v>
       </c>
       <c r="D16" s="19">
         <f t="shared" si="6"/>
-        <v>6046</v>
+        <v>11372</v>
       </c>
       <c r="E16" s="19">
         <f t="shared" si="6"/>
-        <v>5296</v>
+        <v>10208</v>
       </c>
       <c r="F16" s="19">
         <f t="shared" si="6"/>
-        <v>7846</v>
+        <v>9044</v>
       </c>
       <c r="G16" s="19">
         <f t="shared" si="6"/>
-        <v>7096</v>
+        <v>7880</v>
       </c>
       <c r="H16" s="19">
         <f t="shared" si="6"/>
-        <v>6346</v>
+        <v>6716</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" si="6"/>
-        <v>5596</v>
+        <v>5552</v>
+      </c>
+      <c r="J16">
+        <v>149.33333333333334</v>
+      </c>
+      <c r="K16" s="64">
+        <f>J15/L13</f>
+        <v>125.33333333333333</v>
       </c>
       <c r="O16" s="5" t="s">
         <v>138</v>
       </c>
       <c r="P16" s="19">
         <f>P13+(P14*$Z$7)-P15</f>
-        <v>1221</v>
+        <v>15435.4</v>
       </c>
       <c r="Q16" s="19">
         <f t="shared" ref="Q16:W16" si="7">Q13+(Q14*$Z$7)-Q15</f>
-        <v>1053</v>
+        <v>15202.8</v>
       </c>
       <c r="R16" s="19">
         <f t="shared" si="7"/>
-        <v>885</v>
+        <v>14970.199999999999</v>
       </c>
       <c r="S16" s="19">
         <f t="shared" si="7"/>
-        <v>717</v>
+        <v>15541.599999999999</v>
       </c>
       <c r="T16" s="19">
         <f t="shared" si="7"/>
-        <v>549</v>
+        <v>15308.999999999998</v>
       </c>
       <c r="U16" s="19">
         <f t="shared" si="7"/>
-        <v>381</v>
+        <v>15076.399999999998</v>
       </c>
       <c r="V16" s="19">
         <f t="shared" si="7"/>
-        <v>213</v>
+        <v>15647.799999999997</v>
       </c>
       <c r="W16" s="19">
         <f t="shared" si="7"/>
-        <v>45</v>
+        <v>15415.199999999997</v>
+      </c>
+      <c r="X16">
+        <v>120</v>
+      </c>
+      <c r="Y16" s="64">
+        <f>X15/Z13</f>
+        <v>-1129.5333333333331</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10723,7 +10816,7 @@
       </c>
       <c r="M35" s="28">
         <f>SUM(M14,M8)</f>
-        <v>86500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
@@ -10740,74 +10833,74 @@
       </c>
       <c r="B37" s="28">
         <f>SUM(B10+B16+B22+B28+B34)*Inputs!$C$95</f>
-        <v>2367</v>
+        <v>9416.4</v>
       </c>
       <c r="C37" s="28">
         <f>SUM(C10+C16+C22+C28+C34)*Inputs!$C$95</f>
-        <v>1566</v>
+        <v>8508</v>
       </c>
       <c r="D37" s="28">
         <f>SUM(D10+D16+D22+D28+D34)*Inputs!$C$95</f>
-        <v>3384</v>
+        <v>7599.5999999999995</v>
       </c>
       <c r="E37" s="28">
         <f>SUM(E10+E16+E22+E28+E34)*Inputs!$C$95</f>
-        <v>2583</v>
+        <v>6691.2</v>
       </c>
       <c r="F37" s="28">
         <f>SUM(F10+F16+F22+F28+F34)*Inputs!$C$95</f>
-        <v>2772</v>
+        <v>5782.8</v>
       </c>
       <c r="G37" s="28">
         <f>SUM(G10+G16+G22+G28+G34)*Inputs!$C$95</f>
-        <v>3600</v>
+        <v>4874.3999999999996</v>
       </c>
       <c r="H37" s="28">
         <f>SUM(H10+H16+H22+H28+H34)*Inputs!$C$95</f>
-        <v>2799</v>
+        <v>3966</v>
       </c>
       <c r="I37" s="28">
         <f>SUM(I10+I16+I22+I28+I34)*Inputs!$C$95</f>
-        <v>1998</v>
+        <v>3057.6</v>
       </c>
       <c r="J37" s="28">
         <f>SUM(B37:I37)</f>
-        <v>21069</v>
+        <v>49896</v>
       </c>
       <c r="O37" t="s">
         <v>149</v>
       </c>
       <c r="P37" s="28">
         <f>SUM(P10+P16+P22+P28+P34)*Inputs!$C$95</f>
-        <v>601.5</v>
+        <v>5858.94</v>
       </c>
       <c r="Q37" s="28">
         <f>SUM(Q10+Q16+Q22+Q28+Q34)*Inputs!$C$95</f>
-        <v>421.5</v>
+        <v>5677.3799999999992</v>
       </c>
       <c r="R37" s="28">
         <f>SUM(R10+R16+R22+R28+R34)*Inputs!$C$95</f>
-        <v>565.5</v>
+        <v>5495.8199999999988</v>
       </c>
       <c r="S37" s="28">
         <f>SUM(S10+S16+S22+S28+S34)*Inputs!$C$95</f>
-        <v>385.5</v>
+        <v>5555.4599999999991</v>
       </c>
       <c r="T37" s="28">
         <f>SUM(T10+T16+T22+T28+T34)*Inputs!$C$95</f>
-        <v>205.5</v>
+        <v>5373.9</v>
       </c>
       <c r="U37" s="28">
         <f>SUM(U10+U16+U22+U28+U34)*Inputs!$C$95</f>
-        <v>349.5</v>
+        <v>5192.3399999999992</v>
       </c>
       <c r="V37" s="28">
         <f>SUM(V10+V16+V22+V28+V34)*Inputs!$C$95</f>
-        <v>169.5</v>
+        <v>5251.98</v>
       </c>
       <c r="W37" s="28">
         <f>SUM(W10+W16+W22+W28+W34)*Inputs!$C$95</f>
-        <v>313.5</v>
+        <v>5070.4199999999992</v>
       </c>
       <c r="X37" s="28"/>
       <c r="Z37" s="28"/>
@@ -10818,7 +10911,7 @@
       </c>
       <c r="B38" s="28">
         <f>B39*Inputs!$B$95</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="C38" s="28">
         <f>C39*Inputs!$B$95</f>
@@ -10826,7 +10919,7 @@
       </c>
       <c r="D38" s="28">
         <f>D39*Inputs!$B$95</f>
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="E38" s="28">
         <f>E39*Inputs!$B$95</f>
@@ -10834,11 +10927,11 @@
       </c>
       <c r="F38" s="28">
         <f>F39*Inputs!$B$95</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G38" s="28">
         <f>G39*Inputs!$B$95</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="H38" s="28">
         <f>H39*Inputs!$B$95</f>
@@ -10850,14 +10943,14 @@
       </c>
       <c r="J38" s="28">
         <f>SUM(B38:I38)</f>
-        <v>11500</v>
+        <v>0</v>
       </c>
       <c r="O38" t="s">
         <v>150</v>
       </c>
       <c r="P38" s="28">
         <f>P39*Inputs!$B$96</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="Q38" s="28">
         <f>Q39*Inputs!$B$96</f>
@@ -10865,11 +10958,11 @@
       </c>
       <c r="R38" s="28">
         <f>R39*Inputs!$B$96</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="S38" s="28">
         <f>S39*Inputs!$B$96</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="T38" s="28">
         <f>T39*Inputs!$B$96</f>
@@ -10877,15 +10970,15 @@
       </c>
       <c r="U38" s="28">
         <f>U39*Inputs!$B$96</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="V38" s="28">
         <f>V39*Inputs!$B$96</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="W38" s="28">
         <f>W39*Inputs!$B$96</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="X38" s="28"/>
       <c r="Z38" s="28"/>
@@ -10896,7 +10989,7 @@
       </c>
       <c r="B39">
         <f>+COUNTIF(B42:B46,"&gt;0")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <f t="shared" ref="C39:I39" si="20">+COUNTIF(C42:C46,"&gt;0")</f>
@@ -10904,7 +10997,7 @@
       </c>
       <c r="D39">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <f t="shared" si="20"/>
@@ -10912,11 +11005,11 @@
       </c>
       <c r="F39">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <f t="shared" si="20"/>
@@ -10931,7 +11024,7 @@
       </c>
       <c r="P39">
         <f>+COUNTIF(P42:P46,"&gt;0")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
         <f t="shared" ref="Q39:W39" si="21">+COUNTIF(Q42:Q46,"&gt;0")</f>
@@ -10939,11 +11032,11 @@
       </c>
       <c r="R39">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39">
         <f t="shared" si="21"/>
@@ -10951,21 +11044,21 @@
       </c>
       <c r="U39">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="J40" s="28">
         <f>+SUM(J37:J38)</f>
-        <v>32569</v>
+        <v>49896</v>
       </c>
       <c r="X40" s="28"/>
     </row>
@@ -10988,7 +11081,7 @@
       </c>
       <c r="D42" s="24">
         <f t="shared" si="22"/>
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="E42" s="24">
         <f t="shared" si="22"/>
@@ -11000,7 +11093,7 @@
       </c>
       <c r="G42" s="24">
         <f t="shared" si="22"/>
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="H42" s="24">
         <f t="shared" si="22"/>
@@ -11020,7 +11113,7 @@
       </c>
       <c r="R42" s="24">
         <f t="shared" si="23"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="S42" s="24">
         <f t="shared" si="23"/>
@@ -11032,7 +11125,7 @@
       </c>
       <c r="U42" s="24">
         <f t="shared" si="23"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="V42" s="24">
         <f t="shared" si="23"/>
@@ -11040,13 +11133,13 @@
       </c>
       <c r="W42" s="24">
         <f t="shared" si="23"/>
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B43" s="24">
         <f>B14</f>
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C43" s="24">
         <f t="shared" ref="C43:I43" si="24">C14</f>
@@ -11054,7 +11147,7 @@
       </c>
       <c r="D43" s="24">
         <f t="shared" si="24"/>
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E43" s="24">
         <f t="shared" si="24"/>
@@ -11062,7 +11155,7 @@
       </c>
       <c r="F43" s="24">
         <f t="shared" si="24"/>
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G43" s="24">
         <f t="shared" si="24"/>
@@ -11082,7 +11175,7 @@
       </c>
       <c r="P43" s="24">
         <f>P14</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="Q43" s="24">
         <f t="shared" ref="Q43:W43" si="25">Q14</f>
@@ -11094,7 +11187,7 @@
       </c>
       <c r="S43" s="24">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="T43" s="24">
         <f t="shared" si="25"/>
@@ -11106,7 +11199,7 @@
       </c>
       <c r="V43" s="24">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="W43" s="24">
         <f t="shared" si="25"/>
@@ -11314,7 +11407,7 @@
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B48">
         <f>SUM(B42:B46)*$K$43</f>
-        <v>13750</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <f t="shared" ref="C48:I48" si="32">SUM(C42:C46)*$K$43</f>
@@ -11322,7 +11415,7 @@
       </c>
       <c r="D48">
         <f t="shared" si="32"/>
-        <v>36375</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <f t="shared" si="32"/>
@@ -11330,11 +11423,11 @@
       </c>
       <c r="F48">
         <f t="shared" si="32"/>
-        <v>13750</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <f t="shared" si="32"/>
-        <v>22625</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <f t="shared" si="32"/>
@@ -11361,53 +11454,68 @@
     <mergeCell ref="O5:W5"/>
     <mergeCell ref="A17:I17"/>
   </mergeCells>
-  <conditionalFormatting sqref="B10:I10">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+  <conditionalFormatting sqref="B10:I10 K10">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:I16">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:I22">
-    <cfRule type="cellIs" dxfId="7" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:I28">
-    <cfRule type="cellIs" dxfId="6" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:I34">
-    <cfRule type="cellIs" dxfId="5" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:W10">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:W16">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:W22">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:W28">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34:W34">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y10">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11421,7 +11529,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection sqref="A1:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11500,7 +11608,7 @@
       </c>
       <c r="C4" s="28">
         <f>Inventario_Dinamico!B38</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="D4" s="28">
         <f>Inventario_Dinamico!C38</f>
@@ -11508,7 +11616,7 @@
       </c>
       <c r="E4" s="28">
         <f>Inventario_Dinamico!D38</f>
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="F4" s="28">
         <f>Inventario_Dinamico!E38</f>
@@ -11516,11 +11624,11 @@
       </c>
       <c r="G4" s="28">
         <f>Inventario_Dinamico!F38</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="H4" s="28">
         <f>Inventario_Dinamico!G38</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="I4" s="28">
         <f>Inventario_Dinamico!H38</f>
@@ -11537,7 +11645,7 @@
       </c>
       <c r="C5" s="43">
         <f>Inventario_Dinamico!P38</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="D5" s="43">
         <f>Inventario_Dinamico!Q38</f>
@@ -11545,11 +11653,11 @@
       </c>
       <c r="E5" s="43">
         <f>Inventario_Dinamico!R38</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="43">
         <f>Inventario_Dinamico!S38</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G5" s="43">
         <f>Inventario_Dinamico!T38</f>
@@ -11557,22 +11665,22 @@
       </c>
       <c r="H5" s="43">
         <f>Inventario_Dinamico!U38</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="43">
         <f>Inventario_Dinamico!V38</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="J5" s="43">
         <f>Inventario_Dinamico!W38</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="42"/>
       <c r="C6" s="28">
         <f t="shared" ref="C6:J6" si="0">SUM(C4:C5)</f>
-        <v>2300</v>
+        <v>6000</v>
       </c>
       <c r="D6" s="28">
         <f t="shared" si="0"/>
@@ -11580,27 +11688,27 @@
       </c>
       <c r="E6" s="28">
         <f t="shared" si="0"/>
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="F6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" si="0"/>
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="H6" s="28">
         <f t="shared" si="0"/>
-        <v>8300</v>
+        <v>0</v>
       </c>
       <c r="I6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="J6" s="28">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -11621,35 +11729,35 @@
       </c>
       <c r="C8" s="28">
         <f>Inventario_Dinamico!B37</f>
-        <v>2367</v>
+        <v>9416.4</v>
       </c>
       <c r="D8" s="28">
         <f>Inventario_Dinamico!C37</f>
-        <v>1566</v>
+        <v>8508</v>
       </c>
       <c r="E8" s="28">
         <f>Inventario_Dinamico!D37</f>
-        <v>3384</v>
+        <v>7599.5999999999995</v>
       </c>
       <c r="F8" s="28">
         <f>Inventario_Dinamico!E37</f>
-        <v>2583</v>
+        <v>6691.2</v>
       </c>
       <c r="G8" s="28">
         <f>Inventario_Dinamico!F37</f>
-        <v>2772</v>
+        <v>5782.8</v>
       </c>
       <c r="H8" s="28">
         <f>Inventario_Dinamico!G37</f>
-        <v>3600</v>
+        <v>4874.3999999999996</v>
       </c>
       <c r="I8" s="28">
         <f>Inventario_Dinamico!H37</f>
-        <v>2799</v>
+        <v>3966</v>
       </c>
       <c r="J8" s="28">
         <f>Inventario_Dinamico!I37</f>
-        <v>1998</v>
+        <v>3057.6</v>
       </c>
       <c r="K8" t="str">
         <f>+VLOOKUP(Inputs!B110,Inputs!A107:C109,3,FALSE)</f>
@@ -11662,35 +11770,35 @@
       </c>
       <c r="C9" s="43">
         <f>Inventario_Dinamico!P37</f>
-        <v>601.5</v>
+        <v>5858.94</v>
       </c>
       <c r="D9" s="43">
         <f>Inventario_Dinamico!Q37</f>
-        <v>421.5</v>
+        <v>5677.3799999999992</v>
       </c>
       <c r="E9" s="43">
         <f>Inventario_Dinamico!R37</f>
-        <v>565.5</v>
+        <v>5495.8199999999988</v>
       </c>
       <c r="F9" s="43">
         <f>Inventario_Dinamico!S37</f>
-        <v>385.5</v>
+        <v>5555.4599999999991</v>
       </c>
       <c r="G9" s="43">
         <f>Inventario_Dinamico!T37</f>
-        <v>205.5</v>
+        <v>5373.9</v>
       </c>
       <c r="H9" s="43">
         <f>Inventario_Dinamico!U37</f>
-        <v>349.5</v>
+        <v>5192.3399999999992</v>
       </c>
       <c r="I9" s="43">
         <f>Inventario_Dinamico!V37</f>
-        <v>169.5</v>
+        <v>5251.98</v>
       </c>
       <c r="J9" s="43">
         <f>Inventario_Dinamico!W37</f>
-        <v>313.5</v>
+        <v>5070.4199999999992</v>
       </c>
       <c r="K9" t="str">
         <f>VLOOKUP(Inputs!B118,Inputs!A114:C117,3,FALSE)</f>
@@ -11700,35 +11808,35 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C10" s="28">
         <f t="shared" ref="C10:J10" si="1">+SUM(C8:C9)</f>
-        <v>2968.5</v>
+        <v>15275.34</v>
       </c>
       <c r="D10" s="28">
         <f t="shared" si="1"/>
-        <v>1987.5</v>
+        <v>14185.38</v>
       </c>
       <c r="E10" s="28">
         <f t="shared" si="1"/>
-        <v>3949.5</v>
+        <v>13095.419999999998</v>
       </c>
       <c r="F10" s="28">
         <f t="shared" si="1"/>
-        <v>2968.5</v>
+        <v>12246.66</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" si="1"/>
-        <v>2977.5</v>
+        <v>11156.7</v>
       </c>
       <c r="H10" s="28">
         <f t="shared" si="1"/>
-        <v>3949.5</v>
+        <v>10066.739999999998</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" si="1"/>
-        <v>2968.5</v>
+        <v>9217.98</v>
       </c>
       <c r="J10" s="28">
         <f t="shared" si="1"/>
-        <v>2311.5</v>
+        <v>8128.0199999999986</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -11745,7 +11853,7 @@
       </c>
       <c r="C12" s="1">
         <f>(Inventario_Dinamico!B8+Inventario_Dinamico!B14+Inventario_Dinamico!B20+Inventario_Dinamico!B26+Inventario_Dinamico!B32)*$L$12</f>
-        <v>13750</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <f>(Inventario_Dinamico!C8+Inventario_Dinamico!C14+Inventario_Dinamico!C20+Inventario_Dinamico!C26+Inventario_Dinamico!C32)*$L$12</f>
@@ -11753,7 +11861,7 @@
       </c>
       <c r="E12" s="1">
         <f>(Inventario_Dinamico!D8+Inventario_Dinamico!D14+Inventario_Dinamico!D20+Inventario_Dinamico!D26+Inventario_Dinamico!D32)*$L$12</f>
-        <v>36375</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <f>(Inventario_Dinamico!E8+Inventario_Dinamico!E14+Inventario_Dinamico!E20+Inventario_Dinamico!E26+Inventario_Dinamico!E32)*$L$12</f>
@@ -11761,11 +11869,11 @@
       </c>
       <c r="G12" s="1">
         <f>(Inventario_Dinamico!F8+Inventario_Dinamico!F14+Inventario_Dinamico!F20+Inventario_Dinamico!F26+Inventario_Dinamico!F32)*$L$12</f>
-        <v>13750</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
         <f>(Inventario_Dinamico!G8+Inventario_Dinamico!G14+Inventario_Dinamico!G20+Inventario_Dinamico!G26+Inventario_Dinamico!G32)*$L$12</f>
-        <v>22625</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
         <f>(Inventario_Dinamico!H8+Inventario_Dinamico!H14+Inventario_Dinamico!H20+Inventario_Dinamico!H26+Inventario_Dinamico!H32)*$L$12</f>
@@ -11786,7 +11894,7 @@
       </c>
       <c r="C13" s="1">
         <f>(Inventario_Dinamico!P8+Inventario_Dinamico!P14+Inventario_Dinamico!P20+Inventario_Dinamico!P26+Inventario_Dinamico!P32)*$L$13</f>
-        <v>0</v>
+        <v>22110</v>
       </c>
       <c r="D13" s="1">
         <f>(Inventario_Dinamico!Q8+Inventario_Dinamico!Q14+Inventario_Dinamico!Q20+Inventario_Dinamico!Q26+Inventario_Dinamico!Q32)*$L$13</f>
@@ -11794,11 +11902,11 @@
       </c>
       <c r="E13" s="1">
         <f>(Inventario_Dinamico!R8+Inventario_Dinamico!R14+Inventario_Dinamico!R20+Inventario_Dinamico!R26+Inventario_Dinamico!R32)*$L$13</f>
-        <v>29700</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <f>(Inventario_Dinamico!S8+Inventario_Dinamico!S14+Inventario_Dinamico!S20+Inventario_Dinamico!S26+Inventario_Dinamico!S32)*$L$13</f>
-        <v>0</v>
+        <v>22110</v>
       </c>
       <c r="G13" s="1">
         <f>(Inventario_Dinamico!T8+Inventario_Dinamico!T14+Inventario_Dinamico!T20+Inventario_Dinamico!T26+Inventario_Dinamico!T32)*$L$13</f>
@@ -11806,15 +11914,15 @@
       </c>
       <c r="H13" s="1">
         <f>(Inventario_Dinamico!U8+Inventario_Dinamico!U14+Inventario_Dinamico!U20+Inventario_Dinamico!U26+Inventario_Dinamico!U32)*$L$13</f>
-        <v>29700</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
         <f>(Inventario_Dinamico!V8+Inventario_Dinamico!V14+Inventario_Dinamico!V20+Inventario_Dinamico!V26+Inventario_Dinamico!V32)*$L$13</f>
-        <v>0</v>
+        <v>22110</v>
       </c>
       <c r="J13" s="1">
         <f>(Inventario_Dinamico!W8+Inventario_Dinamico!W14+Inventario_Dinamico!W20+Inventario_Dinamico!W26+Inventario_Dinamico!W32)*$L$13</f>
-        <v>29700</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <f>+VLOOKUP(Inputs!B118,Inputs!A114:B117,2,FALSE)</f>
@@ -11827,7 +11935,7 @@
       </c>
       <c r="B14" s="28">
         <f>BOM_Consumo_Piezas!P6+BOM_Consumo_Piezas!P16+BOM_Consumo_Piezas!P26+BOM_Consumo_Piezas!P36+BOM_Consumo_Piezas!P46</f>
-        <v>11520</v>
+        <v>14580</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -11844,7 +11952,7 @@
       </c>
       <c r="B15" s="28">
         <f>BOM_Consumo_Piezas!P7+BOM_Consumo_Piezas!P17+BOM_Consumo_Piezas!P27+BOM_Consumo_Piezas!P37+BOM_Consumo_Piezas!P47</f>
-        <v>12677</v>
+        <v>13391</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -11861,7 +11969,7 @@
       </c>
       <c r="B16" s="28">
         <f>BOM_Consumo_Piezas!P8+BOM_Consumo_Piezas!P18+BOM_Consumo_Piezas!P28+BOM_Consumo_Piezas!P38+BOM_Consumo_Piezas!P48</f>
-        <v>7776</v>
+        <v>8712</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -11878,7 +11986,7 @@
       </c>
       <c r="B17" s="28">
         <f>BOM_Consumo_Piezas!P9+BOM_Consumo_Piezas!P19+BOM_Consumo_Piezas!P29+BOM_Consumo_Piezas!P39+BOM_Consumo_Piezas!P49</f>
-        <v>5256</v>
+        <v>5808</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -11895,7 +12003,7 @@
       </c>
       <c r="B18" s="28">
         <f>BOM_Consumo_Piezas!P10+BOM_Consumo_Piezas!P20+BOM_Consumo_Piezas!P30+BOM_Consumo_Piezas!P40+BOM_Consumo_Piezas!P50</f>
-        <v>13320</v>
+        <v>14520</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -11912,7 +12020,7 @@
       </c>
       <c r="B19" s="43">
         <f>BOM_Consumo_Piezas!P11+BOM_Consumo_Piezas!P21+BOM_Consumo_Piezas!P31+BOM_Consumo_Piezas!P41+BOM_Consumo_Piezas!P51</f>
-        <v>3080</v>
+        <v>3388</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
@@ -11926,11 +12034,11 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <f>SUM(B12:B19)</f>
-        <v>53629</v>
+        <v>60399</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ref="C20:J20" si="2">SUM(C12:C19)</f>
-        <v>13750</v>
+        <v>22110</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="2"/>
@@ -11938,27 +12046,27 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="2"/>
-        <v>66075</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22110</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="2"/>
-        <v>13750</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="2"/>
-        <v>52325</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22110</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="2"/>
-        <v>29700</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12049,7 +12157,7 @@
       </c>
       <c r="C4" s="28">
         <f>Inventario_Dinamico!B38</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="D4" s="28">
         <f>Inventario_Dinamico!C38</f>
@@ -12057,7 +12165,7 @@
       </c>
       <c r="E4" s="28">
         <f>Inventario_Dinamico!D38</f>
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="F4" s="28">
         <f>Inventario_Dinamico!E38</f>
@@ -12065,11 +12173,11 @@
       </c>
       <c r="G4" s="28">
         <f>Inventario_Dinamico!F38</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="H4" s="28">
         <f>Inventario_Dinamico!G38</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="I4" s="28">
         <f>Inventario_Dinamico!H38</f>
@@ -12086,7 +12194,7 @@
       </c>
       <c r="C5" s="43">
         <f>Inventario_Dinamico!P38</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="D5" s="43">
         <f>Inventario_Dinamico!Q38</f>
@@ -12094,11 +12202,11 @@
       </c>
       <c r="E5" s="43">
         <f>Inventario_Dinamico!R38</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="43">
         <f>Inventario_Dinamico!S38</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G5" s="43">
         <f>Inventario_Dinamico!T38</f>
@@ -12106,22 +12214,22 @@
       </c>
       <c r="H5" s="43">
         <f>Inventario_Dinamico!U38</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="43">
         <f>Inventario_Dinamico!V38</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="J5" s="43">
         <f>Inventario_Dinamico!W38</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="42"/>
       <c r="C6" s="28">
         <f t="shared" ref="C6:J6" si="0">SUM(C4:C5)</f>
-        <v>2300</v>
+        <v>6000</v>
       </c>
       <c r="D6" s="28">
         <f t="shared" si="0"/>
@@ -12129,27 +12237,27 @@
       </c>
       <c r="E6" s="28">
         <f t="shared" si="0"/>
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="F6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" si="0"/>
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="H6" s="28">
         <f t="shared" si="0"/>
-        <v>8300</v>
+        <v>0</v>
       </c>
       <c r="I6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="J6" s="28">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -12170,35 +12278,35 @@
       </c>
       <c r="C8" s="28">
         <f>Inventario_Dinamico!B37</f>
-        <v>2367</v>
+        <v>9416.4</v>
       </c>
       <c r="D8" s="28">
         <f>Inventario_Dinamico!C37</f>
-        <v>1566</v>
+        <v>8508</v>
       </c>
       <c r="E8" s="28">
         <f>Inventario_Dinamico!D37</f>
-        <v>3384</v>
+        <v>7599.5999999999995</v>
       </c>
       <c r="F8" s="28">
         <f>Inventario_Dinamico!E37</f>
-        <v>2583</v>
+        <v>6691.2</v>
       </c>
       <c r="G8" s="28">
         <f>Inventario_Dinamico!F37</f>
-        <v>2772</v>
+        <v>5782.8</v>
       </c>
       <c r="H8" s="28">
         <f>Inventario_Dinamico!G37</f>
-        <v>3600</v>
+        <v>4874.3999999999996</v>
       </c>
       <c r="I8" s="28">
         <f>Inventario_Dinamico!H37</f>
-        <v>2799</v>
+        <v>3966</v>
       </c>
       <c r="J8" s="28">
         <f>Inventario_Dinamico!I37</f>
-        <v>1998</v>
+        <v>3057.6</v>
       </c>
       <c r="K8" t="str">
         <f>+VLOOKUP(Inputs!B110,Inputs!A107:C109,3,FALSE)</f>
@@ -12211,35 +12319,35 @@
       </c>
       <c r="C9" s="43">
         <f>Inventario_Dinamico!P37</f>
-        <v>601.5</v>
+        <v>5858.94</v>
       </c>
       <c r="D9" s="43">
         <f>Inventario_Dinamico!Q37</f>
-        <v>421.5</v>
+        <v>5677.3799999999992</v>
       </c>
       <c r="E9" s="43">
         <f>Inventario_Dinamico!R37</f>
-        <v>565.5</v>
+        <v>5495.8199999999988</v>
       </c>
       <c r="F9" s="43">
         <f>Inventario_Dinamico!S37</f>
-        <v>385.5</v>
+        <v>5555.4599999999991</v>
       </c>
       <c r="G9" s="43">
         <f>Inventario_Dinamico!T37</f>
-        <v>205.5</v>
+        <v>5373.9</v>
       </c>
       <c r="H9" s="43">
         <f>Inventario_Dinamico!U37</f>
-        <v>349.5</v>
+        <v>5192.3399999999992</v>
       </c>
       <c r="I9" s="43">
         <f>Inventario_Dinamico!V37</f>
-        <v>169.5</v>
+        <v>5251.98</v>
       </c>
       <c r="J9" s="43">
         <f>Inventario_Dinamico!W37</f>
-        <v>313.5</v>
+        <v>5070.4199999999992</v>
       </c>
       <c r="K9" t="str">
         <f>VLOOKUP(Inputs!B118,Inputs!A114:C117,3,FALSE)</f>
@@ -12249,35 +12357,35 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="28">
         <f t="shared" ref="C10:J10" si="1">+SUM(C8:C9)</f>
-        <v>2968.5</v>
+        <v>15275.34</v>
       </c>
       <c r="D10" s="28">
         <f t="shared" si="1"/>
-        <v>1987.5</v>
+        <v>14185.38</v>
       </c>
       <c r="E10" s="28">
         <f t="shared" si="1"/>
-        <v>3949.5</v>
+        <v>13095.419999999998</v>
       </c>
       <c r="F10" s="28">
         <f t="shared" si="1"/>
-        <v>2968.5</v>
+        <v>12246.66</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" si="1"/>
-        <v>2977.5</v>
+        <v>11156.7</v>
       </c>
       <c r="H10" s="28">
         <f t="shared" si="1"/>
-        <v>3949.5</v>
+        <v>10066.739999999998</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" si="1"/>
-        <v>2968.5</v>
+        <v>9217.98</v>
       </c>
       <c r="J10" s="28">
         <f t="shared" si="1"/>
-        <v>2311.5</v>
+        <v>8128.0199999999986</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -12291,7 +12399,7 @@
       </c>
       <c r="C12" s="1">
         <f>(Inventario_Dinamico!B8+Inventario_Dinamico!B14+Inventario_Dinamico!B20+Inventario_Dinamico!B26+Inventario_Dinamico!B32)*$L$12</f>
-        <v>13750</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <f>(Inventario_Dinamico!C8+Inventario_Dinamico!C14+Inventario_Dinamico!C20+Inventario_Dinamico!C26+Inventario_Dinamico!C32)*$L$12</f>
@@ -12299,7 +12407,7 @@
       </c>
       <c r="E12" s="1">
         <f>(Inventario_Dinamico!D8+Inventario_Dinamico!D14+Inventario_Dinamico!D20+Inventario_Dinamico!D26+Inventario_Dinamico!D32)*$L$12</f>
-        <v>36375</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <f>(Inventario_Dinamico!E8+Inventario_Dinamico!E14+Inventario_Dinamico!E20+Inventario_Dinamico!E26+Inventario_Dinamico!E32)*$L$12</f>
@@ -12307,11 +12415,11 @@
       </c>
       <c r="G12" s="1">
         <f>(Inventario_Dinamico!F8+Inventario_Dinamico!F14+Inventario_Dinamico!F20+Inventario_Dinamico!F26+Inventario_Dinamico!F32)*$L$12</f>
-        <v>13750</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
         <f>(Inventario_Dinamico!G8+Inventario_Dinamico!G14+Inventario_Dinamico!G20+Inventario_Dinamico!G26+Inventario_Dinamico!G32)*$L$12</f>
-        <v>22625</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
         <f>(Inventario_Dinamico!H8+Inventario_Dinamico!H14+Inventario_Dinamico!H20+Inventario_Dinamico!H26+Inventario_Dinamico!H32)*$L$12</f>
@@ -12332,7 +12440,7 @@
       </c>
       <c r="C13" s="1">
         <f>(Inventario_Dinamico!P8+Inventario_Dinamico!P14+Inventario_Dinamico!P20+Inventario_Dinamico!P26+Inventario_Dinamico!P32)*$L$13</f>
-        <v>0</v>
+        <v>22110</v>
       </c>
       <c r="D13" s="1">
         <f>(Inventario_Dinamico!Q8+Inventario_Dinamico!Q14+Inventario_Dinamico!Q20+Inventario_Dinamico!Q26+Inventario_Dinamico!Q32)*$L$13</f>
@@ -12340,11 +12448,11 @@
       </c>
       <c r="E13" s="1">
         <f>(Inventario_Dinamico!R8+Inventario_Dinamico!R14+Inventario_Dinamico!R20+Inventario_Dinamico!R26+Inventario_Dinamico!R32)*$L$13</f>
-        <v>29700</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <f>(Inventario_Dinamico!S8+Inventario_Dinamico!S14+Inventario_Dinamico!S20+Inventario_Dinamico!S26+Inventario_Dinamico!S32)*$L$13</f>
-        <v>0</v>
+        <v>22110</v>
       </c>
       <c r="G13" s="1">
         <f>(Inventario_Dinamico!T8+Inventario_Dinamico!T14+Inventario_Dinamico!T20+Inventario_Dinamico!T26+Inventario_Dinamico!T32)*$L$13</f>
@@ -12352,15 +12460,15 @@
       </c>
       <c r="H13" s="1">
         <f>(Inventario_Dinamico!U8+Inventario_Dinamico!U14+Inventario_Dinamico!U20+Inventario_Dinamico!U26+Inventario_Dinamico!U32)*$L$13</f>
-        <v>29700</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
         <f>(Inventario_Dinamico!V8+Inventario_Dinamico!V14+Inventario_Dinamico!V20+Inventario_Dinamico!V26+Inventario_Dinamico!V32)*$L$13</f>
-        <v>0</v>
+        <v>22110</v>
       </c>
       <c r="J13" s="1">
         <f>(Inventario_Dinamico!W8+Inventario_Dinamico!W14+Inventario_Dinamico!W20+Inventario_Dinamico!W26+Inventario_Dinamico!W32)*$L$13</f>
-        <v>29700</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <f>+VLOOKUP(Inputs!B118,Inputs!A114:B117,2,FALSE)</f>
@@ -12373,7 +12481,7 @@
       </c>
       <c r="B14" s="28">
         <f>BOM_Consumo_Piezas!P6+BOM_Consumo_Piezas!P16+BOM_Consumo_Piezas!P26+BOM_Consumo_Piezas!P36+BOM_Consumo_Piezas!P46</f>
-        <v>11520</v>
+        <v>14580</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -12390,7 +12498,7 @@
       </c>
       <c r="B15" s="28">
         <f>BOM_Consumo_Piezas!P7+BOM_Consumo_Piezas!P17+BOM_Consumo_Piezas!P27+BOM_Consumo_Piezas!P37+BOM_Consumo_Piezas!P47</f>
-        <v>12677</v>
+        <v>13391</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -12407,7 +12515,7 @@
       </c>
       <c r="B16" s="28">
         <f>BOM_Consumo_Piezas!P8+BOM_Consumo_Piezas!P18+BOM_Consumo_Piezas!P28+BOM_Consumo_Piezas!P38+BOM_Consumo_Piezas!P48</f>
-        <v>7776</v>
+        <v>8712</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -12424,7 +12532,7 @@
       </c>
       <c r="B17" s="28">
         <f>BOM_Consumo_Piezas!P9+BOM_Consumo_Piezas!P19+BOM_Consumo_Piezas!P29+BOM_Consumo_Piezas!P39+BOM_Consumo_Piezas!P49</f>
-        <v>5256</v>
+        <v>5808</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -12441,7 +12549,7 @@
       </c>
       <c r="B18" s="28">
         <f>BOM_Consumo_Piezas!P10+BOM_Consumo_Piezas!P20+BOM_Consumo_Piezas!P30+BOM_Consumo_Piezas!P40+BOM_Consumo_Piezas!P50</f>
-        <v>13320</v>
+        <v>14520</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -12458,7 +12566,7 @@
       </c>
       <c r="B19" s="43">
         <f>BOM_Consumo_Piezas!P11+BOM_Consumo_Piezas!P21+BOM_Consumo_Piezas!P31+BOM_Consumo_Piezas!P41+BOM_Consumo_Piezas!P51</f>
-        <v>3080</v>
+        <v>3388</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
@@ -12472,11 +12580,11 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <f>SUM(B12:B19)</f>
-        <v>53629</v>
+        <v>60399</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ref="C20:J20" si="2">SUM(C12:C19)</f>
-        <v>13750</v>
+        <v>22110</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="2"/>
@@ -12484,27 +12592,27 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="2"/>
-        <v>66075</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22110</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="2"/>
-        <v>13750</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="2"/>
-        <v>52325</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22110</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="2"/>
-        <v>29700</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
